--- a/Learning Advance Control.xlsx
+++ b/Learning Advance Control.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USUARIO\GR\Software Development\Learning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ECD4454-9015-4067-A6B7-0C47907C353B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28568FF9-E4C3-4287-97B2-D1D4931025DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="12360" xr2:uid="{C28AFF7E-06EE-4EAA-BF3B-F70E2F389C99}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="737" uniqueCount="584">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="739" uniqueCount="585">
   <si>
     <t>Basic Syntax</t>
   </si>
@@ -2344,6 +2344,9 @@
   </si>
   <si>
     <t>HackerRank DataStructures Exercices</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
 </sst>
 </file>
@@ -2629,7 +2632,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
@@ -2783,6 +2786,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -2795,8 +2801,8 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3338,10 +3344,10 @@
       <c r="D18" s="23"/>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B19" s="58" t="s">
+      <c r="B19" s="59" t="s">
         <v>575</v>
       </c>
-      <c r="C19" s="58"/>
+      <c r="C19" s="59"/>
       <c r="D19" s="22">
         <v>1</v>
       </c>
@@ -3352,7 +3358,7 @@
       <c r="D20" s="23"/>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B21" s="57" t="s">
+      <c r="B21" s="58" t="s">
         <v>21</v>
       </c>
       <c r="C21" s="7" t="s">
@@ -3363,7 +3369,7 @@
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B22" s="57"/>
+      <c r="B22" s="58"/>
       <c r="C22" s="7" t="s">
         <v>15</v>
       </c>
@@ -3389,7 +3395,7 @@
       </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="C25" s="61" t="s">
+      <c r="C25" s="57" t="s">
         <v>18</v>
       </c>
       <c r="D25" s="22">
@@ -3397,7 +3403,7 @@
       </c>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="C26" s="61" t="s">
+      <c r="C26" s="57" t="s">
         <v>19</v>
       </c>
       <c r="D26" s="22">
@@ -3409,10 +3415,10 @@
       <c r="D27" s="23"/>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B28" s="58" t="s">
+      <c r="B28" s="59" t="s">
         <v>583</v>
       </c>
-      <c r="C28" s="58"/>
+      <c r="C28" s="59"/>
       <c r="D28" s="22">
         <v>0</v>
       </c>
@@ -3606,7 +3612,7 @@
   <dimension ref="B2:D45"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3631,7 +3637,7 @@
       </c>
       <c r="D3" s="22">
         <f>+AVERAGE(D5,D6,D9,D10,D16,D17,D20,D21,D24,D25,D26,D27,D30,D34,D38)</f>
-        <v>4.6666666666666669E-2</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="4" spans="2:4" s="11" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -3640,7 +3646,7 @@
       <c r="D4" s="21"/>
     </row>
     <row r="5" spans="2:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="60" t="s">
+      <c r="B5" s="61" t="s">
         <v>32</v>
       </c>
       <c r="C5" s="7" t="s">
@@ -3651,7 +3657,7 @@
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B6" s="60"/>
+      <c r="B6" s="61"/>
       <c r="C6" s="7" t="s">
         <v>34</v>
       </c>
@@ -3669,24 +3675,24 @@
       <c r="D8" s="22"/>
     </row>
     <row r="9" spans="2:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="59" t="s">
+      <c r="B9" s="60" t="s">
         <v>35</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>36</v>
       </c>
       <c r="D9" s="22">
-        <v>0.15</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B10" s="59"/>
+      <c r="B10" s="60"/>
       <c r="C10" s="7" t="s">
         <v>37</v>
       </c>
       <c r="D10" s="22">
         <f>+AVERAGE(D11)</f>
-        <v>0.15</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.3">
@@ -3694,23 +3700,23 @@
         <v>38</v>
       </c>
       <c r="D11" s="24">
-        <v>0.15</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C12" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="D12" s="24">
-        <v>0</v>
+      <c r="D12" s="62" t="s">
+        <v>584</v>
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C13" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="D13" s="24">
-        <v>0</v>
+      <c r="D13" s="62" t="s">
+        <v>584</v>
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.3">

--- a/Learning Advance Control.xlsx
+++ b/Learning Advance Control.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USUARIO\GR\Software Development\Learning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28568FF9-E4C3-4287-97B2-D1D4931025DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14D02173-863F-4C9A-8938-999EE2AE696A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="12360" xr2:uid="{C28AFF7E-06EE-4EAA-BF3B-F70E2F389C99}"/>
   </bookViews>
@@ -2789,6 +2789,9 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -2800,9 +2803,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3194,8 +3194,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E55BE2DC-6D03-4737-9A16-12A22A3E1488}">
   <dimension ref="B2:H56"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" outlineLevelRow="1" x14ac:dyDescent="0.3"/>
@@ -3221,7 +3221,7 @@
       </c>
       <c r="D3" s="22">
         <f>+AVERAGE(D5,D6,D14,D16,D17,D15,D21,D22,D23,D24,D25,D26,D30,D31,D32,D33,D34,D35,D36,D37,D38,D39)</f>
-        <v>0.37568181818181823</v>
+        <v>0.40977272727272729</v>
       </c>
     </row>
     <row r="4" spans="2:8" s="11" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -3344,10 +3344,10 @@
       <c r="D18" s="23"/>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B19" s="59" t="s">
+      <c r="B19" s="60" t="s">
         <v>575</v>
       </c>
-      <c r="C19" s="59"/>
+      <c r="C19" s="60"/>
       <c r="D19" s="22">
         <v>1</v>
       </c>
@@ -3358,7 +3358,7 @@
       <c r="D20" s="23"/>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B21" s="58" t="s">
+      <c r="B21" s="59" t="s">
         <v>21</v>
       </c>
       <c r="C21" s="7" t="s">
@@ -3369,12 +3369,12 @@
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B22" s="58"/>
+      <c r="B22" s="59"/>
       <c r="C22" s="7" t="s">
         <v>15</v>
       </c>
       <c r="D22" s="22">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="E22" s="56"/>
     </row>
@@ -3415,10 +3415,10 @@
       <c r="D27" s="23"/>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B28" s="59" t="s">
+      <c r="B28" s="60" t="s">
         <v>583</v>
       </c>
-      <c r="C28" s="59"/>
+      <c r="C28" s="60"/>
       <c r="D28" s="22">
         <v>0</v>
       </c>
@@ -3611,8 +3611,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0656C058-172F-42FA-9F84-D86D1606C4DB}">
   <dimension ref="B2:D45"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView showGridLines="0" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3637,7 +3637,7 @@
       </c>
       <c r="D3" s="22">
         <f>+AVERAGE(D5,D6,D9,D10,D16,D17,D20,D21,D24,D25,D26,D27,D30,D34,D38)</f>
-        <v>0.16</v>
+        <v>0.19333333333333333</v>
       </c>
     </row>
     <row r="4" spans="2:4" s="11" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -3646,18 +3646,18 @@
       <c r="D4" s="21"/>
     </row>
     <row r="5" spans="2:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="61" t="s">
+      <c r="B5" s="62" t="s">
         <v>32</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>33</v>
       </c>
       <c r="D5" s="22">
-        <v>0.1</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B6" s="61"/>
+      <c r="B6" s="62"/>
       <c r="C6" s="7" t="s">
         <v>34</v>
       </c>
@@ -3675,7 +3675,7 @@
       <c r="D8" s="22"/>
     </row>
     <row r="9" spans="2:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="60" t="s">
+      <c r="B9" s="61" t="s">
         <v>35</v>
       </c>
       <c r="C9" s="7" t="s">
@@ -3686,7 +3686,7 @@
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B10" s="60"/>
+      <c r="B10" s="61"/>
       <c r="C10" s="7" t="s">
         <v>37</v>
       </c>
@@ -3707,7 +3707,7 @@
       <c r="C12" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="D12" s="62" t="s">
+      <c r="D12" s="58" t="s">
         <v>584</v>
       </c>
     </row>
@@ -3715,7 +3715,7 @@
       <c r="C13" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="D13" s="62" t="s">
+      <c r="D13" s="58" t="s">
         <v>584</v>
       </c>
     </row>

--- a/Learning Advance Control.xlsx
+++ b/Learning Advance Control.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USUARIO\GR\Software Development\Learning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14D02173-863F-4C9A-8938-999EE2AE696A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57A26097-2A14-4913-8A2C-B1C1DDB90DD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="12360" xr2:uid="{C28AFF7E-06EE-4EAA-BF3B-F70E2F389C99}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="12360" xr2:uid="{C28AFF7E-06EE-4EAA-BF3B-F70E2F389C99}"/>
   </bookViews>
   <sheets>
     <sheet name="Language" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="739" uniqueCount="585">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="740" uniqueCount="586">
   <si>
     <t>Basic Syntax</t>
   </si>
@@ -142,9 +142,6 @@
   </si>
   <si>
     <t>Estructuras de datos</t>
-  </si>
-  <si>
-    <t>Algoritmos de ordenamiento.</t>
   </si>
   <si>
     <t>1. Version Control Systems</t>
@@ -2347,6 +2344,12 @@
   </si>
   <si>
     <t>-</t>
+  </si>
+  <si>
+    <t>Graphs</t>
+  </si>
+  <si>
+    <t>Algoritmos de ordenamiento</t>
   </si>
 </sst>
 </file>
@@ -3192,10 +3195,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E55BE2DC-6D03-4737-9A16-12A22A3E1488}">
-  <dimension ref="B2:H56"/>
+  <dimension ref="B2:H57"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" outlineLevelRow="1" x14ac:dyDescent="0.3"/>
@@ -3211,17 +3214,17 @@
       <c r="B2" s="4"/>
       <c r="C2" s="10"/>
       <c r="D2" s="21" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="2:8" s="11" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="4"/>
       <c r="C3" s="27" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D3" s="22">
-        <f>+AVERAGE(D5,D6,D14,D16,D17,D15,D21,D22,D23,D24,D25,D26,D30,D31,D32,D33,D34,D35,D36,D37,D38,D39)</f>
-        <v>0.40977272727272729</v>
+        <f>+AVERAGE(D5,D6,D14,D16,D17,D15,D21,D22,D23,D24,D26,D27,D31,D32,D33,D34,D35,D36,D37,D38,D39,D40,D25)</f>
+        <v>0.51586956521739136</v>
       </c>
     </row>
     <row r="4" spans="2:8" s="11" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -3345,7 +3348,7 @@
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B19" s="60" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C19" s="60"/>
       <c r="D19" s="22">
@@ -3374,16 +3377,15 @@
         <v>15</v>
       </c>
       <c r="D22" s="22">
-        <v>0.75</v>
-      </c>
-      <c r="E22" s="56"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C23" s="7" t="s">
         <v>16</v>
       </c>
       <c r="D23" s="22">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.3">
@@ -3391,56 +3393,57 @@
         <v>17</v>
       </c>
       <c r="D24" s="22">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="C25" s="57" t="s">
-        <v>18</v>
+      <c r="C25" s="7" t="s">
+        <v>584</v>
       </c>
       <c r="D25" s="22">
-        <v>0.1</v>
-      </c>
+        <v>0.6</v>
+      </c>
+      <c r="E25" s="56"/>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C26" s="57" t="s">
+        <v>18</v>
+      </c>
+      <c r="D26" s="22">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C27" s="57" t="s">
         <v>19</v>
       </c>
-      <c r="D26" s="22">
+      <c r="D27" s="22">
         <v>0.15</v>
       </c>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="C27" s="7"/>
-      <c r="D27" s="23"/>
-    </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B28" s="60" t="s">
-        <v>583</v>
-      </c>
-      <c r="C28" s="60"/>
-      <c r="D28" s="22">
+      <c r="C28" s="7"/>
+      <c r="D28" s="23"/>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B29" s="60" t="s">
+        <v>582</v>
+      </c>
+      <c r="C29" s="60"/>
+      <c r="D29" s="22">
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="C29" s="7"/>
-      <c r="D29" s="23"/>
-    </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B30" s="9" t="s">
+      <c r="C30" s="7"/>
+      <c r="D30" s="23"/>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B31" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C30" s="7" t="s">
+      <c r="C31" s="7" t="s">
         <v>22</v>
-      </c>
-      <c r="D30" s="22">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="C31" s="7" t="s">
-        <v>23</v>
       </c>
       <c r="D31" s="22">
         <v>0.15</v>
@@ -3448,7 +3451,7 @@
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C32" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D32" s="22">
         <v>0.15</v>
@@ -3456,15 +3459,15 @@
     </row>
     <row r="33" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C33" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D33" s="22">
-        <v>0</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="34" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C34" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D34" s="22">
         <v>0</v>
@@ -3472,23 +3475,23 @@
     </row>
     <row r="35" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C35" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D35" s="22">
-        <v>0.15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C36" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D36" s="22">
-        <v>0.2</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="37" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C37" s="7" t="s">
-        <v>581</v>
+        <v>28</v>
       </c>
       <c r="D37" s="22">
         <v>0.2</v>
@@ -3496,39 +3499,44 @@
     </row>
     <row r="38" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C38" s="7" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="D38" s="22">
-        <v>0</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="39" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C39" s="7" t="s">
+        <v>581</v>
+      </c>
+      <c r="D39" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C40" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D39" s="24">
-        <f>+AVERAGE(D40:D41)</f>
+      <c r="D40" s="24">
+        <f>+AVERAGE(D41:D42)</f>
         <v>1.4999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="40" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C40" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="D40" s="25">
-        <v>0.03</v>
       </c>
     </row>
     <row r="41" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C41" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="D41" s="25">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="42" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C42" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="D41" s="25">
+      <c r="D42" s="25">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C42" s="7"/>
     </row>
     <row r="43" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C43" s="7"/>
@@ -3571,12 +3579,15 @@
     </row>
     <row r="56" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C56" s="7"/>
+    </row>
+    <row r="57" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C57" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="B21:B22"/>
     <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
   </mergeCells>
   <conditionalFormatting sqref="D3">
     <cfRule type="colorScale" priority="1">
@@ -3590,7 +3601,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D5:D41">
+  <conditionalFormatting sqref="D5:D42">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -3611,8 +3622,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0656C058-172F-42FA-9F84-D86D1606C4DB}">
   <dimension ref="B2:D45"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3627,17 +3638,17 @@
       <c r="B2" s="4"/>
       <c r="C2" s="10"/>
       <c r="D2" s="20" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="2:4" s="11" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="4"/>
       <c r="C3" s="27" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D3" s="22">
         <f>+AVERAGE(D5,D6,D9,D10,D16,D17,D20,D21,D24,D25,D26,D27,D30,D34,D38)</f>
-        <v>0.19333333333333333</v>
+        <v>0.22999999999999998</v>
       </c>
     </row>
     <row r="4" spans="2:4" s="11" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -3653,13 +3664,13 @@
         <v>33</v>
       </c>
       <c r="D5" s="22">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B6" s="62"/>
       <c r="C6" s="7" t="s">
-        <v>34</v>
+        <v>585</v>
       </c>
       <c r="D6" s="22">
         <v>0.1</v>
@@ -3676,10 +3687,10 @@
     </row>
     <row r="9" spans="2:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="61" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="7" t="s">
         <v>35</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>36</v>
       </c>
       <c r="D9" s="22">
         <v>1</v>
@@ -3688,7 +3699,7 @@
     <row r="10" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B10" s="61"/>
       <c r="C10" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D10" s="22">
         <f>+AVERAGE(D11)</f>
@@ -3697,7 +3708,7 @@
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C11" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D11" s="24">
         <v>1</v>
@@ -3705,18 +3716,18 @@
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C12" s="13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D12" s="58" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C13" s="13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D13" s="58" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.3">
@@ -3729,10 +3740,10 @@
     </row>
     <row r="16" spans="2:4" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" s="7" t="s">
         <v>41</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>42</v>
       </c>
       <c r="D16" s="22">
         <v>0</v>
@@ -3741,7 +3752,7 @@
     <row r="17" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B17" s="16"/>
       <c r="C17" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D17" s="22">
         <v>0.15</v>
@@ -3757,10 +3768,10 @@
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B20" s="18" t="s">
+        <v>575</v>
+      </c>
+      <c r="C20" s="7" t="s">
         <v>576</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>577</v>
       </c>
       <c r="D20" s="22">
         <v>0</v>
@@ -3768,7 +3779,7 @@
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C21" s="7" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="D21" s="22">
         <v>0</v>
@@ -3782,10 +3793,10 @@
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B24" s="18" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D24" s="22">
         <v>0</v>
@@ -3793,15 +3804,15 @@
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C25" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D25" s="22">
-        <v>0</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C26" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D26" s="22">
         <v>0</v>
@@ -3809,7 +3820,7 @@
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C27" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D27" s="22">
         <v>0</v>
@@ -3825,10 +3836,10 @@
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B30" s="19" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D30" s="22">
         <f>+AVERAGE(D31:D33)</f>
@@ -3837,7 +3848,7 @@
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C31" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D31" s="22">
         <v>0.15</v>
@@ -3845,7 +3856,7 @@
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C32" s="13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D32" s="24">
         <v>0</v>
@@ -3853,7 +3864,7 @@
     </row>
     <row r="33" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C33" s="13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D33" s="24">
         <v>0</v>
@@ -3861,7 +3872,7 @@
     </row>
     <row r="34" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C34" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D34" s="22">
         <f>+AVERAGE(D35:D37)</f>
@@ -3870,7 +3881,7 @@
     </row>
     <row r="35" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C35" s="13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D35" s="24">
         <v>0</v>
@@ -3878,7 +3889,7 @@
     </row>
     <row r="36" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C36" s="13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D36" s="24">
         <v>0</v>
@@ -3886,7 +3897,7 @@
     </row>
     <row r="37" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C37" s="13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D37" s="24">
         <v>0</v>
@@ -3894,7 +3905,7 @@
     </row>
     <row r="38" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C38" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D38" s="22">
         <v>0</v>
@@ -3979,7 +3990,7 @@
   <sheetData>
     <row r="2" spans="5:7" x14ac:dyDescent="0.3">
       <c r="F2" s="35" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G2" s="46">
         <f>+F82/E82</f>
@@ -3988,202 +3999,202 @@
     </row>
     <row r="3" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E3" s="47" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F3" s="48" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="4" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E4" s="47" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F4" s="48" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="5" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E5" s="47" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F5" s="48" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="6" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E6" s="47" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F6" s="48" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="7" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E7" s="47" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F7" s="48" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="8" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E8" s="47" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F8" s="48" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="9" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E9" s="47" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F9" s="48" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="10" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E10" s="47" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F10" s="48" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="11" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E11" s="47" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F11" s="49" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="12" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E12" s="47" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F12" s="49" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="13" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E13" s="47" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F13" s="49" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="14" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E14" s="47" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F14" s="48" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="15" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E15" s="47" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F15" s="49" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="16" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E16" s="47" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F16" s="49" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="17" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E17" s="47" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F17" s="48" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="18" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E18" s="47" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F18" s="48" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="19" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E19" s="47" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F19" s="48" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="20" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E20" s="47" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F20" s="48" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="21" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E21" s="47" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F21" s="48" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="22" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E22" s="47" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F22" s="48" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="23" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E23" s="47" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F23" s="48" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="24" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E24" s="47" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F24" s="48" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="25" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E25" s="47" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F25" s="48" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="26" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E26" s="47" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F26" s="48" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="27" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E27" s="47" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F27" s="48" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="28" spans="5:6" ht="7.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -4192,18 +4203,18 @@
     </row>
     <row r="29" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E29" s="47" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F29" s="49" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="30" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E30" s="47" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F30" s="49" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="31" spans="5:6" ht="7.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -4212,275 +4223,275 @@
     </row>
     <row r="32" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E32" s="47" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F32" s="48" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="33" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E33" s="47" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F33" s="48" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="34" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E34" s="47" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F34" s="48" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="35" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E35" s="47" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F35" s="49" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="36" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E36" s="47" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F36" s="48" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="37" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E37" s="47" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F37" s="48" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="38" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E38" s="47" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F38" s="48" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="39" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E39" s="47" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F39" s="48" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="40" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E40" s="47" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F40" s="48" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="41" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E41" s="47" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F41" s="48" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="42" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E42" s="47" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F42" s="48" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="43" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E43" s="47" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F43" s="48" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="44" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E44" s="47" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F44" s="48" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="45" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E45" s="47" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F45" s="49" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="46" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E46" s="47" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F46" s="48" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="47" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E47" s="47" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F47" s="48" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="48" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E48" s="47" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F48" s="48" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="49" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E49" s="47" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F49" s="49" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H49" s="52"/>
     </row>
     <row r="50" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E50" s="47" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F50" s="49" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="51" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E51" s="47" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F51" s="48" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="52" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E52" s="47" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F52" s="48" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="53" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E53" s="47" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F53" s="48" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="54" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E54" s="47" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F54" s="48" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="55" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E55" s="47" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F55" s="48" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="56" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E56" s="47" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F56" s="48" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="57" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E57" s="47" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F57" s="48" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="58" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E58" s="47" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F58" s="49" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="59" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E59" s="47" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F59" s="48" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="60" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E60" s="47" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F60" s="48" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="61" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E61" s="47" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F61" s="48" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="62" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E62" s="47" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F62" s="48" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="63" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E63" s="47" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F63" s="48" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="64" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E64" s="47" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F64" s="48" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="65" spans="4:6" x14ac:dyDescent="0.3">
       <c r="E65" s="47" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F65" s="49" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="66" spans="4:6" x14ac:dyDescent="0.3">
@@ -4500,82 +4511,82 @@
         <v>25</v>
       </c>
       <c r="E69" s="47" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F69" s="55" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="70" spans="4:6" x14ac:dyDescent="0.3">
       <c r="E70" s="47" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F70" s="55" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="71" spans="4:6" x14ac:dyDescent="0.3">
       <c r="E71" s="47" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F71" s="55" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="72" spans="4:6" x14ac:dyDescent="0.3">
       <c r="E72" s="47" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F72" s="55" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="73" spans="4:6" x14ac:dyDescent="0.3">
       <c r="E73" s="47" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F73" s="55" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="74" spans="4:6" x14ac:dyDescent="0.3">
       <c r="E74" s="47" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F74" s="55" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="75" spans="4:6" x14ac:dyDescent="0.3">
       <c r="E75" s="47" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F75" s="55" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="76" spans="4:6" x14ac:dyDescent="0.3">
       <c r="E76" s="47" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F76" s="55" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="77" spans="4:6" x14ac:dyDescent="0.3">
       <c r="E77" s="47" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F77" s="55" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="78" spans="4:6" x14ac:dyDescent="0.3">
       <c r="E78" s="47" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F78" s="55" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="79" spans="4:6" x14ac:dyDescent="0.3">
@@ -4699,529 +4710,529 @@
   <sheetData>
     <row r="2" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B2" s="31" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C2" s="36"/>
       <c r="E2" s="43" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="F2" s="43" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="G2" s="43" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B3" s="32" t="s">
+        <v>133</v>
+      </c>
+      <c r="C3" s="37" t="s">
         <v>134</v>
       </c>
-      <c r="C3" s="37" t="s">
-        <v>135</v>
-      </c>
       <c r="E3" s="32" t="s">
+        <v>145</v>
+      </c>
+      <c r="F3" s="37" t="s">
         <v>146</v>
-      </c>
-      <c r="F3" s="37" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B4" s="32" t="s">
+        <v>135</v>
+      </c>
+      <c r="C4" s="37" t="s">
         <v>136</v>
       </c>
-      <c r="C4" s="37" t="s">
-        <v>137</v>
-      </c>
       <c r="E4" s="32" t="s">
+        <v>150</v>
+      </c>
+      <c r="F4" s="37" t="s">
         <v>151</v>
-      </c>
-      <c r="F4" s="37" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B5" s="32" t="s">
+        <v>137</v>
+      </c>
+      <c r="C5" s="37" t="s">
         <v>138</v>
       </c>
-      <c r="C5" s="37" t="s">
-        <v>139</v>
-      </c>
       <c r="E5" s="32" t="s">
+        <v>159</v>
+      </c>
+      <c r="F5" s="37" t="s">
         <v>160</v>
-      </c>
-      <c r="F5" s="37" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B6" s="33"/>
       <c r="C6" s="38"/>
       <c r="E6" s="32" t="s">
+        <v>172</v>
+      </c>
+      <c r="F6" s="37" t="s">
         <v>173</v>
-      </c>
-      <c r="F6" s="37" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B7" s="31" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C7" s="36"/>
       <c r="E7" s="32" t="s">
+        <v>187</v>
+      </c>
+      <c r="F7" s="37" t="s">
         <v>188</v>
-      </c>
-      <c r="F7" s="37" t="s">
-        <v>189</v>
       </c>
       <c r="G7" s="45"/>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B8" s="32" t="s">
+        <v>140</v>
+      </c>
+      <c r="C8" s="37" t="s">
         <v>141</v>
       </c>
-      <c r="C8" s="37" t="s">
-        <v>142</v>
-      </c>
       <c r="E8" s="32" t="s">
+        <v>206</v>
+      </c>
+      <c r="F8" s="37" t="s">
         <v>207</v>
-      </c>
-      <c r="F8" s="37" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B9" s="32" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C9" s="39" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="E9" s="32" t="s">
+        <v>213</v>
+      </c>
+      <c r="F9" s="37" t="s">
         <v>214</v>
-      </c>
-      <c r="F9" s="37" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B10" s="32" t="s">
+        <v>143</v>
+      </c>
+      <c r="C10" s="37" t="s">
         <v>144</v>
       </c>
-      <c r="C10" s="37" t="s">
-        <v>145</v>
-      </c>
       <c r="E10" s="32" t="s">
+        <v>215</v>
+      </c>
+      <c r="F10" s="37" t="s">
         <v>216</v>
-      </c>
-      <c r="F10" s="37" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B11" s="32" t="s">
+        <v>145</v>
+      </c>
+      <c r="C11" s="37" t="s">
         <v>146</v>
       </c>
-      <c r="C11" s="37" t="s">
-        <v>147</v>
-      </c>
       <c r="E11" s="32" t="s">
+        <v>227</v>
+      </c>
+      <c r="F11" s="37" t="s">
         <v>228</v>
-      </c>
-      <c r="F11" s="37" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B12" s="32" t="s">
+        <v>147</v>
+      </c>
+      <c r="C12" s="37" t="s">
         <v>148</v>
       </c>
-      <c r="C12" s="37" t="s">
-        <v>149</v>
-      </c>
       <c r="E12" s="32" t="s">
+        <v>230</v>
+      </c>
+      <c r="F12" s="37" t="s">
         <v>231</v>
-      </c>
-      <c r="F12" s="37" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B13" s="32" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C13" s="39" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="E13" s="32" t="s">
+        <v>280</v>
+      </c>
+      <c r="F13" s="37" t="s">
         <v>281</v>
-      </c>
-      <c r="F13" s="37" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B14" s="32" t="s">
+        <v>150</v>
+      </c>
+      <c r="C14" s="37" t="s">
         <v>151</v>
       </c>
-      <c r="C14" s="37" t="s">
-        <v>152</v>
-      </c>
       <c r="E14" s="32" t="s">
+        <v>282</v>
+      </c>
+      <c r="F14" s="37" t="s">
         <v>283</v>
-      </c>
-      <c r="F14" s="37" t="s">
-        <v>284</v>
       </c>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B15" s="32" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C15" s="39" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="E15" s="32" t="s">
+        <v>299</v>
+      </c>
+      <c r="F15" s="37" t="s">
         <v>300</v>
-      </c>
-      <c r="F15" s="37" t="s">
-        <v>301</v>
       </c>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B16" s="32" t="s">
+        <v>153</v>
+      </c>
+      <c r="C16" s="37" t="s">
         <v>154</v>
       </c>
-      <c r="C16" s="37" t="s">
-        <v>155</v>
-      </c>
       <c r="E16" s="32" t="s">
+        <v>302</v>
+      </c>
+      <c r="F16" s="37" t="s">
         <v>303</v>
-      </c>
-      <c r="F16" s="37" t="s">
-        <v>304</v>
       </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B17" s="32" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C17" s="39" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="E17" s="32" t="s">
+        <v>314</v>
+      </c>
+      <c r="F17" s="37" t="s">
         <v>315</v>
-      </c>
-      <c r="F17" s="37" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B18" s="33"/>
       <c r="C18" s="38"/>
       <c r="E18" s="32" t="s">
+        <v>330</v>
+      </c>
+      <c r="F18" s="37" t="s">
         <v>331</v>
-      </c>
-      <c r="F18" s="37" t="s">
-        <v>332</v>
       </c>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B19" s="31" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C19" s="36"/>
       <c r="E19" s="32" t="s">
+        <v>348</v>
+      </c>
+      <c r="F19" s="37" t="s">
         <v>349</v>
-      </c>
-      <c r="F19" s="37" t="s">
-        <v>350</v>
       </c>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B20" s="32" t="s">
+        <v>157</v>
+      </c>
+      <c r="C20" s="37" t="s">
         <v>158</v>
       </c>
-      <c r="C20" s="37" t="s">
-        <v>159</v>
-      </c>
       <c r="E20" s="32" t="s">
+        <v>345</v>
+      </c>
+      <c r="F20" s="37" t="s">
         <v>346</v>
-      </c>
-      <c r="F20" s="37" t="s">
-        <v>347</v>
       </c>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B21" s="32" t="s">
+        <v>159</v>
+      </c>
+      <c r="C21" s="37" t="s">
         <v>160</v>
       </c>
-      <c r="C21" s="37" t="s">
-        <v>161</v>
-      </c>
       <c r="E21" s="32" t="s">
+        <v>352</v>
+      </c>
+      <c r="F21" s="37" t="s">
         <v>353</v>
-      </c>
-      <c r="F21" s="37" t="s">
-        <v>354</v>
       </c>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B22" s="32" t="s">
+        <v>161</v>
+      </c>
+      <c r="C22" s="37" t="s">
         <v>162</v>
       </c>
-      <c r="C22" s="37" t="s">
-        <v>163</v>
-      </c>
       <c r="E22" s="32" t="s">
+        <v>354</v>
+      </c>
+      <c r="F22" s="37" t="s">
         <v>355</v>
-      </c>
-      <c r="F22" s="37" t="s">
-        <v>356</v>
       </c>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B23" s="32" t="s">
+        <v>163</v>
+      </c>
+      <c r="C23" s="37" t="s">
         <v>164</v>
       </c>
-      <c r="C23" s="37" t="s">
-        <v>165</v>
-      </c>
       <c r="E23" s="32" t="s">
+        <v>385</v>
+      </c>
+      <c r="F23" s="37" t="s">
         <v>386</v>
-      </c>
-      <c r="F23" s="37" t="s">
-        <v>387</v>
       </c>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B24" s="32" t="s">
+        <v>165</v>
+      </c>
+      <c r="C24" s="37" t="s">
         <v>166</v>
       </c>
-      <c r="C24" s="37" t="s">
-        <v>167</v>
-      </c>
       <c r="E24" s="32" t="s">
+        <v>388</v>
+      </c>
+      <c r="F24" s="37" t="s">
         <v>389</v>
-      </c>
-      <c r="F24" s="37" t="s">
-        <v>390</v>
       </c>
     </row>
     <row r="25" spans="2:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B25" s="32" t="s">
+        <v>167</v>
+      </c>
+      <c r="C25" s="37" t="s">
         <v>168</v>
       </c>
-      <c r="C25" s="37" t="s">
-        <v>169</v>
-      </c>
       <c r="E25" s="32" t="s">
+        <v>393</v>
+      </c>
+      <c r="F25" s="37" t="s">
         <v>394</v>
       </c>
-      <c r="F25" s="37" t="s">
-        <v>395</v>
-      </c>
       <c r="G25" s="29" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B26" s="32" t="s">
+        <v>169</v>
+      </c>
+      <c r="C26" s="37" t="s">
         <v>170</v>
       </c>
-      <c r="C26" s="37" t="s">
-        <v>171</v>
-      </c>
       <c r="E26" s="32" t="s">
+        <v>395</v>
+      </c>
+      <c r="F26" s="37" t="s">
         <v>396</v>
-      </c>
-      <c r="F26" s="37" t="s">
-        <v>397</v>
       </c>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B27" s="33"/>
       <c r="C27" s="38"/>
       <c r="E27" s="32" t="s">
+        <v>405</v>
+      </c>
+      <c r="F27" s="37" t="s">
         <v>406</v>
-      </c>
-      <c r="F27" s="37" t="s">
-        <v>407</v>
       </c>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B28" s="31" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C28" s="36"/>
       <c r="E28" s="32" t="s">
+        <v>443</v>
+      </c>
+      <c r="F28" s="37" t="s">
         <v>444</v>
-      </c>
-      <c r="F28" s="37" t="s">
-        <v>445</v>
       </c>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B29" s="32" t="s">
+        <v>172</v>
+      </c>
+      <c r="C29" s="37" t="s">
         <v>173</v>
       </c>
-      <c r="C29" s="37" t="s">
-        <v>174</v>
-      </c>
       <c r="E29" s="32" t="s">
+        <v>410</v>
+      </c>
+      <c r="F29" s="37" t="s">
         <v>411</v>
-      </c>
-      <c r="F29" s="37" t="s">
-        <v>412</v>
       </c>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B30" s="32" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C30" s="39" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="E30" s="32" t="s">
+        <v>472</v>
+      </c>
+      <c r="F30" s="37" t="s">
         <v>473</v>
-      </c>
-      <c r="F30" s="37" t="s">
-        <v>474</v>
       </c>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B31" s="32" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C31" s="39" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="E31" s="32" t="s">
+        <v>478</v>
+      </c>
+      <c r="F31" s="37" t="s">
         <v>479</v>
-      </c>
-      <c r="F31" s="37" t="s">
-        <v>480</v>
       </c>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B32" s="32" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C32" s="39" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="E32" s="32" t="s">
+        <v>490</v>
+      </c>
+      <c r="F32" s="37" t="s">
         <v>491</v>
-      </c>
-      <c r="F32" s="37" t="s">
-        <v>492</v>
       </c>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B33" s="32" t="s">
+        <v>177</v>
+      </c>
+      <c r="C33" s="37" t="s">
         <v>178</v>
       </c>
-      <c r="C33" s="37" t="s">
-        <v>179</v>
-      </c>
       <c r="E33" s="32" t="s">
+        <v>505</v>
+      </c>
+      <c r="F33" s="37" t="s">
         <v>506</v>
-      </c>
-      <c r="F33" s="37" t="s">
-        <v>507</v>
       </c>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B34" s="32" t="s">
+        <v>179</v>
+      </c>
+      <c r="C34" s="37" t="s">
         <v>180</v>
       </c>
-      <c r="C34" s="37" t="s">
-        <v>181</v>
-      </c>
       <c r="E34" s="32" t="s">
+        <v>515</v>
+      </c>
+      <c r="F34" s="37" t="s">
         <v>516</v>
-      </c>
-      <c r="F34" s="37" t="s">
-        <v>517</v>
       </c>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B35" s="32" t="s">
+        <v>181</v>
+      </c>
+      <c r="C35" s="37" t="s">
         <v>182</v>
       </c>
-      <c r="C35" s="37" t="s">
-        <v>183</v>
-      </c>
       <c r="E35" s="32" t="s">
+        <v>521</v>
+      </c>
+      <c r="F35" s="37" t="s">
         <v>522</v>
-      </c>
-      <c r="F35" s="37" t="s">
-        <v>523</v>
       </c>
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B36" s="32" t="s">
+        <v>183</v>
+      </c>
+      <c r="C36" s="37" t="s">
         <v>184</v>
       </c>
-      <c r="C36" s="37" t="s">
-        <v>185</v>
-      </c>
       <c r="E36" s="32" t="s">
+        <v>535</v>
+      </c>
+      <c r="F36" s="37" t="s">
         <v>536</v>
-      </c>
-      <c r="F36" s="37" t="s">
-        <v>537</v>
       </c>
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B37" s="32" t="s">
+        <v>185</v>
+      </c>
+      <c r="C37" s="37" t="s">
         <v>186</v>
       </c>
-      <c r="C37" s="37" t="s">
-        <v>187</v>
-      </c>
       <c r="E37" s="32" t="s">
+        <v>537</v>
+      </c>
+      <c r="F37" s="37" t="s">
         <v>538</v>
-      </c>
-      <c r="F37" s="37" t="s">
-        <v>539</v>
       </c>
     </row>
     <row r="38" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B38" s="32" t="s">
+        <v>187</v>
+      </c>
+      <c r="C38" s="37" t="s">
         <v>188</v>
       </c>
-      <c r="C38" s="37" t="s">
-        <v>189</v>
-      </c>
       <c r="E38" s="32" t="s">
+        <v>539</v>
+      </c>
+      <c r="F38" s="37" t="s">
         <v>540</v>
-      </c>
-      <c r="F38" s="37" t="s">
-        <v>541</v>
       </c>
     </row>
     <row r="39" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B39" s="32" t="s">
+        <v>189</v>
+      </c>
+      <c r="C39" s="37" t="s">
         <v>190</v>
       </c>
-      <c r="C39" s="37" t="s">
-        <v>191</v>
-      </c>
       <c r="E39" s="32" t="s">
+        <v>543</v>
+      </c>
+      <c r="F39" s="37" t="s">
         <v>544</v>
-      </c>
-      <c r="F39" s="37" t="s">
-        <v>545</v>
       </c>
     </row>
     <row r="40" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B40" s="32" t="s">
+        <v>191</v>
+      </c>
+      <c r="C40" s="37" t="s">
         <v>192</v>
-      </c>
-      <c r="C40" s="37" t="s">
-        <v>193</v>
       </c>
       <c r="F40" s="42">
         <f>+COUNTA(F3:F39)</f>
@@ -5238,86 +5249,86 @@
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B41" s="33" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C41" s="37"/>
     </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B42" s="32" t="s">
+        <v>194</v>
+      </c>
+      <c r="C42" s="37" t="s">
         <v>195</v>
-      </c>
-      <c r="C42" s="37" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="43" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B43" s="32" t="s">
+        <v>196</v>
+      </c>
+      <c r="C43" s="37" t="s">
         <v>197</v>
-      </c>
-      <c r="C43" s="37" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="44" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B44" s="32" t="s">
+        <v>198</v>
+      </c>
+      <c r="C44" s="37" t="s">
         <v>199</v>
-      </c>
-      <c r="C44" s="37" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="45" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B45" s="32" t="s">
+        <v>200</v>
+      </c>
+      <c r="C45" s="37" t="s">
         <v>201</v>
-      </c>
-      <c r="C45" s="37" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="46" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B46" s="32" t="s">
+        <v>202</v>
+      </c>
+      <c r="C46" s="37" t="s">
         <v>203</v>
-      </c>
-      <c r="C46" s="37" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="47" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B47" s="32" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C47" s="37"/>
     </row>
     <row r="48" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B48" s="32" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C48" s="39" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="49" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B49" s="32" t="s">
+        <v>206</v>
+      </c>
+      <c r="C49" s="37" t="s">
         <v>207</v>
-      </c>
-      <c r="C49" s="37" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="50" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B50" s="32" t="s">
+        <v>208</v>
+      </c>
+      <c r="C50" s="37" t="s">
         <v>209</v>
-      </c>
-      <c r="C50" s="37" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="51" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B51" s="32" t="s">
+        <v>210</v>
+      </c>
+      <c r="C51" s="37" t="s">
         <v>211</v>
-      </c>
-      <c r="C51" s="37" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="52" spans="2:3" x14ac:dyDescent="0.3">
@@ -5326,72 +5337,72 @@
     </row>
     <row r="53" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B53" s="31" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C53" s="36"/>
     </row>
     <row r="54" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B54" s="32" t="s">
+        <v>213</v>
+      </c>
+      <c r="C54" s="37" t="s">
         <v>214</v>
-      </c>
-      <c r="C54" s="37" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="55" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B55" s="32" t="s">
+        <v>215</v>
+      </c>
+      <c r="C55" s="37" t="s">
         <v>216</v>
-      </c>
-      <c r="C55" s="37" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="56" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B56" s="32" t="s">
+        <v>217</v>
+      </c>
+      <c r="C56" s="37" t="s">
         <v>218</v>
-      </c>
-      <c r="C56" s="37" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="57" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B57" s="32" t="s">
+        <v>219</v>
+      </c>
+      <c r="C57" s="37" t="s">
         <v>220</v>
-      </c>
-      <c r="C57" s="37" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="58" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B58" s="32" t="s">
+        <v>221</v>
+      </c>
+      <c r="C58" s="37" t="s">
         <v>222</v>
-      </c>
-      <c r="C58" s="37" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="59" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B59" s="32" t="s">
+        <v>223</v>
+      </c>
+      <c r="C59" s="37" t="s">
         <v>224</v>
-      </c>
-      <c r="C59" s="37" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="60" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B60" s="32" t="s">
+        <v>225</v>
+      </c>
+      <c r="C60" s="37" t="s">
         <v>226</v>
-      </c>
-      <c r="C60" s="37" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="61" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B61" s="32" t="s">
+        <v>227</v>
+      </c>
+      <c r="C61" s="37" t="s">
         <v>228</v>
-      </c>
-      <c r="C61" s="37" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="62" spans="2:3" x14ac:dyDescent="0.3">
@@ -5400,46 +5411,46 @@
     </row>
     <row r="63" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B63" s="31" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C63" s="36"/>
     </row>
     <row r="64" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B64" s="32" t="s">
+        <v>230</v>
+      </c>
+      <c r="C64" s="37" t="s">
         <v>231</v>
-      </c>
-      <c r="C64" s="37" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="65" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B65" s="33" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C65" s="37"/>
     </row>
     <row r="66" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B66" s="32" t="s">
+        <v>233</v>
+      </c>
+      <c r="C66" s="37" t="s">
         <v>234</v>
-      </c>
-      <c r="C66" s="37" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="67" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B67" s="32" t="s">
+        <v>235</v>
+      </c>
+      <c r="C67" s="37" t="s">
         <v>236</v>
-      </c>
-      <c r="C67" s="37" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="68" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B68" s="32" t="s">
+        <v>237</v>
+      </c>
+      <c r="C68" s="37" t="s">
         <v>238</v>
-      </c>
-      <c r="C68" s="37" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="69" spans="2:3" x14ac:dyDescent="0.3">
@@ -5448,72 +5459,72 @@
     </row>
     <row r="70" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B70" s="31" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C70" s="36"/>
     </row>
     <row r="71" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B71" s="32" t="s">
+        <v>240</v>
+      </c>
+      <c r="C71" s="37" t="s">
         <v>241</v>
-      </c>
-      <c r="C71" s="37" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="72" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B72" s="32" t="s">
+        <v>242</v>
+      </c>
+      <c r="C72" s="37" t="s">
         <v>243</v>
-      </c>
-      <c r="C72" s="37" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="73" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B73" s="32" t="s">
+        <v>244</v>
+      </c>
+      <c r="C73" s="37" t="s">
         <v>245</v>
-      </c>
-      <c r="C73" s="37" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="74" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B74" s="32" t="s">
+        <v>246</v>
+      </c>
+      <c r="C74" s="37" t="s">
         <v>247</v>
-      </c>
-      <c r="C74" s="37" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="75" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B75" s="32" t="s">
+        <v>248</v>
+      </c>
+      <c r="C75" s="37" t="s">
         <v>249</v>
-      </c>
-      <c r="C75" s="37" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="76" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B76" s="32" t="s">
+        <v>250</v>
+      </c>
+      <c r="C76" s="37" t="s">
         <v>251</v>
-      </c>
-      <c r="C76" s="37" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="77" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B77" s="32" t="s">
+        <v>252</v>
+      </c>
+      <c r="C77" s="37" t="s">
         <v>253</v>
-      </c>
-      <c r="C77" s="37" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="78" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B78" s="32" t="s">
+        <v>254</v>
+      </c>
+      <c r="C78" s="37" t="s">
         <v>255</v>
-      </c>
-      <c r="C78" s="37" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="79" spans="2:3" x14ac:dyDescent="0.3">
@@ -5522,72 +5533,72 @@
     </row>
     <row r="80" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B80" s="31" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C80" s="36"/>
     </row>
     <row r="81" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B81" s="32" t="s">
+        <v>257</v>
+      </c>
+      <c r="C81" s="37" t="s">
         <v>258</v>
-      </c>
-      <c r="C81" s="37" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="82" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B82" s="32" t="s">
+        <v>259</v>
+      </c>
+      <c r="C82" s="37" t="s">
         <v>260</v>
-      </c>
-      <c r="C82" s="37" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="83" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B83" s="32" t="s">
+        <v>261</v>
+      </c>
+      <c r="C83" s="37" t="s">
         <v>262</v>
-      </c>
-      <c r="C83" s="37" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="84" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B84" s="32" t="s">
+        <v>263</v>
+      </c>
+      <c r="C84" s="37" t="s">
         <v>264</v>
-      </c>
-      <c r="C84" s="37" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="85" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B85" s="32" t="s">
+        <v>265</v>
+      </c>
+      <c r="C85" s="37" t="s">
         <v>266</v>
-      </c>
-      <c r="C85" s="37" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="86" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B86" s="32" t="s">
+        <v>267</v>
+      </c>
+      <c r="C86" s="37" t="s">
         <v>268</v>
-      </c>
-      <c r="C86" s="37" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="87" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B87" s="32" t="s">
+        <v>269</v>
+      </c>
+      <c r="C87" s="37" t="s">
         <v>270</v>
-      </c>
-      <c r="C87" s="37" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="88" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B88" s="32" t="s">
+        <v>271</v>
+      </c>
+      <c r="C88" s="37" t="s">
         <v>272</v>
-      </c>
-      <c r="C88" s="37" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="89" spans="2:3" x14ac:dyDescent="0.3">
@@ -5596,48 +5607,48 @@
     </row>
     <row r="90" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B90" s="31" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C90" s="36"/>
     </row>
     <row r="91" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B91" s="32" t="s">
+        <v>274</v>
+      </c>
+      <c r="C91" s="37" t="s">
         <v>275</v>
-      </c>
-      <c r="C91" s="37" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="92" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B92" s="32" t="s">
+        <v>276</v>
+      </c>
+      <c r="C92" s="37" t="s">
         <v>277</v>
-      </c>
-      <c r="C92" s="37" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="93" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B93" s="32" t="s">
+        <v>278</v>
+      </c>
+      <c r="C93" s="37" t="s">
         <v>279</v>
-      </c>
-      <c r="C93" s="37" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="94" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B94" s="32" t="s">
+        <v>280</v>
+      </c>
+      <c r="C94" s="37" t="s">
         <v>281</v>
-      </c>
-      <c r="C94" s="37" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="95" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B95" s="32" t="s">
+        <v>282</v>
+      </c>
+      <c r="C95" s="37" t="s">
         <v>283</v>
-      </c>
-      <c r="C95" s="37" t="s">
-        <v>284</v>
       </c>
     </row>
     <row r="96" spans="2:3" x14ac:dyDescent="0.3">
@@ -5646,80 +5657,80 @@
     </row>
     <row r="97" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B97" s="31" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C97" s="36"/>
     </row>
     <row r="98" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B98" s="32" t="s">
+        <v>285</v>
+      </c>
+      <c r="C98" s="37" t="s">
         <v>286</v>
-      </c>
-      <c r="C98" s="37" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="99" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B99" s="32" t="s">
+        <v>287</v>
+      </c>
+      <c r="C99" s="37" t="s">
         <v>288</v>
-      </c>
-      <c r="C99" s="37" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="100" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B100" s="32" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C100" s="39" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="101" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B101" s="32" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C101" s="39" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="102" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B102" s="32" t="s">
+        <v>291</v>
+      </c>
+      <c r="C102" s="37" t="s">
         <v>292</v>
-      </c>
-      <c r="C102" s="37" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="103" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B103" s="32" t="s">
+        <v>293</v>
+      </c>
+      <c r="C103" s="37" t="s">
         <v>294</v>
-      </c>
-      <c r="C103" s="37" t="s">
-        <v>295</v>
       </c>
     </row>
     <row r="104" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B104" s="32" t="s">
+        <v>295</v>
+      </c>
+      <c r="C104" s="37" t="s">
         <v>296</v>
-      </c>
-      <c r="C104" s="37" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="105" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B105" s="32" t="s">
+        <v>297</v>
+      </c>
+      <c r="C105" s="37" t="s">
         <v>298</v>
-      </c>
-      <c r="C105" s="37" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="106" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B106" s="32" t="s">
+        <v>299</v>
+      </c>
+      <c r="C106" s="37" t="s">
         <v>300</v>
-      </c>
-      <c r="C106" s="37" t="s">
-        <v>301</v>
       </c>
     </row>
     <row r="107" spans="2:3" x14ac:dyDescent="0.3">
@@ -5728,16 +5739,16 @@
     </row>
     <row r="108" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B108" s="31" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C108" s="36"/>
     </row>
     <row r="109" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B109" s="32" t="s">
+        <v>302</v>
+      </c>
+      <c r="C109" s="37" t="s">
         <v>303</v>
-      </c>
-      <c r="C109" s="37" t="s">
-        <v>304</v>
       </c>
     </row>
     <row r="110" spans="2:3" x14ac:dyDescent="0.3">
@@ -5746,16 +5757,16 @@
     </row>
     <row r="111" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B111" s="31" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C111" s="36"/>
     </row>
     <row r="112" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B112" s="32" t="s">
+        <v>305</v>
+      </c>
+      <c r="C112" s="37" t="s">
         <v>306</v>
-      </c>
-      <c r="C112" s="37" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="113" spans="2:4" x14ac:dyDescent="0.3">
@@ -5764,48 +5775,48 @@
     </row>
     <row r="114" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B114" s="31" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C114" s="36"/>
     </row>
     <row r="115" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B115" s="32" t="s">
+        <v>308</v>
+      </c>
+      <c r="C115" s="37" t="s">
         <v>309</v>
-      </c>
-      <c r="C115" s="37" t="s">
-        <v>310</v>
       </c>
     </row>
     <row r="116" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B116" s="32" t="s">
+        <v>310</v>
+      </c>
+      <c r="C116" s="37" t="s">
         <v>311</v>
-      </c>
-      <c r="C116" s="37" t="s">
-        <v>312</v>
       </c>
     </row>
     <row r="117" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B117" s="32" t="s">
+        <v>312</v>
+      </c>
+      <c r="C117" s="37" t="s">
         <v>313</v>
-      </c>
-      <c r="C117" s="37" t="s">
-        <v>314</v>
       </c>
     </row>
     <row r="118" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B118" s="32" t="s">
+        <v>314</v>
+      </c>
+      <c r="C118" s="37" t="s">
         <v>315</v>
-      </c>
-      <c r="C118" s="37" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="119" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B119" s="32" t="s">
+        <v>316</v>
+      </c>
+      <c r="C119" s="37" t="s">
         <v>317</v>
-      </c>
-      <c r="C119" s="37" t="s">
-        <v>318</v>
       </c>
     </row>
     <row r="120" spans="2:4" x14ac:dyDescent="0.3">
@@ -5814,91 +5825,91 @@
     </row>
     <row r="121" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B121" s="31" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C121" s="36"/>
     </row>
     <row r="122" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B122" s="32" t="s">
+        <v>319</v>
+      </c>
+      <c r="C122" s="37" t="s">
         <v>320</v>
-      </c>
-      <c r="C122" s="37" t="s">
-        <v>321</v>
       </c>
     </row>
     <row r="123" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B123" s="32" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C123" s="39" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="124" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B124" s="32" t="s">
+        <v>322</v>
+      </c>
+      <c r="C124" s="37" t="s">
         <v>323</v>
-      </c>
-      <c r="C124" s="37" t="s">
-        <v>324</v>
       </c>
     </row>
     <row r="125" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B125" s="32" t="s">
+        <v>324</v>
+      </c>
+      <c r="C125" s="37" t="s">
         <v>325</v>
       </c>
-      <c r="C125" s="37" t="s">
-        <v>326</v>
-      </c>
       <c r="D125" s="29" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="126" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B126" s="32" t="s">
+        <v>326</v>
+      </c>
+      <c r="C126" s="37" t="s">
         <v>327</v>
-      </c>
-      <c r="C126" s="37" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="127" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B127" s="32" t="s">
+        <v>328</v>
+      </c>
+      <c r="C127" s="37" t="s">
         <v>329</v>
-      </c>
-      <c r="C127" s="37" t="s">
-        <v>330</v>
       </c>
     </row>
     <row r="128" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B128" s="32" t="s">
+        <v>330</v>
+      </c>
+      <c r="C128" s="37" t="s">
         <v>331</v>
-      </c>
-      <c r="C128" s="37" t="s">
-        <v>332</v>
       </c>
     </row>
     <row r="129" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B129" s="32" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C129" s="39" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="130" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B130" s="32" t="s">
+        <v>333</v>
+      </c>
+      <c r="C130" s="37" t="s">
         <v>334</v>
-      </c>
-      <c r="C130" s="37" t="s">
-        <v>335</v>
       </c>
     </row>
     <row r="131" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B131" s="32" t="s">
+        <v>335</v>
+      </c>
+      <c r="C131" s="37" t="s">
         <v>336</v>
-      </c>
-      <c r="C131" s="37" t="s">
-        <v>337</v>
       </c>
     </row>
     <row r="132" spans="2:4" x14ac:dyDescent="0.3">
@@ -5907,43 +5918,43 @@
     </row>
     <row r="133" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B133" s="31" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C133" s="36"/>
     </row>
     <row r="134" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B134" s="32" t="s">
+        <v>338</v>
+      </c>
+      <c r="C134" s="37" t="s">
         <v>339</v>
-      </c>
-      <c r="C134" s="37" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="135" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B135" s="32" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C135" s="39" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="136" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B136" s="32" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C136" s="39" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="137" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B137" s="32" t="s">
+        <v>342</v>
+      </c>
+      <c r="C137" s="37" t="s">
         <v>343</v>
       </c>
-      <c r="C137" s="37" t="s">
-        <v>344</v>
-      </c>
       <c r="D137" s="29" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="138" spans="2:4" x14ac:dyDescent="0.3">
@@ -5952,40 +5963,40 @@
     </row>
     <row r="139" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B139" s="31" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C139" s="36"/>
     </row>
     <row r="140" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B140" s="32" t="s">
+        <v>345</v>
+      </c>
+      <c r="C140" s="37" t="s">
         <v>346</v>
-      </c>
-      <c r="C140" s="37" t="s">
-        <v>347</v>
       </c>
     </row>
     <row r="141" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B141" s="32" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C141" s="39" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="142" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B142" s="32" t="s">
+        <v>348</v>
+      </c>
+      <c r="C142" s="37" t="s">
         <v>349</v>
-      </c>
-      <c r="C142" s="37" t="s">
-        <v>350</v>
       </c>
     </row>
     <row r="143" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B143" s="32" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C143" s="39" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="144" spans="2:4" x14ac:dyDescent="0.3">
@@ -5994,152 +6005,152 @@
     </row>
     <row r="145" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B145" s="31" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C145" s="36"/>
     </row>
     <row r="146" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B146" s="32" t="s">
+        <v>352</v>
+      </c>
+      <c r="C146" s="37" t="s">
         <v>353</v>
-      </c>
-      <c r="C146" s="37" t="s">
-        <v>354</v>
       </c>
     </row>
     <row r="147" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B147" s="32" t="s">
+        <v>354</v>
+      </c>
+      <c r="C147" s="37" t="s">
         <v>355</v>
-      </c>
-      <c r="C147" s="37" t="s">
-        <v>356</v>
       </c>
     </row>
     <row r="148" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B148" s="32" t="s">
+        <v>356</v>
+      </c>
+      <c r="C148" s="37" t="s">
         <v>357</v>
-      </c>
-      <c r="C148" s="37" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="149" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B149" s="32" t="s">
+        <v>358</v>
+      </c>
+      <c r="C149" s="37" t="s">
         <v>359</v>
-      </c>
-      <c r="C149" s="37" t="s">
-        <v>360</v>
       </c>
     </row>
     <row r="150" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B150" s="32" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C150" s="39" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="151" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B151" s="32" t="s">
+        <v>361</v>
+      </c>
+      <c r="C151" s="37" t="s">
         <v>362</v>
-      </c>
-      <c r="C151" s="37" t="s">
-        <v>363</v>
       </c>
     </row>
     <row r="152" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B152" s="32" t="s">
+        <v>363</v>
+      </c>
+      <c r="C152" s="37" t="s">
         <v>364</v>
-      </c>
-      <c r="C152" s="37" t="s">
-        <v>365</v>
       </c>
     </row>
     <row r="153" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B153" s="32" t="s">
+        <v>365</v>
+      </c>
+      <c r="C153" s="37" t="s">
         <v>366</v>
-      </c>
-      <c r="C153" s="37" t="s">
-        <v>367</v>
       </c>
     </row>
     <row r="154" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B154" s="32" t="s">
+        <v>367</v>
+      </c>
+      <c r="C154" s="37" t="s">
         <v>368</v>
-      </c>
-      <c r="C154" s="37" t="s">
-        <v>369</v>
       </c>
     </row>
     <row r="155" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B155" s="32" t="s">
+        <v>369</v>
+      </c>
+      <c r="C155" s="37" t="s">
         <v>370</v>
-      </c>
-      <c r="C155" s="37" t="s">
-        <v>371</v>
       </c>
     </row>
     <row r="156" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B156" s="32" t="s">
+        <v>371</v>
+      </c>
+      <c r="C156" s="37" t="s">
         <v>372</v>
-      </c>
-      <c r="C156" s="37" t="s">
-        <v>373</v>
       </c>
     </row>
     <row r="157" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B157" s="32" t="s">
+        <v>373</v>
+      </c>
+      <c r="C157" s="37" t="s">
         <v>374</v>
-      </c>
-      <c r="C157" s="37" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="158" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B158" s="32" t="s">
+        <v>375</v>
+      </c>
+      <c r="C158" s="37" t="s">
         <v>376</v>
-      </c>
-      <c r="C158" s="37" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="159" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B159" s="32" t="s">
+        <v>377</v>
+      </c>
+      <c r="C159" s="37" t="s">
         <v>378</v>
-      </c>
-      <c r="C159" s="37" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="160" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B160" s="32" t="s">
+        <v>379</v>
+      </c>
+      <c r="C160" s="37" t="s">
         <v>380</v>
-      </c>
-      <c r="C160" s="37" t="s">
-        <v>381</v>
       </c>
     </row>
     <row r="161" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B161" s="32" t="s">
+        <v>381</v>
+      </c>
+      <c r="C161" s="37" t="s">
         <v>382</v>
-      </c>
-      <c r="C161" s="37" t="s">
-        <v>383</v>
       </c>
     </row>
     <row r="162" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B162" s="32" t="s">
+        <v>383</v>
+      </c>
+      <c r="C162" s="37" t="s">
         <v>384</v>
-      </c>
-      <c r="C162" s="37" t="s">
-        <v>385</v>
       </c>
     </row>
     <row r="163" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B163" s="32" t="s">
+        <v>385</v>
+      </c>
+      <c r="C163" s="37" t="s">
         <v>386</v>
-      </c>
-      <c r="C163" s="37" t="s">
-        <v>387</v>
       </c>
     </row>
     <row r="164" spans="2:3" x14ac:dyDescent="0.3">
@@ -6148,24 +6159,24 @@
     </row>
     <row r="165" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B165" s="31" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C165" s="36"/>
     </row>
     <row r="166" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B166" s="32" t="s">
+        <v>388</v>
+      </c>
+      <c r="C166" s="37" t="s">
         <v>389</v>
-      </c>
-      <c r="C166" s="37" t="s">
-        <v>390</v>
       </c>
     </row>
     <row r="167" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B167" s="32" t="s">
+        <v>390</v>
+      </c>
+      <c r="C167" s="37" t="s">
         <v>391</v>
-      </c>
-      <c r="C167" s="37" t="s">
-        <v>392</v>
       </c>
     </row>
     <row r="168" spans="2:3" x14ac:dyDescent="0.3">
@@ -6174,64 +6185,64 @@
     </row>
     <row r="169" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B169" s="31" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C169" s="36"/>
     </row>
     <row r="170" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B170" s="32" t="s">
+        <v>393</v>
+      </c>
+      <c r="C170" s="37" t="s">
         <v>394</v>
-      </c>
-      <c r="C170" s="37" t="s">
-        <v>395</v>
       </c>
     </row>
     <row r="171" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B171" s="32" t="s">
+        <v>395</v>
+      </c>
+      <c r="C171" s="37" t="s">
         <v>396</v>
-      </c>
-      <c r="C171" s="37" t="s">
-        <v>397</v>
       </c>
     </row>
     <row r="172" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B172" s="32" t="s">
+        <v>397</v>
+      </c>
+      <c r="C172" s="37" t="s">
         <v>398</v>
-      </c>
-      <c r="C172" s="37" t="s">
-        <v>399</v>
       </c>
     </row>
     <row r="173" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B173" s="32" t="s">
+        <v>399</v>
+      </c>
+      <c r="C173" s="37" t="s">
         <v>400</v>
-      </c>
-      <c r="C173" s="37" t="s">
-        <v>401</v>
       </c>
     </row>
     <row r="174" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B174" s="32" t="s">
+        <v>401</v>
+      </c>
+      <c r="C174" s="37" t="s">
         <v>402</v>
-      </c>
-      <c r="C174" s="37" t="s">
-        <v>403</v>
       </c>
     </row>
     <row r="175" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B175" s="32" t="s">
+        <v>403</v>
+      </c>
+      <c r="C175" s="37" t="s">
         <v>404</v>
-      </c>
-      <c r="C175" s="37" t="s">
-        <v>405</v>
       </c>
     </row>
     <row r="176" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B176" s="32" t="s">
+        <v>405</v>
+      </c>
+      <c r="C176" s="37" t="s">
         <v>406</v>
-      </c>
-      <c r="C176" s="37" t="s">
-        <v>407</v>
       </c>
     </row>
     <row r="177" spans="2:3" x14ac:dyDescent="0.3">
@@ -6240,232 +6251,232 @@
     </row>
     <row r="178" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B178" s="31" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C178" s="36"/>
     </row>
     <row r="179" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B179" s="32" t="s">
+        <v>408</v>
+      </c>
+      <c r="C179" s="37" t="s">
         <v>409</v>
-      </c>
-      <c r="C179" s="37" t="s">
-        <v>410</v>
       </c>
     </row>
     <row r="180" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B180" s="32" t="s">
+        <v>410</v>
+      </c>
+      <c r="C180" s="37" t="s">
         <v>411</v>
-      </c>
-      <c r="C180" s="37" t="s">
-        <v>412</v>
       </c>
     </row>
     <row r="181" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B181" s="32" t="s">
+        <v>412</v>
+      </c>
+      <c r="C181" s="37" t="s">
         <v>413</v>
-      </c>
-      <c r="C181" s="37" t="s">
-        <v>414</v>
       </c>
     </row>
     <row r="182" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B182" s="32" t="s">
+        <v>414</v>
+      </c>
+      <c r="C182" s="37" t="s">
         <v>415</v>
-      </c>
-      <c r="C182" s="37" t="s">
-        <v>416</v>
       </c>
     </row>
     <row r="183" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B183" s="32" t="s">
+        <v>416</v>
+      </c>
+      <c r="C183" s="37" t="s">
         <v>417</v>
-      </c>
-      <c r="C183" s="37" t="s">
-        <v>418</v>
       </c>
     </row>
     <row r="184" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B184" s="32" t="s">
+        <v>418</v>
+      </c>
+      <c r="C184" s="37" t="s">
         <v>419</v>
-      </c>
-      <c r="C184" s="37" t="s">
-        <v>420</v>
       </c>
     </row>
     <row r="185" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B185" s="32" t="s">
+        <v>420</v>
+      </c>
+      <c r="C185" s="37" t="s">
         <v>421</v>
-      </c>
-      <c r="C185" s="37" t="s">
-        <v>422</v>
       </c>
     </row>
     <row r="186" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B186" s="32" t="s">
+        <v>422</v>
+      </c>
+      <c r="C186" s="37" t="s">
         <v>423</v>
-      </c>
-      <c r="C186" s="37" t="s">
-        <v>424</v>
       </c>
     </row>
     <row r="187" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B187" s="32" t="s">
+        <v>424</v>
+      </c>
+      <c r="C187" s="37" t="s">
         <v>425</v>
-      </c>
-      <c r="C187" s="37" t="s">
-        <v>426</v>
       </c>
     </row>
     <row r="188" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B188" s="32" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C188" s="39" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="189" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B189" s="32" t="s">
+        <v>427</v>
+      </c>
+      <c r="C189" s="37" t="s">
         <v>428</v>
-      </c>
-      <c r="C189" s="37" t="s">
-        <v>429</v>
       </c>
     </row>
     <row r="190" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B190" s="32" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C190" s="39" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="191" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B191" s="32" t="s">
+        <v>430</v>
+      </c>
+      <c r="C191" s="37" t="s">
         <v>431</v>
-      </c>
-      <c r="C191" s="37" t="s">
-        <v>432</v>
       </c>
     </row>
     <row r="192" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B192" s="32" t="s">
+        <v>432</v>
+      </c>
+      <c r="C192" s="37" t="s">
         <v>433</v>
-      </c>
-      <c r="C192" s="37" t="s">
-        <v>434</v>
       </c>
     </row>
     <row r="193" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B193" s="32" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C193" s="39" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="194" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B194" s="32" t="s">
+        <v>435</v>
+      </c>
+      <c r="C194" s="37" t="s">
         <v>436</v>
-      </c>
-      <c r="C194" s="37" t="s">
-        <v>437</v>
       </c>
     </row>
     <row r="195" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B195" s="32" t="s">
+        <v>437</v>
+      </c>
+      <c r="C195" s="37" t="s">
         <v>438</v>
-      </c>
-      <c r="C195" s="37" t="s">
-        <v>439</v>
       </c>
     </row>
     <row r="196" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B196" s="32" t="s">
+        <v>439</v>
+      </c>
+      <c r="C196" s="37" t="s">
         <v>440</v>
-      </c>
-      <c r="C196" s="37" t="s">
-        <v>441</v>
       </c>
     </row>
     <row r="197" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B197" s="32" t="s">
+        <v>441</v>
+      </c>
+      <c r="C197" s="37" t="s">
         <v>442</v>
-      </c>
-      <c r="C197" s="37" t="s">
-        <v>443</v>
       </c>
     </row>
     <row r="198" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B198" s="32" t="s">
+        <v>443</v>
+      </c>
+      <c r="C198" s="37" t="s">
         <v>444</v>
-      </c>
-      <c r="C198" s="37" t="s">
-        <v>445</v>
       </c>
     </row>
     <row r="199" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B199" s="32" t="s">
+        <v>445</v>
+      </c>
+      <c r="C199" s="37" t="s">
         <v>446</v>
-      </c>
-      <c r="C199" s="37" t="s">
-        <v>447</v>
       </c>
     </row>
     <row r="200" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B200" s="32" t="s">
+        <v>447</v>
+      </c>
+      <c r="C200" s="37" t="s">
         <v>448</v>
-      </c>
-      <c r="C200" s="37" t="s">
-        <v>449</v>
       </c>
     </row>
     <row r="201" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B201" s="32" t="s">
+        <v>449</v>
+      </c>
+      <c r="C201" s="37" t="s">
         <v>450</v>
-      </c>
-      <c r="C201" s="37" t="s">
-        <v>451</v>
       </c>
     </row>
     <row r="202" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B202" s="32" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C202" s="39" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="203" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B203" s="32" t="s">
+        <v>452</v>
+      </c>
+      <c r="C203" s="37" t="s">
         <v>453</v>
-      </c>
-      <c r="C203" s="37" t="s">
-        <v>454</v>
       </c>
     </row>
     <row r="204" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B204" s="32" t="s">
+        <v>454</v>
+      </c>
+      <c r="C204" s="37" t="s">
         <v>455</v>
-      </c>
-      <c r="C204" s="37" t="s">
-        <v>456</v>
       </c>
     </row>
     <row r="205" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B205" s="32" t="s">
+        <v>456</v>
+      </c>
+      <c r="C205" s="37" t="s">
         <v>457</v>
-      </c>
-      <c r="C205" s="37" t="s">
-        <v>458</v>
       </c>
     </row>
     <row r="206" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B206" s="32" t="s">
+        <v>458</v>
+      </c>
+      <c r="C206" s="37" t="s">
         <v>459</v>
-      </c>
-      <c r="C206" s="37" t="s">
-        <v>460</v>
       </c>
     </row>
     <row r="207" spans="2:3" x14ac:dyDescent="0.3">
@@ -6474,176 +6485,176 @@
     </row>
     <row r="208" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B208" s="31" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C208" s="36"/>
     </row>
     <row r="209" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B209" s="32" t="s">
+        <v>461</v>
+      </c>
+      <c r="C209" s="37" t="s">
         <v>462</v>
-      </c>
-      <c r="C209" s="37" t="s">
-        <v>463</v>
       </c>
     </row>
     <row r="210" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B210" s="32" t="s">
+        <v>463</v>
+      </c>
+      <c r="C210" s="37" t="s">
         <v>464</v>
-      </c>
-      <c r="C210" s="37" t="s">
-        <v>465</v>
       </c>
     </row>
     <row r="211" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B211" s="32" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C211" s="39" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="212" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B212" s="32" t="s">
+        <v>466</v>
+      </c>
+      <c r="C212" s="37" t="s">
         <v>467</v>
-      </c>
-      <c r="C212" s="37" t="s">
-        <v>468</v>
       </c>
     </row>
     <row r="213" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B213" s="32" t="s">
+        <v>468</v>
+      </c>
+      <c r="C213" s="37" t="s">
         <v>469</v>
-      </c>
-      <c r="C213" s="37" t="s">
-        <v>470</v>
       </c>
     </row>
     <row r="214" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B214" s="32" t="s">
+        <v>470</v>
+      </c>
+      <c r="C214" s="37" t="s">
         <v>471</v>
-      </c>
-      <c r="C214" s="37" t="s">
-        <v>472</v>
       </c>
     </row>
     <row r="215" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B215" s="32" t="s">
+        <v>472</v>
+      </c>
+      <c r="C215" s="37" t="s">
         <v>473</v>
-      </c>
-      <c r="C215" s="37" t="s">
-        <v>474</v>
       </c>
     </row>
     <row r="216" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B216" s="32" t="s">
+        <v>474</v>
+      </c>
+      <c r="C216" s="37" t="s">
         <v>475</v>
-      </c>
-      <c r="C216" s="37" t="s">
-        <v>476</v>
       </c>
     </row>
     <row r="217" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B217" s="32" t="s">
+        <v>476</v>
+      </c>
+      <c r="C217" s="37" t="s">
         <v>477</v>
-      </c>
-      <c r="C217" s="37" t="s">
-        <v>478</v>
       </c>
     </row>
     <row r="218" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B218" s="32" t="s">
+        <v>478</v>
+      </c>
+      <c r="C218" s="37" t="s">
         <v>479</v>
-      </c>
-      <c r="C218" s="37" t="s">
-        <v>480</v>
       </c>
     </row>
     <row r="219" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B219" s="32" t="s">
+        <v>480</v>
+      </c>
+      <c r="C219" s="37" t="s">
         <v>481</v>
-      </c>
-      <c r="C219" s="37" t="s">
-        <v>482</v>
       </c>
     </row>
     <row r="220" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B220" s="32" t="s">
+        <v>482</v>
+      </c>
+      <c r="C220" s="37" t="s">
         <v>483</v>
-      </c>
-      <c r="C220" s="37" t="s">
-        <v>484</v>
       </c>
     </row>
     <row r="221" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B221" s="32" t="s">
+        <v>484</v>
+      </c>
+      <c r="C221" s="37" t="s">
         <v>485</v>
-      </c>
-      <c r="C221" s="37" t="s">
-        <v>486</v>
       </c>
     </row>
     <row r="222" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B222" s="32" t="s">
+        <v>486</v>
+      </c>
+      <c r="C222" s="37" t="s">
         <v>487</v>
-      </c>
-      <c r="C222" s="37" t="s">
-        <v>488</v>
       </c>
     </row>
     <row r="223" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B223" s="32" t="s">
+        <v>488</v>
+      </c>
+      <c r="C223" s="37" t="s">
         <v>489</v>
-      </c>
-      <c r="C223" s="37" t="s">
-        <v>490</v>
       </c>
     </row>
     <row r="224" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B224" s="32" t="s">
+        <v>490</v>
+      </c>
+      <c r="C224" s="37" t="s">
         <v>491</v>
-      </c>
-      <c r="C224" s="37" t="s">
-        <v>492</v>
       </c>
     </row>
     <row r="225" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B225" s="32" t="s">
+        <v>492</v>
+      </c>
+      <c r="C225" s="37" t="s">
         <v>493</v>
-      </c>
-      <c r="C225" s="37" t="s">
-        <v>494</v>
       </c>
     </row>
     <row r="226" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B226" s="32" t="s">
+        <v>494</v>
+      </c>
+      <c r="C226" s="37" t="s">
         <v>495</v>
-      </c>
-      <c r="C226" s="37" t="s">
-        <v>496</v>
       </c>
     </row>
     <row r="227" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B227" s="32" t="s">
+        <v>496</v>
+      </c>
+      <c r="C227" s="37" t="s">
         <v>497</v>
-      </c>
-      <c r="C227" s="37" t="s">
-        <v>498</v>
       </c>
     </row>
     <row r="228" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B228" s="32" t="s">
+        <v>498</v>
+      </c>
+      <c r="C228" s="37" t="s">
         <v>499</v>
-      </c>
-      <c r="C228" s="37" t="s">
-        <v>500</v>
       </c>
     </row>
     <row r="229" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B229" s="32" t="s">
+        <v>500</v>
+      </c>
+      <c r="C229" s="37" t="s">
         <v>501</v>
-      </c>
-      <c r="C229" s="37" t="s">
-        <v>502</v>
       </c>
     </row>
     <row r="230" spans="2:3" x14ac:dyDescent="0.3">
@@ -6652,46 +6663,46 @@
     </row>
     <row r="231" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B231" s="31" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C231" s="36"/>
     </row>
     <row r="232" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B232" s="32" t="s">
+        <v>503</v>
+      </c>
+      <c r="C232" s="37" t="s">
         <v>504</v>
-      </c>
-      <c r="C232" s="37" t="s">
-        <v>505</v>
       </c>
     </row>
     <row r="233" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B233" s="32" t="s">
+        <v>505</v>
+      </c>
+      <c r="C233" s="37" t="s">
         <v>506</v>
-      </c>
-      <c r="C233" s="37" t="s">
-        <v>507</v>
       </c>
     </row>
     <row r="234" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B234" s="32" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C234" s="37"/>
     </row>
     <row r="235" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B235" s="32" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C235" s="39" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="236" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B236" s="32" t="s">
+        <v>509</v>
+      </c>
+      <c r="C236" s="37" t="s">
         <v>510</v>
-      </c>
-      <c r="C236" s="37" t="s">
-        <v>511</v>
       </c>
     </row>
     <row r="237" spans="2:3" x14ac:dyDescent="0.3">
@@ -6700,16 +6711,16 @@
     </row>
     <row r="238" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B238" s="31" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C238" s="36"/>
     </row>
     <row r="239" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B239" s="32" t="s">
+        <v>512</v>
+      </c>
+      <c r="C239" s="37" t="s">
         <v>513</v>
-      </c>
-      <c r="C239" s="37" t="s">
-        <v>514</v>
       </c>
     </row>
     <row r="240" spans="2:3" x14ac:dyDescent="0.3">
@@ -6718,64 +6729,64 @@
     </row>
     <row r="241" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B241" s="31" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C241" s="36"/>
     </row>
     <row r="242" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B242" s="32" t="s">
+        <v>515</v>
+      </c>
+      <c r="C242" s="37" t="s">
         <v>516</v>
-      </c>
-      <c r="C242" s="37" t="s">
-        <v>517</v>
       </c>
     </row>
     <row r="243" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B243" s="32" t="s">
+        <v>517</v>
+      </c>
+      <c r="C243" s="37" t="s">
         <v>518</v>
-      </c>
-      <c r="C243" s="37" t="s">
-        <v>519</v>
       </c>
     </row>
     <row r="244" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B244" s="32" t="s">
+        <v>519</v>
+      </c>
+      <c r="C244" s="37" t="s">
         <v>520</v>
-      </c>
-      <c r="C244" s="37" t="s">
-        <v>521</v>
       </c>
     </row>
     <row r="245" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B245" s="32" t="s">
+        <v>521</v>
+      </c>
+      <c r="C245" s="37" t="s">
         <v>522</v>
-      </c>
-      <c r="C245" s="37" t="s">
-        <v>523</v>
       </c>
     </row>
     <row r="246" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B246" s="32" t="s">
+        <v>523</v>
+      </c>
+      <c r="C246" s="37" t="s">
         <v>524</v>
-      </c>
-      <c r="C246" s="37" t="s">
-        <v>525</v>
       </c>
     </row>
     <row r="247" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B247" s="32" t="s">
+        <v>525</v>
+      </c>
+      <c r="C247" s="37" t="s">
         <v>526</v>
-      </c>
-      <c r="C247" s="37" t="s">
-        <v>527</v>
       </c>
     </row>
     <row r="248" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B248" s="32" t="s">
+        <v>527</v>
+      </c>
+      <c r="C248" s="37" t="s">
         <v>528</v>
-      </c>
-      <c r="C248" s="37" t="s">
-        <v>529</v>
       </c>
     </row>
     <row r="249" spans="2:3" x14ac:dyDescent="0.3">
@@ -6784,29 +6795,29 @@
     </row>
     <row r="250" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B250" s="31" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C250" s="36"/>
     </row>
     <row r="251" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B251" s="32" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C251" s="39" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="252" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B252" s="32" t="s">
+        <v>531</v>
+      </c>
+      <c r="C252" s="37" t="s">
         <v>532</v>
-      </c>
-      <c r="C252" s="37" t="s">
-        <v>533</v>
       </c>
     </row>
     <row r="253" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B253" s="33" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C253" s="37"/>
     </row>
@@ -6816,53 +6827,53 @@
     </row>
     <row r="255" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B255" s="31" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C255" s="36"/>
     </row>
     <row r="256" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B256" s="32" t="s">
+        <v>535</v>
+      </c>
+      <c r="C256" s="37" t="s">
         <v>536</v>
-      </c>
-      <c r="C256" s="37" t="s">
-        <v>537</v>
       </c>
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B257" s="32" t="s">
+        <v>537</v>
+      </c>
+      <c r="C257" s="37" t="s">
         <v>538</v>
-      </c>
-      <c r="C257" s="37" t="s">
-        <v>539</v>
       </c>
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B258" s="32" t="s">
+        <v>539</v>
+      </c>
+      <c r="C258" s="37" t="s">
         <v>540</v>
-      </c>
-      <c r="C258" s="37" t="s">
-        <v>541</v>
       </c>
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B259" s="32" t="s">
+        <v>541</v>
+      </c>
+      <c r="C259" s="37" t="s">
         <v>542</v>
-      </c>
-      <c r="C259" s="37" t="s">
-        <v>543</v>
       </c>
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B260" s="32" t="s">
+        <v>543</v>
+      </c>
+      <c r="C260" s="37" t="s">
         <v>544</v>
-      </c>
-      <c r="C260" s="37" t="s">
-        <v>545</v>
       </c>
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A262" s="34" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B262" s="35">
         <f>+COUNTA(B2:B260)-27</f>
@@ -7143,22 +7154,22 @@
   <sheetData>
     <row r="2" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B2" s="43" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C2" s="43" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="D2" s="43" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E2" s="30"/>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B3" s="32" t="s">
+        <v>572</v>
+      </c>
+      <c r="C3" s="37" t="s">
         <v>573</v>
-      </c>
-      <c r="C3" s="37" t="s">
-        <v>574</v>
       </c>
       <c r="D3" s="30"/>
       <c r="E3" s="30"/>

--- a/Learning Advance Control.xlsx
+++ b/Learning Advance Control.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USUARIO\GR\Software Development\Learning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57A26097-2A14-4913-8A2C-B1C1DDB90DD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28EBC7C9-381A-4881-A0AE-14EAA5CEDA6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="12360" xr2:uid="{C28AFF7E-06EE-4EAA-BF3B-F70E2F389C99}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C28AFF7E-06EE-4EAA-BF3B-F70E2F389C99}"/>
   </bookViews>
   <sheets>
     <sheet name="Language" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="740" uniqueCount="586">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="748" uniqueCount="594">
   <si>
     <t>Basic Syntax</t>
   </si>
@@ -2351,12 +2351,36 @@
   <si>
     <t>Algoritmos de ordenamiento</t>
   </si>
+  <si>
+    <t>Prefix Sums</t>
+  </si>
+  <si>
+    <t>Sliding Window</t>
+  </si>
+  <si>
+    <t>Two pointers</t>
+  </si>
+  <si>
+    <t>Decision Trees</t>
+  </si>
+  <si>
+    <t>For Later on…</t>
+  </si>
+  <si>
+    <t>Dynamic Programming</t>
+  </si>
+  <si>
+    <t>DFS &amp; BFS (In depth)</t>
+  </si>
+  <si>
+    <t>4. More complex specific cases</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="28" x14ac:knownFonts="1">
+  <fonts count="30" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2571,8 +2595,24 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <color rgb="FFCCCCFF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="9" tint="0.39997558519241921"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2621,6 +2661,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -2635,7 +2681,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
@@ -2798,14 +2844,23 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2816,6 +2871,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFCCCCFF"/>
       <color rgb="FF441D61"/>
       <color rgb="FF00DE64"/>
       <color rgb="FF7EBA56"/>
@@ -3195,16 +3251,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E55BE2DC-6D03-4737-9A16-12A22A3E1488}">
-  <dimension ref="B2:H57"/>
+  <dimension ref="B2:H60"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" outlineLevelRow="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.5546875" customWidth="1"/>
-    <col min="2" max="2" width="18.77734375" style="5" customWidth="1"/>
+    <col min="1" max="1" width="11.109375" customWidth="1"/>
+    <col min="2" max="2" width="29.21875" style="5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23.77734375" style="6" customWidth="1"/>
     <col min="4" max="4" width="10.5546875" style="5" customWidth="1"/>
     <col min="5" max="5" width="1.77734375" customWidth="1"/>
@@ -3223,8 +3279,8 @@
         <v>57</v>
       </c>
       <c r="D3" s="22">
-        <f>+AVERAGE(D5,D6,D14,D16,D17,D15,D21,D22,D23,D24,D26,D27,D31,D32,D33,D34,D35,D36,D37,D38,D39,D40,D25)</f>
-        <v>0.51586956521739136</v>
+        <f>+AVERAGE(D5,D6,D14,D16,D17,D15,D21,D22,D23,D24,D26,D27,D31,D36,D37,D38,D39)</f>
+        <v>0.63529411764705879</v>
       </c>
     </row>
     <row r="4" spans="2:8" s="11" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -3252,7 +3308,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="C7" s="13" t="s">
         <v>2</v>
       </c>
@@ -3260,7 +3316,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="C8" s="13" t="s">
         <v>3</v>
       </c>
@@ -3269,7 +3325,7 @@
       </c>
       <c r="H8" s="26"/>
     </row>
-    <row r="9" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="C9" s="13" t="s">
         <v>4</v>
       </c>
@@ -3277,7 +3333,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="C10" s="13" t="s">
         <v>5</v>
       </c>
@@ -3285,7 +3341,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="C11" s="13" t="s">
         <v>6</v>
       </c>
@@ -3293,7 +3349,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="C12" s="13" t="s">
         <v>11</v>
       </c>
@@ -3301,7 +3357,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="C13" s="13" t="s">
         <v>7</v>
       </c>
@@ -3310,7 +3366,7 @@
       </c>
       <c r="F13" s="26"/>
     </row>
-    <row r="14" spans="2:8" collapsed="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C14" s="7" t="s">
         <v>8</v>
       </c>
@@ -3347,10 +3403,10 @@
       <c r="D18" s="23"/>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B19" s="60" t="s">
+      <c r="B19" s="65" t="s">
         <v>574</v>
       </c>
-      <c r="C19" s="60"/>
+      <c r="C19" s="65"/>
       <c r="D19" s="22">
         <v>1</v>
       </c>
@@ -3401,9 +3457,8 @@
         <v>584</v>
       </c>
       <c r="D25" s="22">
-        <v>0.6</v>
-      </c>
-      <c r="E25" s="56"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C26" s="57" t="s">
@@ -3412,6 +3467,7 @@
       <c r="D26" s="22">
         <v>0.1</v>
       </c>
+      <c r="E26" s="56"/>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C27" s="57" t="s">
@@ -3426,10 +3482,10 @@
       <c r="D28" s="23"/>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B29" s="60" t="s">
+      <c r="B29" s="65" t="s">
         <v>582</v>
       </c>
-      <c r="C29" s="60"/>
+      <c r="C29" s="65"/>
       <c r="D29" s="22">
         <v>0</v>
       </c>
@@ -3443,53 +3499,54 @@
         <v>20</v>
       </c>
       <c r="C31" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D31" s="22">
+        <f>+AVERAGE(D32:D35)</f>
+        <v>0.15000000000000002</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="C32" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="D31" s="22">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="C32" s="7" t="s">
+      <c r="D32" s="22">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="C33" s="13" t="s">
         <v>23</v>
-      </c>
-      <c r="D32" s="22">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="33" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C33" s="7" t="s">
-        <v>24</v>
       </c>
       <c r="D33" s="22">
         <v>0.15</v>
       </c>
     </row>
-    <row r="34" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C34" s="7" t="s">
-        <v>25</v>
+    <row r="34" spans="2:4" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="C34" s="13" t="s">
+        <v>24</v>
       </c>
       <c r="D34" s="22">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="C35" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" s="22">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C36" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D36" s="22">
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C35" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D35" s="22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C36" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D36" s="22">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="37" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C37" s="7" t="s">
         <v>28</v>
       </c>
@@ -3497,7 +3554,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="38" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C38" s="7" t="s">
         <v>580</v>
       </c>
@@ -3505,7 +3562,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="39" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C39" s="7" t="s">
         <v>581</v>
       </c>
@@ -3513,75 +3570,129 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C40" s="7" t="s">
+    <row r="40" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C40" s="7"/>
+      <c r="D40" s="22"/>
+    </row>
+    <row r="41" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C41" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D40" s="24">
-        <f>+AVERAGE(D41:D42)</f>
-        <v>1.4999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="41" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C41" s="28" t="s">
+      <c r="D41" s="24">
+        <f>+AVERAGE(D42:D43)</f>
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C42" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D41" s="25">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="42" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C42" s="28" t="s">
+      <c r="D42" s="25">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="43" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C43" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="D42" s="25">
+      <c r="D43" s="25">
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C43" s="7"/>
-    </row>
-    <row r="44" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C44" s="7"/>
     </row>
-    <row r="45" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C45" s="7"/>
     </row>
-    <row r="46" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C46" s="7"/>
     </row>
-    <row r="47" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B47" s="63" t="s">
+        <v>590</v>
+      </c>
       <c r="C47" s="7"/>
     </row>
-    <row r="48" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C48" s="7"/>
-    </row>
-    <row r="49" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C49" s="7"/>
-    </row>
-    <row r="50" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C50" s="7"/>
-    </row>
-    <row r="51" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C51" s="7"/>
-    </row>
-    <row r="52" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C52" s="7"/>
-    </row>
-    <row r="53" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C53" s="7"/>
-    </row>
-    <row r="54" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C54" s="7"/>
-    </row>
-    <row r="55" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C55" s="7"/>
-    </row>
-    <row r="56" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C56" s="7"/>
-    </row>
-    <row r="57" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C57" s="7"/>
+    <row r="48" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B48" s="64" t="s">
+        <v>593</v>
+      </c>
+      <c r="C48" s="7" t="s">
+        <v>586</v>
+      </c>
+      <c r="D48" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B49" s="62"/>
+      <c r="C49" s="7" t="s">
+        <v>587</v>
+      </c>
+      <c r="D49" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C50" s="7" t="s">
+        <v>588</v>
+      </c>
+      <c r="D50" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C51" s="7" t="s">
+        <v>589</v>
+      </c>
+      <c r="D51" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C52" s="7" t="s">
+        <v>592</v>
+      </c>
+      <c r="D52" s="22">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="53" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C53" s="7" t="s">
+        <v>591</v>
+      </c>
+      <c r="D53" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C54"/>
+      <c r="D54"/>
+    </row>
+    <row r="55" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C55"/>
+      <c r="D55"/>
+    </row>
+    <row r="56" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C56"/>
+      <c r="D56"/>
+    </row>
+    <row r="57" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C57"/>
+      <c r="D57"/>
+    </row>
+    <row r="58" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C58"/>
+      <c r="D58"/>
+    </row>
+    <row r="59" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C59"/>
+      <c r="D59"/>
+    </row>
+    <row r="60" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C60"/>
+      <c r="D60"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -3589,19 +3700,7 @@
     <mergeCell ref="B19:C19"/>
     <mergeCell ref="B29:C29"/>
   </mergeCells>
-  <conditionalFormatting sqref="D3">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="0.5"/>
-        <cfvo type="num" val="1"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D5:D42">
+  <conditionalFormatting sqref="D48:D53 D3 D5:D43">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -3623,7 +3722,7 @@
   <dimension ref="B2:D45"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3648,7 +3747,7 @@
       </c>
       <c r="D3" s="22">
         <f>+AVERAGE(D5,D6,D9,D10,D16,D17,D20,D21,D24,D25,D26,D27,D30,D34,D38)</f>
-        <v>0.22999999999999998</v>
+        <v>0.24333333333333332</v>
       </c>
     </row>
     <row r="4" spans="2:4" s="11" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -3657,18 +3756,18 @@
       <c r="D4" s="21"/>
     </row>
     <row r="5" spans="2:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="62" t="s">
+      <c r="B5" s="61" t="s">
         <v>32</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>33</v>
       </c>
       <c r="D5" s="22">
-        <v>0.9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B6" s="62"/>
+      <c r="B6" s="61"/>
       <c r="C6" s="7" t="s">
         <v>585</v>
       </c>
@@ -3686,7 +3785,7 @@
       <c r="D8" s="22"/>
     </row>
     <row r="9" spans="2:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="61" t="s">
+      <c r="B9" s="60" t="s">
         <v>34</v>
       </c>
       <c r="C9" s="7" t="s">
@@ -3697,7 +3796,7 @@
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B10" s="61"/>
+      <c r="B10" s="60"/>
       <c r="C10" s="7" t="s">
         <v>36</v>
       </c>
@@ -3842,8 +3941,8 @@
         <v>47</v>
       </c>
       <c r="D30" s="22">
-        <f>+AVERAGE(D31:D33)</f>
-        <v>4.9999999999999996E-2</v>
+        <f>+AVERAGE(D31)</f>
+        <v>0.15</v>
       </c>
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.3">
@@ -3875,7 +3974,7 @@
         <v>51</v>
       </c>
       <c r="D34" s="22">
-        <f>+AVERAGE(D35:D37)</f>
+        <f>+AVERAGE(D35)</f>
         <v>0</v>
       </c>
     </row>
@@ -3966,9 +4065,6 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <ignoredErrors>
-    <ignoredError sqref="D34" formulaRange="1"/>
-  </ignoredErrors>
 </worksheet>
 </file>
 
@@ -3976,7 +4072,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42E9B1B1-FF6A-4270-B100-DB5C0019BAE1}">
   <dimension ref="D2:H83"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A55" workbookViewId="0">
       <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>

--- a/Learning Advance Control.xlsx
+++ b/Learning Advance Control.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USUARIO\GR\Software Development\Learning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28EBC7C9-381A-4881-A0AE-14EAA5CEDA6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FC5A5AD-E8C4-40E3-8CA0-13B53D73DA69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C28AFF7E-06EE-4EAA-BF3B-F70E2F389C99}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="12360" xr2:uid="{C28AFF7E-06EE-4EAA-BF3B-F70E2F389C99}"/>
   </bookViews>
   <sheets>
     <sheet name="Language" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="748" uniqueCount="594">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="747" uniqueCount="593">
   <si>
     <t>Basic Syntax</t>
   </si>
@@ -2338,9 +2338,6 @@
   </si>
   <si>
     <t>Context Managers</t>
-  </si>
-  <si>
-    <t>HackerRank DataStructures Exercices</t>
   </si>
   <si>
     <t>-</t>
@@ -2612,7 +2609,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2657,12 +2654,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF7030A0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="0" tint="-4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -2681,7 +2672,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
@@ -2834,21 +2825,8 @@
     <xf numFmtId="0" fontId="25" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
@@ -2859,8 +2837,20 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3251,17 +3241,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E55BE2DC-6D03-4737-9A16-12A22A3E1488}">
-  <dimension ref="B2:H60"/>
+  <dimension ref="B2:H59"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" outlineLevelRow="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11.109375" customWidth="1"/>
     <col min="2" max="2" width="29.21875" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.77734375" style="6" customWidth="1"/>
+    <col min="3" max="3" width="24.33203125" style="6" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.5546875" style="5" customWidth="1"/>
     <col min="5" max="5" width="1.77734375" customWidth="1"/>
   </cols>
@@ -3279,8 +3269,8 @@
         <v>57</v>
       </c>
       <c r="D3" s="22">
-        <f>+AVERAGE(D5,D6,D14,D16,D17,D15,D21,D22,D23,D24,D26,D27,D31,D36,D37,D38,D39)</f>
-        <v>0.63529411764705879</v>
+        <f>+AVERAGE(D5,D6,D14,D16,D17,D15,D21,D22,D23,D24,D26,D27,D30,D35,D36,D37,D38)</f>
+        <v>0.73823529411764699</v>
       </c>
     </row>
     <row r="4" spans="2:8" s="11" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -3308,7 +3298,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="C7" s="13" t="s">
         <v>2</v>
       </c>
@@ -3316,7 +3306,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="C8" s="13" t="s">
         <v>3</v>
       </c>
@@ -3325,7 +3315,7 @@
       </c>
       <c r="H8" s="26"/>
     </row>
-    <row r="9" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="C9" s="13" t="s">
         <v>4</v>
       </c>
@@ -3333,7 +3323,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="C10" s="13" t="s">
         <v>5</v>
       </c>
@@ -3341,7 +3331,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="C11" s="13" t="s">
         <v>6</v>
       </c>
@@ -3349,7 +3339,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="C12" s="13" t="s">
         <v>11</v>
       </c>
@@ -3357,7 +3347,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="C13" s="13" t="s">
         <v>7</v>
       </c>
@@ -3366,7 +3356,7 @@
       </c>
       <c r="F13" s="26"/>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:8" collapsed="1" x14ac:dyDescent="0.3">
       <c r="C14" s="7" t="s">
         <v>8</v>
       </c>
@@ -3403,10 +3393,10 @@
       <c r="D18" s="23"/>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B19" s="65" t="s">
+      <c r="B19" s="61" t="s">
         <v>574</v>
       </c>
-      <c r="C19" s="65"/>
+      <c r="C19" s="61"/>
       <c r="D19" s="22">
         <v>1</v>
       </c>
@@ -3417,7 +3407,7 @@
       <c r="D20" s="23"/>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B21" s="59" t="s">
+      <c r="B21" s="60" t="s">
         <v>21</v>
       </c>
       <c r="C21" s="7" t="s">
@@ -3428,7 +3418,7 @@
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B22" s="59"/>
+      <c r="B22" s="60"/>
       <c r="C22" s="7" t="s">
         <v>15</v>
       </c>
@@ -3453,28 +3443,27 @@
       </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="C25" s="7" t="s">
-        <v>584</v>
+      <c r="C25" s="64" t="s">
+        <v>583</v>
       </c>
       <c r="D25" s="22">
         <v>1</v>
       </c>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="C26" s="57" t="s">
+      <c r="C26" s="64" t="s">
         <v>18</v>
       </c>
       <c r="D26" s="22">
-        <v>0.1</v>
-      </c>
-      <c r="E26" s="56"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="C27" s="57" t="s">
+      <c r="C27" s="64" t="s">
         <v>19</v>
       </c>
       <c r="D27" s="22">
-        <v>0.15</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.3">
@@ -3482,73 +3471,72 @@
       <c r="D28" s="23"/>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B29" s="65" t="s">
-        <v>582</v>
-      </c>
-      <c r="C29" s="65"/>
-      <c r="D29" s="22">
-        <v>0</v>
-      </c>
+      <c r="C29" s="7"/>
+      <c r="D29" s="23"/>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="C30" s="7"/>
-      <c r="D30" s="23"/>
-    </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B31" s="9" t="s">
+      <c r="B30" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C31" s="7" t="s">
+      <c r="C30" s="7" t="s">
         <v>25</v>
       </c>
+      <c r="D30" s="22">
+        <f>+AVERAGE(D31:D34)</f>
+        <v>0.15000000000000002</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="C31" s="13" t="s">
+        <v>22</v>
+      </c>
       <c r="D31" s="22">
-        <f>+AVERAGE(D32:D35)</f>
-        <v>0.15000000000000002</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="32" spans="2:6" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="C32" s="13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D32" s="22">
-        <v>0.2</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="33" spans="2:4" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="C33" s="13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D33" s="22">
-        <v>0.15</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="34" spans="2:4" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="C34" s="13" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D34" s="22">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="35" spans="2:4" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="C35" s="13" t="s">
-        <v>27</v>
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C35" s="7" t="s">
+        <v>26</v>
       </c>
       <c r="D35" s="22">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C36" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D36" s="22">
-        <v>0</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C37" s="7" t="s">
-        <v>28</v>
+        <v>580</v>
       </c>
       <c r="D37" s="22">
         <v>0.2</v>
@@ -3556,48 +3544,43 @@
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C38" s="7" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="D38" s="22">
-        <v>0.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C39" s="7" t="s">
-        <v>581</v>
-      </c>
-      <c r="D39" s="22">
-        <v>0</v>
-      </c>
+      <c r="C39" s="7"/>
+      <c r="D39" s="22"/>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C40" s="7"/>
-      <c r="D40" s="22"/>
+      <c r="C40" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D40" s="24">
+        <f>+AVERAGE(D41:D42)</f>
+        <v>0.05</v>
+      </c>
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C41" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D41" s="24">
-        <f>+AVERAGE(D42:D43)</f>
-        <v>0.05</v>
+      <c r="C41" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="D41" s="25">
+        <v>0.1</v>
       </c>
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C42" s="28" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D42" s="25">
-        <v>0.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C43" s="28" t="s">
-        <v>31</v>
-      </c>
-      <c r="D43" s="25">
-        <v>0</v>
-      </c>
+      <c r="C43" s="7"/>
     </row>
     <row r="44" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C44" s="7"/>
@@ -3606,18 +3589,24 @@
       <c r="C45" s="7"/>
     </row>
     <row r="46" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B46" s="58" t="s">
+        <v>589</v>
+      </c>
       <c r="C46" s="7"/>
     </row>
     <row r="47" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B47" s="63" t="s">
-        <v>590</v>
-      </c>
-      <c r="C47" s="7"/>
+      <c r="B47" s="59" t="s">
+        <v>592</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>585</v>
+      </c>
+      <c r="D47" s="22">
+        <v>0</v>
+      </c>
     </row>
     <row r="48" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B48" s="64" t="s">
-        <v>593</v>
-      </c>
+      <c r="B48" s="57"/>
       <c r="C48" s="7" t="s">
         <v>586</v>
       </c>
@@ -3625,8 +3614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B49" s="62"/>
+    <row r="49" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C49" s="7" t="s">
         <v>587</v>
       </c>
@@ -3634,7 +3622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C50" s="7" t="s">
         <v>588</v>
       </c>
@@ -3642,65 +3630,56 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C51" s="7" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="D51" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C52" s="7" t="s">
+        <v>590</v>
+      </c>
+      <c r="D52" s="22">
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C52" s="7" t="s">
-        <v>592</v>
-      </c>
-      <c r="D52" s="22">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="53" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C53" s="7" t="s">
-        <v>591</v>
-      </c>
-      <c r="D53" s="22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C53"/>
+      <c r="D53"/>
+    </row>
+    <row r="54" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C54"/>
       <c r="D54"/>
     </row>
-    <row r="55" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C55"/>
       <c r="D55"/>
     </row>
-    <row r="56" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C56"/>
       <c r="D56"/>
     </row>
-    <row r="57" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C57"/>
       <c r="D57"/>
     </row>
-    <row r="58" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C58"/>
       <c r="D58"/>
     </row>
-    <row r="59" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C59"/>
       <c r="D59"/>
     </row>
-    <row r="60" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C60"/>
-      <c r="D60"/>
-    </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="2">
     <mergeCell ref="B21:B22"/>
     <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B29:C29"/>
   </mergeCells>
-  <conditionalFormatting sqref="D48:D53 D3 D5:D43">
+  <conditionalFormatting sqref="D47:D52 D3 D5:D42">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -3756,7 +3735,7 @@
       <c r="D4" s="21"/>
     </row>
     <row r="5" spans="2:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="61" t="s">
+      <c r="B5" s="63" t="s">
         <v>32</v>
       </c>
       <c r="C5" s="7" t="s">
@@ -3767,9 +3746,9 @@
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B6" s="61"/>
+      <c r="B6" s="63"/>
       <c r="C6" s="7" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="D6" s="22">
         <v>0.1</v>
@@ -3785,7 +3764,7 @@
       <c r="D8" s="22"/>
     </row>
     <row r="9" spans="2:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="60" t="s">
+      <c r="B9" s="62" t="s">
         <v>34</v>
       </c>
       <c r="C9" s="7" t="s">
@@ -3796,7 +3775,7 @@
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B10" s="60"/>
+      <c r="B10" s="62"/>
       <c r="C10" s="7" t="s">
         <v>36</v>
       </c>
@@ -3817,16 +3796,16 @@
       <c r="C12" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="D12" s="58" t="s">
-        <v>583</v>
+      <c r="D12" s="56" t="s">
+        <v>582</v>
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C13" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="D13" s="58" t="s">
-        <v>583</v>
+      <c r="D13" s="56" t="s">
+        <v>582</v>
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.3">

--- a/Learning Advance Control.xlsx
+++ b/Learning Advance Control.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USUARIO\GR\Software Development\Learning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FC5A5AD-E8C4-40E3-8CA0-13B53D73DA69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B68B937C-93A5-4AB7-A76D-6FC951261447}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="12360" xr2:uid="{C28AFF7E-06EE-4EAA-BF3B-F70E2F389C99}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C28AFF7E-06EE-4EAA-BF3B-F70E2F389C99}"/>
   </bookViews>
   <sheets>
     <sheet name="Language" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="747" uniqueCount="593">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="744" uniqueCount="590">
   <si>
     <t>Basic Syntax</t>
   </si>
@@ -127,15 +127,6 @@
   </si>
   <si>
     <t>Lambdas</t>
-  </si>
-  <si>
-    <t>Modules</t>
-  </si>
-  <si>
-    <t>Built-in</t>
-  </si>
-  <si>
-    <t>Custom</t>
   </si>
   <si>
     <t>0. Complejidad Algorítmica</t>
@@ -2672,7 +2663,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
@@ -2744,15 +2735,9 @@
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="3"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" indent="3"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2848,9 +2833,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3241,10 +3223,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E55BE2DC-6D03-4737-9A16-12A22A3E1488}">
-  <dimension ref="B2:H59"/>
+  <dimension ref="B2:H54"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" outlineLevelRow="1" x14ac:dyDescent="0.3"/>
@@ -3260,17 +3242,17 @@
       <c r="B2" s="4"/>
       <c r="C2" s="10"/>
       <c r="D2" s="21" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="2:8" s="11" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="4"/>
-      <c r="C3" s="27" t="s">
-        <v>57</v>
+      <c r="C3" s="26" t="s">
+        <v>54</v>
       </c>
       <c r="D3" s="22">
         <f>+AVERAGE(D5,D6,D14,D16,D17,D15,D21,D22,D23,D24,D26,D27,D30,D35,D36,D37,D38)</f>
-        <v>0.73823529411764699</v>
+        <v>0.76544117647058818</v>
       </c>
     </row>
     <row r="4" spans="2:8" s="11" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -3313,7 +3295,7 @@
       <c r="D8" s="24">
         <v>1</v>
       </c>
-      <c r="H8" s="26"/>
+      <c r="H8" s="25"/>
     </row>
     <row r="9" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="C9" s="13" t="s">
@@ -3354,7 +3336,7 @@
       <c r="D13" s="24">
         <v>1</v>
       </c>
-      <c r="F13" s="26"/>
+      <c r="F13" s="25"/>
     </row>
     <row r="14" spans="2:8" collapsed="1" x14ac:dyDescent="0.3">
       <c r="C14" s="7" t="s">
@@ -3380,7 +3362,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C17" s="7" t="s">
         <v>10</v>
       </c>
@@ -3388,26 +3370,26 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C18" s="7"/>
       <c r="D18" s="23"/>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B19" s="61" t="s">
-        <v>574</v>
-      </c>
-      <c r="C19" s="61"/>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B19" s="59" t="s">
+        <v>571</v>
+      </c>
+      <c r="C19" s="59"/>
       <c r="D19" s="22">
         <v>1</v>
       </c>
-      <c r="F19" s="26"/>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F19" s="25"/>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C20" s="7"/>
       <c r="D20" s="23"/>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B21" s="60" t="s">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B21" s="58" t="s">
         <v>21</v>
       </c>
       <c r="C21" s="7" t="s">
@@ -3417,8 +3399,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B22" s="60"/>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B22" s="58"/>
       <c r="C22" s="7" t="s">
         <v>15</v>
       </c>
@@ -3426,7 +3408,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C23" s="7" t="s">
         <v>16</v>
       </c>
@@ -3434,7 +3416,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C24" s="7" t="s">
         <v>17</v>
       </c>
@@ -3442,39 +3424,40 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="C25" s="64" t="s">
-        <v>583</v>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C25" s="7" t="s">
+        <v>580</v>
       </c>
       <c r="D25" s="22">
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="C26" s="64" t="s">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C26" s="7" t="s">
         <v>18</v>
       </c>
       <c r="D26" s="22">
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="C27" s="64" t="s">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C27" s="7" t="s">
         <v>19</v>
       </c>
       <c r="D27" s="22">
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C28" s="7"/>
       <c r="D28" s="23"/>
     </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C29" s="7"/>
       <c r="D29" s="23"/>
-    </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="H29" s="25"/>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B30" s="9" t="s">
         <v>20</v>
       </c>
@@ -3483,23 +3466,23 @@
       </c>
       <c r="D30" s="22">
         <f>+AVERAGE(D31:D34)</f>
-        <v>0.15000000000000002</v>
-      </c>
-    </row>
-    <row r="31" spans="2:6" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>0.61250000000000004</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="C31" s="13" t="s">
         <v>22</v>
       </c>
       <c r="D31" s="22">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="32" spans="2:6" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="C32" s="13" t="s">
         <v>23</v>
       </c>
       <c r="D32" s="22">
-        <v>0.15</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="33" spans="2:4" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -3507,7 +3490,7 @@
         <v>24</v>
       </c>
       <c r="D33" s="22">
-        <v>0.2</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="34" spans="2:4" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -3536,7 +3519,7 @@
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C37" s="7" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="D37" s="22">
         <v>0.2</v>
@@ -3544,7 +3527,7 @@
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C38" s="7" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="D38" s="22">
         <v>0</v>
@@ -3555,96 +3538,85 @@
       <c r="D39" s="22"/>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C40" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D40" s="24">
-        <f>+AVERAGE(D41:D42)</f>
-        <v>0.05</v>
-      </c>
+      <c r="C40" s="7"/>
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C41" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="D41" s="25">
-        <v>0.1</v>
-      </c>
+      <c r="B41" s="56" t="s">
+        <v>586</v>
+      </c>
+      <c r="C41" s="7"/>
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C42" s="28" t="s">
-        <v>31</v>
-      </c>
-      <c r="D42" s="25">
+      <c r="B42" s="57" t="s">
+        <v>589</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>582</v>
+      </c>
+      <c r="D42" s="22">
         <v>0</v>
       </c>
     </row>
     <row r="43" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C43" s="7"/>
+      <c r="B43" s="55"/>
+      <c r="C43" s="7" t="s">
+        <v>583</v>
+      </c>
+      <c r="D43" s="22">
+        <v>0</v>
+      </c>
     </row>
     <row r="44" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C44" s="7"/>
+      <c r="C44" s="7" t="s">
+        <v>584</v>
+      </c>
+      <c r="D44" s="22">
+        <v>0</v>
+      </c>
     </row>
     <row r="45" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C45" s="7"/>
+      <c r="C45" s="7" t="s">
+        <v>585</v>
+      </c>
+      <c r="D45" s="22">
+        <v>0</v>
+      </c>
     </row>
     <row r="46" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B46" s="58" t="s">
-        <v>589</v>
-      </c>
-      <c r="C46" s="7"/>
+      <c r="C46" s="7" t="s">
+        <v>588</v>
+      </c>
+      <c r="D46" s="22">
+        <v>1</v>
+      </c>
     </row>
     <row r="47" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B47" s="59" t="s">
-        <v>592</v>
-      </c>
       <c r="C47" s="7" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="D47" s="22">
         <v>0</v>
       </c>
     </row>
     <row r="48" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B48" s="57"/>
-      <c r="C48" s="7" t="s">
-        <v>586</v>
-      </c>
-      <c r="D48" s="22">
-        <v>0</v>
-      </c>
+      <c r="C48"/>
+      <c r="D48"/>
     </row>
     <row r="49" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C49" s="7" t="s">
-        <v>587</v>
-      </c>
-      <c r="D49" s="22">
-        <v>0</v>
-      </c>
+      <c r="C49"/>
+      <c r="D49"/>
     </row>
     <row r="50" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C50" s="7" t="s">
-        <v>588</v>
-      </c>
-      <c r="D50" s="22">
-        <v>0</v>
-      </c>
+      <c r="C50"/>
+      <c r="D50"/>
     </row>
     <row r="51" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C51" s="7" t="s">
-        <v>591</v>
-      </c>
-      <c r="D51" s="22">
-        <v>1</v>
-      </c>
+      <c r="C51"/>
+      <c r="D51"/>
     </row>
     <row r="52" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C52" s="7" t="s">
-        <v>590</v>
-      </c>
-      <c r="D52" s="22">
-        <v>0</v>
-      </c>
+      <c r="C52"/>
+      <c r="D52"/>
     </row>
     <row r="53" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C53"/>
@@ -3653,33 +3625,13 @@
     <row r="54" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C54"/>
       <c r="D54"/>
-    </row>
-    <row r="55" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C55"/>
-      <c r="D55"/>
-    </row>
-    <row r="56" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C56"/>
-      <c r="D56"/>
-    </row>
-    <row r="57" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C57"/>
-      <c r="D57"/>
-    </row>
-    <row r="58" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C58"/>
-      <c r="D58"/>
-    </row>
-    <row r="59" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C59"/>
-      <c r="D59"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="B21:B22"/>
     <mergeCell ref="B19:C19"/>
   </mergeCells>
-  <conditionalFormatting sqref="D47:D52 D3 D5:D42">
+  <conditionalFormatting sqref="D42:D47 D3 D5:D39">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -3716,13 +3668,13 @@
       <c r="B2" s="4"/>
       <c r="C2" s="10"/>
       <c r="D2" s="20" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="2:4" s="11" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="4"/>
-      <c r="C3" s="27" t="s">
-        <v>58</v>
+      <c r="C3" s="26" t="s">
+        <v>55</v>
       </c>
       <c r="D3" s="22">
         <f>+AVERAGE(D5,D6,D9,D10,D16,D17,D20,D21,D24,D25,D26,D27,D30,D34,D38)</f>
@@ -3735,20 +3687,20 @@
       <c r="D4" s="21"/>
     </row>
     <row r="5" spans="2:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="63" t="s">
-        <v>32</v>
+      <c r="B5" s="61" t="s">
+        <v>29</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D5" s="22">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B6" s="63"/>
+      <c r="B6" s="61"/>
       <c r="C6" s="7" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="D6" s="22">
         <v>0.1</v>
@@ -3764,20 +3716,20 @@
       <c r="D8" s="22"/>
     </row>
     <row r="9" spans="2:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="62" t="s">
-        <v>34</v>
+      <c r="B9" s="60" t="s">
+        <v>31</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D9" s="22">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B10" s="62"/>
+      <c r="B10" s="60"/>
       <c r="C10" s="7" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D10" s="22">
         <f>+AVERAGE(D11)</f>
@@ -3786,7 +3738,7 @@
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C11" s="13" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D11" s="24">
         <v>1</v>
@@ -3794,18 +3746,18 @@
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C12" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="D12" s="56" t="s">
-        <v>582</v>
+        <v>35</v>
+      </c>
+      <c r="D12" s="54" t="s">
+        <v>579</v>
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C13" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="D13" s="56" t="s">
-        <v>582</v>
+        <v>36</v>
+      </c>
+      <c r="D13" s="54" t="s">
+        <v>579</v>
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.3">
@@ -3818,10 +3770,10 @@
     </row>
     <row r="16" spans="2:4" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="17" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D16" s="22">
         <v>0</v>
@@ -3830,7 +3782,7 @@
     <row r="17" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B17" s="16"/>
       <c r="C17" s="7" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D17" s="22">
         <v>0.15</v>
@@ -3846,10 +3798,10 @@
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B20" s="18" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="D20" s="22">
         <v>0</v>
@@ -3857,7 +3809,7 @@
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C21" s="7" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="D21" s="22">
         <v>0</v>
@@ -3871,10 +3823,10 @@
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B24" s="18" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D24" s="22">
         <v>0</v>
@@ -3882,7 +3834,7 @@
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C25" s="7" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D25" s="22">
         <v>0.25</v>
@@ -3890,7 +3842,7 @@
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C26" s="7" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D26" s="22">
         <v>0</v>
@@ -3898,7 +3850,7 @@
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C27" s="7" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D27" s="22">
         <v>0</v>
@@ -3914,10 +3866,10 @@
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B30" s="19" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D30" s="22">
         <f>+AVERAGE(D31)</f>
@@ -3926,7 +3878,7 @@
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C31" s="13" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D31" s="22">
         <v>0.15</v>
@@ -3934,7 +3886,7 @@
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C32" s="13" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D32" s="24">
         <v>0</v>
@@ -3942,7 +3894,7 @@
     </row>
     <row r="33" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C33" s="13" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D33" s="24">
         <v>0</v>
@@ -3950,7 +3902,7 @@
     </row>
     <row r="34" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C34" s="7" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D34" s="22">
         <f>+AVERAGE(D35)</f>
@@ -3959,7 +3911,7 @@
     </row>
     <row r="35" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C35" s="13" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D35" s="24">
         <v>0</v>
@@ -3967,7 +3919,7 @@
     </row>
     <row r="36" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C36" s="13" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D36" s="24">
         <v>0</v>
@@ -3975,7 +3927,7 @@
     </row>
     <row r="37" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C37" s="13" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D37" s="24">
         <v>0</v>
@@ -3983,7 +3935,7 @@
     </row>
     <row r="38" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C38" s="7" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D38" s="22">
         <v>0</v>
@@ -4051,639 +4003,639 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42E9B1B1-FF6A-4270-B100-DB5C0019BAE1}">
   <dimension ref="D2:H83"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView showGridLines="0" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="4" width="11.5546875" style="30"/>
-    <col min="5" max="5" width="12.44140625" style="30" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.109375" style="30" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="11.5546875" style="30"/>
+    <col min="1" max="4" width="11.5546875" style="28"/>
+    <col min="5" max="5" width="12.44140625" style="28" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.109375" style="28" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="11.5546875" style="28"/>
   </cols>
   <sheetData>
     <row r="2" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="F2" s="35" t="s">
-        <v>130</v>
-      </c>
-      <c r="G2" s="46">
+      <c r="F2" s="33" t="s">
+        <v>127</v>
+      </c>
+      <c r="G2" s="44">
         <f>+F82/E82</f>
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E3" s="47" t="s">
+      <c r="E3" s="45" t="s">
+        <v>56</v>
+      </c>
+      <c r="F3" s="46" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="4" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E4" s="45" t="s">
+        <v>57</v>
+      </c>
+      <c r="F4" s="46" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="5" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E5" s="45" t="s">
+        <v>58</v>
+      </c>
+      <c r="F5" s="46" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="6" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E6" s="45" t="s">
         <v>59</v>
       </c>
-      <c r="F3" s="48" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="4" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E4" s="47" t="s">
+      <c r="F6" s="46" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="7" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E7" s="45" t="s">
         <v>60</v>
       </c>
-      <c r="F4" s="48" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="5" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E5" s="47" t="s">
+      <c r="F7" s="46" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="8" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E8" s="45" t="s">
         <v>61</v>
       </c>
-      <c r="F5" s="48" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="6" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E6" s="47" t="s">
+      <c r="F8" s="46" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="9" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E9" s="45" t="s">
         <v>62</v>
       </c>
-      <c r="F6" s="48" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="7" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E7" s="47" t="s">
+      <c r="F9" s="46" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="10" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E10" s="45" t="s">
         <v>63</v>
       </c>
-      <c r="F7" s="48" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="8" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E8" s="47" t="s">
+      <c r="F10" s="46" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="11" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E11" s="45" t="s">
         <v>64</v>
       </c>
-      <c r="F8" s="48" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="9" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E9" s="47" t="s">
+      <c r="F11" s="47" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="12" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E12" s="45" t="s">
         <v>65</v>
       </c>
-      <c r="F9" s="48" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="10" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E10" s="47" t="s">
+      <c r="F12" s="47" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="13" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E13" s="45" t="s">
         <v>66</v>
       </c>
-      <c r="F10" s="48" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="11" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E11" s="47" t="s">
+      <c r="F13" s="47" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="14" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E14" s="45" t="s">
         <v>67</v>
       </c>
-      <c r="F11" s="49" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="12" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E12" s="47" t="s">
+      <c r="F14" s="46" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="15" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E15" s="45" t="s">
         <v>68</v>
       </c>
-      <c r="F12" s="49" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="13" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E13" s="47" t="s">
+      <c r="F15" s="47" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="16" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E16" s="45" t="s">
+        <v>70</v>
+      </c>
+      <c r="F16" s="47" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="17" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E17" s="45" t="s">
+        <v>71</v>
+      </c>
+      <c r="F17" s="46" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="18" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E18" s="45" t="s">
+        <v>73</v>
+      </c>
+      <c r="F18" s="46" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="19" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E19" s="45" t="s">
+        <v>74</v>
+      </c>
+      <c r="F19" s="46" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="20" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E20" s="45" t="s">
+        <v>75</v>
+      </c>
+      <c r="F20" s="46" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="21" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E21" s="45" t="s">
+        <v>76</v>
+      </c>
+      <c r="F21" s="46" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="22" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E22" s="45" t="s">
+        <v>77</v>
+      </c>
+      <c r="F22" s="46" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="23" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E23" s="45" t="s">
+        <v>78</v>
+      </c>
+      <c r="F23" s="46" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="24" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E24" s="45" t="s">
+        <v>79</v>
+      </c>
+      <c r="F24" s="46" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="25" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E25" s="45" t="s">
+        <v>80</v>
+      </c>
+      <c r="F25" s="46" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="26" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E26" s="45" t="s">
+        <v>81</v>
+      </c>
+      <c r="F26" s="46" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="27" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E27" s="45" t="s">
+        <v>82</v>
+      </c>
+      <c r="F27" s="46" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="28" spans="5:6" ht="7.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E28" s="48"/>
+      <c r="F28" s="49"/>
+    </row>
+    <row r="29" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E29" s="45" t="s">
+        <v>84</v>
+      </c>
+      <c r="F29" s="46" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="30" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E30" s="45" t="s">
+        <v>97</v>
+      </c>
+      <c r="F30" s="46" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="31" spans="5:6" ht="7.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E31" s="48"/>
+      <c r="F31" s="49"/>
+    </row>
+    <row r="32" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E32" s="45" t="s">
+        <v>86</v>
+      </c>
+      <c r="F32" s="46" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="33" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E33" s="45" t="s">
+        <v>87</v>
+      </c>
+      <c r="F33" s="46" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="34" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E34" s="45" t="s">
+        <v>88</v>
+      </c>
+      <c r="F34" s="46" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="35" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E35" s="45" t="s">
+        <v>89</v>
+      </c>
+      <c r="F35" s="47" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="36" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E36" s="45" t="s">
+        <v>90</v>
+      </c>
+      <c r="F36" s="46" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="37" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E37" s="45" t="s">
+        <v>91</v>
+      </c>
+      <c r="F37" s="46" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="38" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E38" s="45" t="s">
+        <v>92</v>
+      </c>
+      <c r="F38" s="46" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="39" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E39" s="45" t="s">
+        <v>93</v>
+      </c>
+      <c r="F39" s="46" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="40" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E40" s="45" t="s">
+        <v>94</v>
+      </c>
+      <c r="F40" s="46" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="41" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E41" s="45" t="s">
+        <v>95</v>
+      </c>
+      <c r="F41" s="46" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="42" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E42" s="45" t="s">
+        <v>96</v>
+      </c>
+      <c r="F42" s="46" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="43" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E43" s="45" t="s">
+        <v>98</v>
+      </c>
+      <c r="F43" s="46" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="44" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E44" s="45" t="s">
+        <v>99</v>
+      </c>
+      <c r="F44" s="46" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="45" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E45" s="45" t="s">
+        <v>100</v>
+      </c>
+      <c r="F45" s="47" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="46" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E46" s="45" t="s">
+        <v>101</v>
+      </c>
+      <c r="F46" s="46" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="47" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E47" s="45" t="s">
+        <v>102</v>
+      </c>
+      <c r="F47" s="46" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="48" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E48" s="45" t="s">
+        <v>104</v>
+      </c>
+      <c r="F48" s="46" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="49" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="E49" s="45" t="s">
+        <v>105</v>
+      </c>
+      <c r="F49" s="47" t="s">
+        <v>128</v>
+      </c>
+      <c r="H49" s="50"/>
+    </row>
+    <row r="50" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="E50" s="45" t="s">
+        <v>106</v>
+      </c>
+      <c r="F50" s="47" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="51" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="E51" s="45" t="s">
+        <v>107</v>
+      </c>
+      <c r="F51" s="46" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="52" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="E52" s="45" t="s">
+        <v>108</v>
+      </c>
+      <c r="F52" s="46" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="53" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="E53" s="45" t="s">
+        <v>110</v>
+      </c>
+      <c r="F53" s="46" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="54" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="E54" s="45" t="s">
+        <v>111</v>
+      </c>
+      <c r="F54" s="46" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="55" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="E55" s="45" t="s">
+        <v>112</v>
+      </c>
+      <c r="F55" s="46" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="56" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="E56" s="45" t="s">
+        <v>113</v>
+      </c>
+      <c r="F56" s="46" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="57" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="E57" s="45" t="s">
+        <v>114</v>
+      </c>
+      <c r="F57" s="46" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="58" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="E58" s="45" t="s">
+        <v>116</v>
+      </c>
+      <c r="F58" s="47" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="59" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="E59" s="45" t="s">
+        <v>117</v>
+      </c>
+      <c r="F59" s="46" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="60" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="E60" s="45" t="s">
+        <v>119</v>
+      </c>
+      <c r="F60" s="46" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="61" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="E61" s="45" t="s">
+        <v>120</v>
+      </c>
+      <c r="F61" s="46" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="62" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="E62" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="F62" s="46" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="63" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="E63" s="45" t="s">
+        <v>123</v>
+      </c>
+      <c r="F63" s="46" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="64" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="E64" s="45" t="s">
+        <v>125</v>
+      </c>
+      <c r="F64" s="46" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="65" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="E65" s="45" t="s">
+        <v>126</v>
+      </c>
+      <c r="F65" s="47" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="66" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="E66" s="45"/>
+      <c r="F66" s="51"/>
+    </row>
+    <row r="67" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="E67" s="45"/>
+      <c r="F67" s="51"/>
+    </row>
+    <row r="68" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="E68" s="45"/>
+      <c r="F68" s="51"/>
+    </row>
+    <row r="69" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D69" s="52" t="s">
+        <v>25</v>
+      </c>
+      <c r="E69" s="45" t="s">
         <v>69</v>
       </c>
-      <c r="F13" s="49" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="14" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E14" s="47" t="s">
-        <v>70</v>
-      </c>
-      <c r="F14" s="48" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="15" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E15" s="47" t="s">
-        <v>71</v>
-      </c>
-      <c r="F15" s="49" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="16" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E16" s="47" t="s">
-        <v>73</v>
-      </c>
-      <c r="F16" s="49" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="17" spans="5:6" x14ac:dyDescent="0.3">
-      <c r="E17" s="47" t="s">
-        <v>74</v>
-      </c>
-      <c r="F17" s="48" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="18" spans="5:6" x14ac:dyDescent="0.3">
-      <c r="E18" s="47" t="s">
-        <v>76</v>
-      </c>
-      <c r="F18" s="48" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="19" spans="5:6" x14ac:dyDescent="0.3">
-      <c r="E19" s="47" t="s">
-        <v>77</v>
-      </c>
-      <c r="F19" s="48" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="20" spans="5:6" x14ac:dyDescent="0.3">
-      <c r="E20" s="47" t="s">
-        <v>78</v>
-      </c>
-      <c r="F20" s="48" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="21" spans="5:6" x14ac:dyDescent="0.3">
-      <c r="E21" s="47" t="s">
-        <v>79</v>
-      </c>
-      <c r="F21" s="48" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="22" spans="5:6" x14ac:dyDescent="0.3">
-      <c r="E22" s="47" t="s">
-        <v>80</v>
-      </c>
-      <c r="F22" s="48" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="23" spans="5:6" x14ac:dyDescent="0.3">
-      <c r="E23" s="47" t="s">
-        <v>81</v>
-      </c>
-      <c r="F23" s="48" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="24" spans="5:6" x14ac:dyDescent="0.3">
-      <c r="E24" s="47" t="s">
-        <v>82</v>
-      </c>
-      <c r="F24" s="48" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="25" spans="5:6" x14ac:dyDescent="0.3">
-      <c r="E25" s="47" t="s">
+      <c r="F69" s="53" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="70" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="E70" s="45" t="s">
+        <v>72</v>
+      </c>
+      <c r="F70" s="53" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="71" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="E71" s="45" t="s">
         <v>83</v>
       </c>
-      <c r="F25" s="48" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="26" spans="5:6" x14ac:dyDescent="0.3">
-      <c r="E26" s="47" t="s">
-        <v>84</v>
-      </c>
-      <c r="F26" s="48" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="27" spans="5:6" x14ac:dyDescent="0.3">
-      <c r="E27" s="47" t="s">
+      <c r="F71" s="53" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="72" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="E72" s="45" t="s">
         <v>85</v>
       </c>
-      <c r="F27" s="48" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="28" spans="5:6" ht="7.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E28" s="50"/>
-      <c r="F28" s="51"/>
-    </row>
-    <row r="29" spans="5:6" x14ac:dyDescent="0.3">
-      <c r="E29" s="47" t="s">
-        <v>87</v>
-      </c>
-      <c r="F29" s="49" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="30" spans="5:6" x14ac:dyDescent="0.3">
-      <c r="E30" s="47" t="s">
-        <v>100</v>
-      </c>
-      <c r="F30" s="49" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="31" spans="5:6" ht="7.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E31" s="50"/>
-      <c r="F31" s="51"/>
-    </row>
-    <row r="32" spans="5:6" x14ac:dyDescent="0.3">
-      <c r="E32" s="47" t="s">
-        <v>89</v>
-      </c>
-      <c r="F32" s="48" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="33" spans="5:6" x14ac:dyDescent="0.3">
-      <c r="E33" s="47" t="s">
-        <v>90</v>
-      </c>
-      <c r="F33" s="48" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="34" spans="5:6" x14ac:dyDescent="0.3">
-      <c r="E34" s="47" t="s">
-        <v>91</v>
-      </c>
-      <c r="F34" s="48" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="35" spans="5:6" x14ac:dyDescent="0.3">
-      <c r="E35" s="47" t="s">
-        <v>92</v>
-      </c>
-      <c r="F35" s="49" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="36" spans="5:6" x14ac:dyDescent="0.3">
-      <c r="E36" s="47" t="s">
-        <v>93</v>
-      </c>
-      <c r="F36" s="48" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="37" spans="5:6" x14ac:dyDescent="0.3">
-      <c r="E37" s="47" t="s">
-        <v>94</v>
-      </c>
-      <c r="F37" s="48" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="38" spans="5:6" x14ac:dyDescent="0.3">
-      <c r="E38" s="47" t="s">
-        <v>95</v>
-      </c>
-      <c r="F38" s="48" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="39" spans="5:6" x14ac:dyDescent="0.3">
-      <c r="E39" s="47" t="s">
-        <v>96</v>
-      </c>
-      <c r="F39" s="48" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="40" spans="5:6" x14ac:dyDescent="0.3">
-      <c r="E40" s="47" t="s">
-        <v>97</v>
-      </c>
-      <c r="F40" s="48" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="41" spans="5:6" x14ac:dyDescent="0.3">
-      <c r="E41" s="47" t="s">
-        <v>98</v>
-      </c>
-      <c r="F41" s="48" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="42" spans="5:6" x14ac:dyDescent="0.3">
-      <c r="E42" s="47" t="s">
-        <v>99</v>
-      </c>
-      <c r="F42" s="48" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="43" spans="5:6" x14ac:dyDescent="0.3">
-      <c r="E43" s="47" t="s">
-        <v>101</v>
-      </c>
-      <c r="F43" s="48" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="44" spans="5:6" x14ac:dyDescent="0.3">
-      <c r="E44" s="47" t="s">
-        <v>102</v>
-      </c>
-      <c r="F44" s="48" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="45" spans="5:6" x14ac:dyDescent="0.3">
-      <c r="E45" s="47" t="s">
+      <c r="F72" s="53" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="73" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="E73" s="45" t="s">
         <v>103</v>
       </c>
-      <c r="F45" s="49" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="46" spans="5:6" x14ac:dyDescent="0.3">
-      <c r="E46" s="47" t="s">
-        <v>104</v>
-      </c>
-      <c r="F46" s="48" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="47" spans="5:6" x14ac:dyDescent="0.3">
-      <c r="E47" s="47" t="s">
-        <v>105</v>
-      </c>
-      <c r="F47" s="48" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="48" spans="5:6" x14ac:dyDescent="0.3">
-      <c r="E48" s="47" t="s">
-        <v>107</v>
-      </c>
-      <c r="F48" s="48" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="49" spans="5:8" x14ac:dyDescent="0.3">
-      <c r="E49" s="47" t="s">
-        <v>108</v>
-      </c>
-      <c r="F49" s="49" t="s">
-        <v>131</v>
-      </c>
-      <c r="H49" s="52"/>
-    </row>
-    <row r="50" spans="5:8" x14ac:dyDescent="0.3">
-      <c r="E50" s="47" t="s">
+      <c r="F73" s="53" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="74" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="E74" s="45" t="s">
+        <v>115</v>
+      </c>
+      <c r="F74" s="53" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="75" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="E75" s="45" t="s">
+        <v>121</v>
+      </c>
+      <c r="F75" s="53" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="76" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="E76" s="45" t="s">
         <v>109</v>
       </c>
-      <c r="F50" s="49" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="51" spans="5:8" x14ac:dyDescent="0.3">
-      <c r="E51" s="47" t="s">
-        <v>110</v>
-      </c>
-      <c r="F51" s="48" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="52" spans="5:8" x14ac:dyDescent="0.3">
-      <c r="E52" s="47" t="s">
-        <v>111</v>
-      </c>
-      <c r="F52" s="48" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="53" spans="5:8" x14ac:dyDescent="0.3">
-      <c r="E53" s="47" t="s">
-        <v>113</v>
-      </c>
-      <c r="F53" s="48" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="54" spans="5:8" x14ac:dyDescent="0.3">
-      <c r="E54" s="47" t="s">
-        <v>114</v>
-      </c>
-      <c r="F54" s="48" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="55" spans="5:8" x14ac:dyDescent="0.3">
-      <c r="E55" s="47" t="s">
-        <v>115</v>
-      </c>
-      <c r="F55" s="48" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="56" spans="5:8" x14ac:dyDescent="0.3">
-      <c r="E56" s="47" t="s">
-        <v>116</v>
-      </c>
-      <c r="F56" s="48" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="57" spans="5:8" x14ac:dyDescent="0.3">
-      <c r="E57" s="47" t="s">
-        <v>117</v>
-      </c>
-      <c r="F57" s="48" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="58" spans="5:8" x14ac:dyDescent="0.3">
-      <c r="E58" s="47" t="s">
-        <v>119</v>
-      </c>
-      <c r="F58" s="49" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="59" spans="5:8" x14ac:dyDescent="0.3">
-      <c r="E59" s="47" t="s">
-        <v>120</v>
-      </c>
-      <c r="F59" s="48" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="60" spans="5:8" x14ac:dyDescent="0.3">
-      <c r="E60" s="47" t="s">
-        <v>122</v>
-      </c>
-      <c r="F60" s="48" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="61" spans="5:8" x14ac:dyDescent="0.3">
-      <c r="E61" s="47" t="s">
-        <v>123</v>
-      </c>
-      <c r="F61" s="48" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="62" spans="5:8" x14ac:dyDescent="0.3">
-      <c r="E62" s="47" t="s">
-        <v>125</v>
-      </c>
-      <c r="F62" s="48" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="63" spans="5:8" x14ac:dyDescent="0.3">
-      <c r="E63" s="47" t="s">
-        <v>126</v>
-      </c>
-      <c r="F63" s="48" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="64" spans="5:8" x14ac:dyDescent="0.3">
-      <c r="E64" s="47" t="s">
-        <v>128</v>
-      </c>
-      <c r="F64" s="48" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="65" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="E65" s="47" t="s">
-        <v>129</v>
-      </c>
-      <c r="F65" s="49" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="66" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="E66" s="47"/>
-      <c r="F66" s="53"/>
-    </row>
-    <row r="67" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="E67" s="47"/>
-      <c r="F67" s="53"/>
-    </row>
-    <row r="68" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="E68" s="47"/>
-      <c r="F68" s="53"/>
-    </row>
-    <row r="69" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="D69" s="54" t="s">
-        <v>25</v>
-      </c>
-      <c r="E69" s="47" t="s">
-        <v>72</v>
-      </c>
-      <c r="F69" s="55" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="70" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="E70" s="47" t="s">
-        <v>75</v>
-      </c>
-      <c r="F70" s="55" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="71" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="E71" s="47" t="s">
-        <v>86</v>
-      </c>
-      <c r="F71" s="55" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="72" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="E72" s="47" t="s">
-        <v>88</v>
-      </c>
-      <c r="F72" s="55" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="73" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="E73" s="47" t="s">
-        <v>106</v>
-      </c>
-      <c r="F73" s="55" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="74" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="E74" s="47" t="s">
+      <c r="F76" s="53" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="77" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="E77" s="45" t="s">
+        <v>124</v>
+      </c>
+      <c r="F77" s="53" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="78" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="E78" s="45" t="s">
         <v>118</v>
       </c>
-      <c r="F74" s="55" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="75" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="E75" s="47" t="s">
-        <v>124</v>
-      </c>
-      <c r="F75" s="55" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="76" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="E76" s="47" t="s">
-        <v>112</v>
-      </c>
-      <c r="F76" s="55" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="77" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="E77" s="47" t="s">
-        <v>127</v>
-      </c>
-      <c r="F77" s="55" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="78" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="E78" s="47" t="s">
-        <v>121</v>
-      </c>
-      <c r="F78" s="55" t="s">
-        <v>131</v>
+      <c r="F78" s="53" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="79" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="E79" s="47"/>
-      <c r="F79" s="42"/>
+      <c r="E79" s="45"/>
+      <c r="F79" s="40"/>
     </row>
     <row r="80" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="E80" s="47"/>
-      <c r="F80" s="42"/>
+      <c r="E80" s="45"/>
+      <c r="F80" s="40"/>
     </row>
     <row r="82" spans="5:6" x14ac:dyDescent="0.3">
-      <c r="E82" s="42">
+      <c r="E82" s="40">
         <f>+COUNTA(E3:E78)</f>
         <v>71</v>
       </c>
-      <c r="F82" s="42">
+      <c r="F82" s="40">
         <f>+COUNTA(F3:F78)</f>
         <v>71</v>
       </c>
     </row>
     <row r="83" spans="5:6" x14ac:dyDescent="0.3">
-      <c r="E83" s="42"/>
+      <c r="E83" s="40"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -4768,2195 +4720,2195 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9ABB96A2-5413-40B8-96EB-DEB3F2DDBDB2}">
   <dimension ref="A2:H263"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G25" sqref="E25:G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.5546875" style="30"/>
+    <col min="1" max="1" width="11.5546875" style="28"/>
     <col min="2" max="2" width="27.5546875" style="5" customWidth="1"/>
-    <col min="3" max="3" width="82.109375" style="40" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.5546875" style="30"/>
-    <col min="5" max="5" width="13.88671875" style="30" customWidth="1"/>
-    <col min="6" max="6" width="55.5546875" style="41" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="11.5546875" style="30"/>
+    <col min="3" max="3" width="82.109375" style="38" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5546875" style="28"/>
+    <col min="5" max="5" width="13.88671875" style="28" customWidth="1"/>
+    <col min="6" max="6" width="55.5546875" style="39" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="11.5546875" style="28"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="29" t="s">
+        <v>129</v>
+      </c>
+      <c r="C2" s="34"/>
+      <c r="E2" s="41" t="s">
+        <v>543</v>
+      </c>
+      <c r="F2" s="41" t="s">
+        <v>568</v>
+      </c>
+      <c r="G2" s="41" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B3" s="30" t="s">
+        <v>130</v>
+      </c>
+      <c r="C3" s="35" t="s">
+        <v>131</v>
+      </c>
+      <c r="E3" s="30" t="s">
+        <v>142</v>
+      </c>
+      <c r="F3" s="35" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B4" s="30" t="s">
         <v>132</v>
       </c>
-      <c r="C2" s="36"/>
-      <c r="E2" s="43" t="s">
+      <c r="C4" s="35" t="s">
+        <v>133</v>
+      </c>
+      <c r="E4" s="30" t="s">
+        <v>147</v>
+      </c>
+      <c r="F4" s="35" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B5" s="30" t="s">
+        <v>134</v>
+      </c>
+      <c r="C5" s="35" t="s">
+        <v>135</v>
+      </c>
+      <c r="E5" s="30" t="s">
+        <v>156</v>
+      </c>
+      <c r="F5" s="35" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B6" s="31"/>
+      <c r="C6" s="36"/>
+      <c r="E6" s="30" t="s">
+        <v>169</v>
+      </c>
+      <c r="F6" s="35" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B7" s="29" t="s">
+        <v>136</v>
+      </c>
+      <c r="C7" s="34"/>
+      <c r="E7" s="30" t="s">
+        <v>184</v>
+      </c>
+      <c r="F7" s="35" t="s">
+        <v>185</v>
+      </c>
+      <c r="G7" s="43"/>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B8" s="30" t="s">
+        <v>137</v>
+      </c>
+      <c r="C8" s="35" t="s">
+        <v>138</v>
+      </c>
+      <c r="E8" s="30" t="s">
+        <v>203</v>
+      </c>
+      <c r="F8" s="35" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B9" s="30" t="s">
+        <v>139</v>
+      </c>
+      <c r="C9" s="37" t="s">
+        <v>544</v>
+      </c>
+      <c r="E9" s="30" t="s">
+        <v>210</v>
+      </c>
+      <c r="F9" s="35" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B10" s="30" t="s">
+        <v>140</v>
+      </c>
+      <c r="C10" s="35" t="s">
+        <v>141</v>
+      </c>
+      <c r="E10" s="30" t="s">
+        <v>212</v>
+      </c>
+      <c r="F10" s="35" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B11" s="30" t="s">
+        <v>142</v>
+      </c>
+      <c r="C11" s="35" t="s">
+        <v>143</v>
+      </c>
+      <c r="E11" s="30" t="s">
+        <v>224</v>
+      </c>
+      <c r="F11" s="35" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B12" s="30" t="s">
+        <v>144</v>
+      </c>
+      <c r="C12" s="35" t="s">
+        <v>145</v>
+      </c>
+      <c r="E12" s="30" t="s">
+        <v>227</v>
+      </c>
+      <c r="F12" s="35" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B13" s="30" t="s">
+        <v>146</v>
+      </c>
+      <c r="C13" s="37" t="s">
+        <v>545</v>
+      </c>
+      <c r="E13" s="30" t="s">
+        <v>277</v>
+      </c>
+      <c r="F13" s="35" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B14" s="30" t="s">
+        <v>147</v>
+      </c>
+      <c r="C14" s="35" t="s">
+        <v>148</v>
+      </c>
+      <c r="E14" s="30" t="s">
+        <v>279</v>
+      </c>
+      <c r="F14" s="35" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B15" s="30" t="s">
+        <v>149</v>
+      </c>
+      <c r="C15" s="37" t="s">
         <v>546</v>
       </c>
-      <c r="F2" s="43" t="s">
-        <v>571</v>
-      </c>
-      <c r="G2" s="43" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B3" s="32" t="s">
-        <v>133</v>
-      </c>
-      <c r="C3" s="37" t="s">
-        <v>134</v>
-      </c>
-      <c r="E3" s="32" t="s">
-        <v>145</v>
-      </c>
-      <c r="F3" s="37" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B4" s="32" t="s">
-        <v>135</v>
-      </c>
-      <c r="C4" s="37" t="s">
-        <v>136</v>
-      </c>
-      <c r="E4" s="32" t="s">
+      <c r="E15" s="30" t="s">
+        <v>296</v>
+      </c>
+      <c r="F15" s="35" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B16" s="30" t="s">
         <v>150</v>
       </c>
-      <c r="F4" s="37" t="s">
+      <c r="C16" s="35" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B5" s="32" t="s">
-        <v>137</v>
-      </c>
-      <c r="C5" s="37" t="s">
-        <v>138</v>
-      </c>
-      <c r="E5" s="32" t="s">
+      <c r="E16" s="30" t="s">
+        <v>299</v>
+      </c>
+      <c r="F16" s="35" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B17" s="30" t="s">
+        <v>152</v>
+      </c>
+      <c r="C17" s="37" t="s">
+        <v>547</v>
+      </c>
+      <c r="E17" s="30" t="s">
+        <v>311</v>
+      </c>
+      <c r="F17" s="35" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B18" s="31"/>
+      <c r="C18" s="36"/>
+      <c r="E18" s="30" t="s">
+        <v>327</v>
+      </c>
+      <c r="F18" s="35" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B19" s="29" t="s">
+        <v>153</v>
+      </c>
+      <c r="C19" s="34"/>
+      <c r="E19" s="30" t="s">
+        <v>345</v>
+      </c>
+      <c r="F19" s="35" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B20" s="30" t="s">
+        <v>154</v>
+      </c>
+      <c r="C20" s="35" t="s">
+        <v>155</v>
+      </c>
+      <c r="E20" s="30" t="s">
+        <v>342</v>
+      </c>
+      <c r="F20" s="35" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B21" s="30" t="s">
+        <v>156</v>
+      </c>
+      <c r="C21" s="35" t="s">
+        <v>157</v>
+      </c>
+      <c r="E21" s="30" t="s">
+        <v>349</v>
+      </c>
+      <c r="F21" s="35" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B22" s="30" t="s">
+        <v>158</v>
+      </c>
+      <c r="C22" s="35" t="s">
         <v>159</v>
       </c>
-      <c r="F5" s="37" t="s">
+      <c r="E22" s="30" t="s">
+        <v>351</v>
+      </c>
+      <c r="F22" s="35" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B23" s="30" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B6" s="33"/>
-      <c r="C6" s="38"/>
-      <c r="E6" s="32" t="s">
+      <c r="C23" s="35" t="s">
+        <v>161</v>
+      </c>
+      <c r="E23" s="30" t="s">
+        <v>382</v>
+      </c>
+      <c r="F23" s="35" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B24" s="30" t="s">
+        <v>162</v>
+      </c>
+      <c r="C24" s="35" t="s">
+        <v>163</v>
+      </c>
+      <c r="E24" s="30" t="s">
+        <v>385</v>
+      </c>
+      <c r="F24" s="35" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B25" s="30" t="s">
+        <v>164</v>
+      </c>
+      <c r="C25" s="35" t="s">
+        <v>165</v>
+      </c>
+      <c r="E25" s="30" t="s">
+        <v>390</v>
+      </c>
+      <c r="F25" s="35" t="s">
+        <v>391</v>
+      </c>
+      <c r="G25" s="27" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B26" s="30" t="s">
+        <v>166</v>
+      </c>
+      <c r="C26" s="35" t="s">
+        <v>167</v>
+      </c>
+      <c r="E26" s="30" t="s">
+        <v>392</v>
+      </c>
+      <c r="F26" s="35" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B27" s="31"/>
+      <c r="C27" s="36"/>
+      <c r="E27" s="30" t="s">
+        <v>402</v>
+      </c>
+      <c r="F27" s="35" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B28" s="29" t="s">
+        <v>168</v>
+      </c>
+      <c r="C28" s="34"/>
+      <c r="E28" s="30" t="s">
+        <v>440</v>
+      </c>
+      <c r="F28" s="35" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B29" s="30" t="s">
+        <v>169</v>
+      </c>
+      <c r="C29" s="35" t="s">
+        <v>170</v>
+      </c>
+      <c r="E29" s="30" t="s">
+        <v>407</v>
+      </c>
+      <c r="F29" s="35" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B30" s="30" t="s">
+        <v>171</v>
+      </c>
+      <c r="C30" s="37" t="s">
+        <v>548</v>
+      </c>
+      <c r="E30" s="30" t="s">
+        <v>469</v>
+      </c>
+      <c r="F30" s="35" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B31" s="30" t="s">
         <v>172</v>
       </c>
-      <c r="F6" s="37" t="s">
+      <c r="C31" s="37" t="s">
+        <v>549</v>
+      </c>
+      <c r="E31" s="30" t="s">
+        <v>475</v>
+      </c>
+      <c r="F31" s="35" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B32" s="30" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B7" s="31" t="s">
-        <v>139</v>
-      </c>
-      <c r="C7" s="36"/>
-      <c r="E7" s="32" t="s">
+      <c r="C32" s="37" t="s">
+        <v>550</v>
+      </c>
+      <c r="E32" s="30" t="s">
+        <v>487</v>
+      </c>
+      <c r="F32" s="35" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B33" s="30" t="s">
+        <v>174</v>
+      </c>
+      <c r="C33" s="35" t="s">
+        <v>175</v>
+      </c>
+      <c r="E33" s="30" t="s">
+        <v>502</v>
+      </c>
+      <c r="F33" s="35" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B34" s="30" t="s">
+        <v>176</v>
+      </c>
+      <c r="C34" s="35" t="s">
+        <v>177</v>
+      </c>
+      <c r="E34" s="30" t="s">
+        <v>512</v>
+      </c>
+      <c r="F34" s="35" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B35" s="30" t="s">
+        <v>178</v>
+      </c>
+      <c r="C35" s="35" t="s">
+        <v>179</v>
+      </c>
+      <c r="E35" s="30" t="s">
+        <v>518</v>
+      </c>
+      <c r="F35" s="35" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B36" s="30" t="s">
+        <v>180</v>
+      </c>
+      <c r="C36" s="35" t="s">
+        <v>181</v>
+      </c>
+      <c r="E36" s="30" t="s">
+        <v>532</v>
+      </c>
+      <c r="F36" s="35" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B37" s="30" t="s">
+        <v>182</v>
+      </c>
+      <c r="C37" s="35" t="s">
+        <v>183</v>
+      </c>
+      <c r="E37" s="30" t="s">
+        <v>534</v>
+      </c>
+      <c r="F37" s="35" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B38" s="30" t="s">
+        <v>184</v>
+      </c>
+      <c r="C38" s="35" t="s">
+        <v>185</v>
+      </c>
+      <c r="E38" s="30" t="s">
+        <v>536</v>
+      </c>
+      <c r="F38" s="35" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="39" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B39" s="30" t="s">
+        <v>186</v>
+      </c>
+      <c r="C39" s="35" t="s">
         <v>187</v>
       </c>
-      <c r="F7" s="37" t="s">
+      <c r="E39" s="30" t="s">
+        <v>540</v>
+      </c>
+      <c r="F39" s="35" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="40" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B40" s="30" t="s">
         <v>188</v>
       </c>
-      <c r="G7" s="45"/>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B8" s="32" t="s">
-        <v>140</v>
-      </c>
-      <c r="C8" s="37" t="s">
-        <v>141</v>
-      </c>
-      <c r="E8" s="32" t="s">
-        <v>206</v>
-      </c>
-      <c r="F8" s="37" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B9" s="32" t="s">
-        <v>142</v>
-      </c>
-      <c r="C9" s="39" t="s">
-        <v>547</v>
-      </c>
-      <c r="E9" s="32" t="s">
-        <v>213</v>
-      </c>
-      <c r="F9" s="37" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B10" s="32" t="s">
-        <v>143</v>
-      </c>
-      <c r="C10" s="37" t="s">
-        <v>144</v>
-      </c>
-      <c r="E10" s="32" t="s">
-        <v>215</v>
-      </c>
-      <c r="F10" s="37" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B11" s="32" t="s">
-        <v>145</v>
-      </c>
-      <c r="C11" s="37" t="s">
-        <v>146</v>
-      </c>
-      <c r="E11" s="32" t="s">
-        <v>227</v>
-      </c>
-      <c r="F11" s="37" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B12" s="32" t="s">
-        <v>147</v>
-      </c>
-      <c r="C12" s="37" t="s">
-        <v>148</v>
-      </c>
-      <c r="E12" s="32" t="s">
-        <v>230</v>
-      </c>
-      <c r="F12" s="37" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B13" s="32" t="s">
-        <v>149</v>
-      </c>
-      <c r="C13" s="39" t="s">
-        <v>548</v>
-      </c>
-      <c r="E13" s="32" t="s">
-        <v>280</v>
-      </c>
-      <c r="F13" s="37" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B14" s="32" t="s">
-        <v>150</v>
-      </c>
-      <c r="C14" s="37" t="s">
-        <v>151</v>
-      </c>
-      <c r="E14" s="32" t="s">
-        <v>282</v>
-      </c>
-      <c r="F14" s="37" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B15" s="32" t="s">
-        <v>152</v>
-      </c>
-      <c r="C15" s="39" t="s">
-        <v>549</v>
-      </c>
-      <c r="E15" s="32" t="s">
-        <v>299</v>
-      </c>
-      <c r="F15" s="37" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B16" s="32" t="s">
-        <v>153</v>
-      </c>
-      <c r="C16" s="37" t="s">
-        <v>154</v>
-      </c>
-      <c r="E16" s="32" t="s">
-        <v>302</v>
-      </c>
-      <c r="F16" s="37" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B17" s="32" t="s">
-        <v>155</v>
-      </c>
-      <c r="C17" s="39" t="s">
-        <v>550</v>
-      </c>
-      <c r="E17" s="32" t="s">
-        <v>314</v>
-      </c>
-      <c r="F17" s="37" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B18" s="33"/>
-      <c r="C18" s="38"/>
-      <c r="E18" s="32" t="s">
-        <v>330</v>
-      </c>
-      <c r="F18" s="37" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B19" s="31" t="s">
-        <v>156</v>
-      </c>
-      <c r="C19" s="36"/>
-      <c r="E19" s="32" t="s">
-        <v>348</v>
-      </c>
-      <c r="F19" s="37" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B20" s="32" t="s">
-        <v>157</v>
-      </c>
-      <c r="C20" s="37" t="s">
-        <v>158</v>
-      </c>
-      <c r="E20" s="32" t="s">
-        <v>345</v>
-      </c>
-      <c r="F20" s="37" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B21" s="32" t="s">
-        <v>159</v>
-      </c>
-      <c r="C21" s="37" t="s">
-        <v>160</v>
-      </c>
-      <c r="E21" s="32" t="s">
-        <v>352</v>
-      </c>
-      <c r="F21" s="37" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B22" s="32" t="s">
-        <v>161</v>
-      </c>
-      <c r="C22" s="37" t="s">
-        <v>162</v>
-      </c>
-      <c r="E22" s="32" t="s">
-        <v>354</v>
-      </c>
-      <c r="F22" s="37" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B23" s="32" t="s">
-        <v>163</v>
-      </c>
-      <c r="C23" s="37" t="s">
-        <v>164</v>
-      </c>
-      <c r="E23" s="32" t="s">
-        <v>385</v>
-      </c>
-      <c r="F23" s="37" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B24" s="32" t="s">
-        <v>165</v>
-      </c>
-      <c r="C24" s="37" t="s">
-        <v>166</v>
-      </c>
-      <c r="E24" s="32" t="s">
-        <v>388</v>
-      </c>
-      <c r="F24" s="37" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="25" spans="2:7" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B25" s="32" t="s">
-        <v>167</v>
-      </c>
-      <c r="C25" s="37" t="s">
-        <v>168</v>
-      </c>
-      <c r="E25" s="32" t="s">
-        <v>393</v>
-      </c>
-      <c r="F25" s="37" t="s">
-        <v>394</v>
-      </c>
-      <c r="G25" s="29" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B26" s="32" t="s">
-        <v>169</v>
-      </c>
-      <c r="C26" s="37" t="s">
-        <v>170</v>
-      </c>
-      <c r="E26" s="32" t="s">
-        <v>395</v>
-      </c>
-      <c r="F26" s="37" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B27" s="33"/>
-      <c r="C27" s="38"/>
-      <c r="E27" s="32" t="s">
-        <v>405</v>
-      </c>
-      <c r="F27" s="37" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B28" s="31" t="s">
-        <v>171</v>
-      </c>
-      <c r="C28" s="36"/>
-      <c r="E28" s="32" t="s">
-        <v>443</v>
-      </c>
-      <c r="F28" s="37" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B29" s="32" t="s">
-        <v>172</v>
-      </c>
-      <c r="C29" s="37" t="s">
-        <v>173</v>
-      </c>
-      <c r="E29" s="32" t="s">
-        <v>410</v>
-      </c>
-      <c r="F29" s="37" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B30" s="32" t="s">
-        <v>174</v>
-      </c>
-      <c r="C30" s="39" t="s">
-        <v>551</v>
-      </c>
-      <c r="E30" s="32" t="s">
-        <v>472</v>
-      </c>
-      <c r="F30" s="37" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B31" s="32" t="s">
-        <v>175</v>
-      </c>
-      <c r="C31" s="39" t="s">
-        <v>552</v>
-      </c>
-      <c r="E31" s="32" t="s">
-        <v>478</v>
-      </c>
-      <c r="F31" s="37" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B32" s="32" t="s">
-        <v>176</v>
-      </c>
-      <c r="C32" s="39" t="s">
-        <v>553</v>
-      </c>
-      <c r="E32" s="32" t="s">
-        <v>490</v>
-      </c>
-      <c r="F32" s="37" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B33" s="32" t="s">
-        <v>177</v>
-      </c>
-      <c r="C33" s="37" t="s">
-        <v>178</v>
-      </c>
-      <c r="E33" s="32" t="s">
-        <v>505</v>
-      </c>
-      <c r="F33" s="37" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B34" s="32" t="s">
-        <v>179</v>
-      </c>
-      <c r="C34" s="37" t="s">
-        <v>180</v>
-      </c>
-      <c r="E34" s="32" t="s">
-        <v>515</v>
-      </c>
-      <c r="F34" s="37" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B35" s="32" t="s">
-        <v>181</v>
-      </c>
-      <c r="C35" s="37" t="s">
-        <v>182</v>
-      </c>
-      <c r="E35" s="32" t="s">
-        <v>521</v>
-      </c>
-      <c r="F35" s="37" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B36" s="32" t="s">
-        <v>183</v>
-      </c>
-      <c r="C36" s="37" t="s">
-        <v>184</v>
-      </c>
-      <c r="E36" s="32" t="s">
-        <v>535</v>
-      </c>
-      <c r="F36" s="37" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B37" s="32" t="s">
-        <v>185</v>
-      </c>
-      <c r="C37" s="37" t="s">
-        <v>186</v>
-      </c>
-      <c r="E37" s="32" t="s">
-        <v>537</v>
-      </c>
-      <c r="F37" s="37" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B38" s="32" t="s">
-        <v>187</v>
-      </c>
-      <c r="C38" s="37" t="s">
-        <v>188</v>
-      </c>
-      <c r="E38" s="32" t="s">
-        <v>539</v>
-      </c>
-      <c r="F38" s="37" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B39" s="32" t="s">
+      <c r="C40" s="35" t="s">
         <v>189</v>
       </c>
-      <c r="C39" s="37" t="s">
-        <v>190</v>
-      </c>
-      <c r="E39" s="32" t="s">
-        <v>543</v>
-      </c>
-      <c r="F39" s="37" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B40" s="32" t="s">
-        <v>191</v>
-      </c>
-      <c r="C40" s="37" t="s">
-        <v>192</v>
-      </c>
-      <c r="F40" s="42">
+      <c r="F40" s="40">
         <f>+COUNTA(F3:F39)</f>
         <v>37</v>
       </c>
-      <c r="G40" s="42">
+      <c r="G40" s="40">
         <f>+COUNTA(G3:G39)</f>
         <v>1</v>
       </c>
-      <c r="H40" s="44">
+      <c r="H40" s="42">
         <f>+G40/F40</f>
         <v>2.7027027027027029E-2</v>
       </c>
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B41" s="33" t="s">
+      <c r="B41" s="31" t="s">
+        <v>190</v>
+      </c>
+      <c r="C41" s="35"/>
+    </row>
+    <row r="42" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B42" s="30" t="s">
+        <v>191</v>
+      </c>
+      <c r="C42" s="35" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="43" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B43" s="30" t="s">
         <v>193</v>
       </c>
-      <c r="C41" s="37"/>
-    </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B42" s="32" t="s">
+      <c r="C43" s="35" t="s">
         <v>194</v>
       </c>
-      <c r="C42" s="37" t="s">
+    </row>
+    <row r="44" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B44" s="30" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B43" s="32" t="s">
+      <c r="C44" s="35" t="s">
         <v>196</v>
       </c>
-      <c r="C43" s="37" t="s">
+    </row>
+    <row r="45" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B45" s="30" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B44" s="32" t="s">
+      <c r="C45" s="35" t="s">
         <v>198</v>
       </c>
-      <c r="C44" s="37" t="s">
+    </row>
+    <row r="46" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B46" s="30" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B45" s="32" t="s">
+      <c r="C46" s="35" t="s">
         <v>200</v>
       </c>
-      <c r="C45" s="37" t="s">
+    </row>
+    <row r="47" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B47" s="30" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B46" s="32" t="s">
+      <c r="C47" s="35"/>
+    </row>
+    <row r="48" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B48" s="30" t="s">
         <v>202</v>
       </c>
-      <c r="C46" s="37" t="s">
+      <c r="C48" s="37" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="49" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B49" s="30" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B47" s="32" t="s">
+      <c r="C49" s="35" t="s">
         <v>204</v>
       </c>
-      <c r="C47" s="37"/>
-    </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B48" s="32" t="s">
+    </row>
+    <row r="50" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B50" s="30" t="s">
         <v>205</v>
       </c>
-      <c r="C48" s="39" t="s">
+      <c r="C50" s="35" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="51" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B51" s="30" t="s">
+        <v>207</v>
+      </c>
+      <c r="C51" s="35" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="52" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B52" s="31"/>
+      <c r="C52" s="36"/>
+    </row>
+    <row r="53" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B53" s="29" t="s">
+        <v>209</v>
+      </c>
+      <c r="C53" s="34"/>
+    </row>
+    <row r="54" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B54" s="30" t="s">
+        <v>210</v>
+      </c>
+      <c r="C54" s="35" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="55" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B55" s="30" t="s">
+        <v>212</v>
+      </c>
+      <c r="C55" s="35" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="56" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B56" s="30" t="s">
+        <v>214</v>
+      </c>
+      <c r="C56" s="35" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="57" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B57" s="30" t="s">
+        <v>216</v>
+      </c>
+      <c r="C57" s="35" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="58" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B58" s="30" t="s">
+        <v>218</v>
+      </c>
+      <c r="C58" s="35" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="59" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B59" s="30" t="s">
+        <v>220</v>
+      </c>
+      <c r="C59" s="35" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="60" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B60" s="30" t="s">
+        <v>222</v>
+      </c>
+      <c r="C60" s="35" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="61" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B61" s="30" t="s">
+        <v>224</v>
+      </c>
+      <c r="C61" s="35" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="62" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B62" s="31"/>
+      <c r="C62" s="36"/>
+    </row>
+    <row r="63" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B63" s="29" t="s">
+        <v>226</v>
+      </c>
+      <c r="C63" s="34"/>
+    </row>
+    <row r="64" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B64" s="30" t="s">
+        <v>227</v>
+      </c>
+      <c r="C64" s="35" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="65" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B65" s="31" t="s">
+        <v>229</v>
+      </c>
+      <c r="C65" s="35"/>
+    </row>
+    <row r="66" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B66" s="30" t="s">
+        <v>230</v>
+      </c>
+      <c r="C66" s="35" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="67" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B67" s="30" t="s">
+        <v>232</v>
+      </c>
+      <c r="C67" s="35" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="68" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B68" s="30" t="s">
+        <v>234</v>
+      </c>
+      <c r="C68" s="35" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="69" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B69" s="31"/>
+      <c r="C69" s="36"/>
+    </row>
+    <row r="70" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B70" s="29" t="s">
+        <v>236</v>
+      </c>
+      <c r="C70" s="34"/>
+    </row>
+    <row r="71" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B71" s="30" t="s">
+        <v>237</v>
+      </c>
+      <c r="C71" s="35" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="72" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B72" s="30" t="s">
+        <v>239</v>
+      </c>
+      <c r="C72" s="35" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="73" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B73" s="30" t="s">
+        <v>241</v>
+      </c>
+      <c r="C73" s="35" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="74" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B74" s="30" t="s">
+        <v>243</v>
+      </c>
+      <c r="C74" s="35" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="75" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B75" s="30" t="s">
+        <v>245</v>
+      </c>
+      <c r="C75" s="35" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="76" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B76" s="30" t="s">
+        <v>247</v>
+      </c>
+      <c r="C76" s="35" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="77" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B77" s="30" t="s">
+        <v>249</v>
+      </c>
+      <c r="C77" s="35" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="78" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B78" s="30" t="s">
+        <v>251</v>
+      </c>
+      <c r="C78" s="35" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="79" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B79" s="31"/>
+      <c r="C79" s="36"/>
+    </row>
+    <row r="80" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B80" s="29" t="s">
+        <v>253</v>
+      </c>
+      <c r="C80" s="34"/>
+    </row>
+    <row r="81" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B81" s="30" t="s">
+        <v>254</v>
+      </c>
+      <c r="C81" s="35" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="82" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B82" s="30" t="s">
+        <v>256</v>
+      </c>
+      <c r="C82" s="35" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="83" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B83" s="30" t="s">
+        <v>258</v>
+      </c>
+      <c r="C83" s="35" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="84" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B84" s="30" t="s">
+        <v>260</v>
+      </c>
+      <c r="C84" s="35" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="85" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B85" s="30" t="s">
+        <v>262</v>
+      </c>
+      <c r="C85" s="35" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="86" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B86" s="30" t="s">
+        <v>264</v>
+      </c>
+      <c r="C86" s="35" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="87" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B87" s="30" t="s">
+        <v>266</v>
+      </c>
+      <c r="C87" s="35" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="88" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B88" s="30" t="s">
+        <v>268</v>
+      </c>
+      <c r="C88" s="35" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="89" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B89" s="31"/>
+      <c r="C89" s="36"/>
+    </row>
+    <row r="90" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B90" s="29" t="s">
+        <v>270</v>
+      </c>
+      <c r="C90" s="34"/>
+    </row>
+    <row r="91" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B91" s="30" t="s">
+        <v>271</v>
+      </c>
+      <c r="C91" s="35" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="92" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B92" s="30" t="s">
+        <v>273</v>
+      </c>
+      <c r="C92" s="35" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="93" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B93" s="30" t="s">
+        <v>275</v>
+      </c>
+      <c r="C93" s="35" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="94" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B94" s="30" t="s">
+        <v>277</v>
+      </c>
+      <c r="C94" s="35" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="95" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B95" s="30" t="s">
+        <v>279</v>
+      </c>
+      <c r="C95" s="35" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="96" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B96" s="31"/>
+      <c r="C96" s="36"/>
+    </row>
+    <row r="97" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B97" s="29" t="s">
+        <v>281</v>
+      </c>
+      <c r="C97" s="34"/>
+    </row>
+    <row r="98" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B98" s="30" t="s">
+        <v>282</v>
+      </c>
+      <c r="C98" s="35" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="99" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B99" s="30" t="s">
+        <v>284</v>
+      </c>
+      <c r="C99" s="35" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="100" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B100" s="30" t="s">
+        <v>286</v>
+      </c>
+      <c r="C100" s="37" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="101" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B101" s="30" t="s">
+        <v>287</v>
+      </c>
+      <c r="C101" s="37" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="102" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B102" s="30" t="s">
+        <v>288</v>
+      </c>
+      <c r="C102" s="35" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="103" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B103" s="30" t="s">
+        <v>290</v>
+      </c>
+      <c r="C103" s="35" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="104" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B104" s="30" t="s">
+        <v>292</v>
+      </c>
+      <c r="C104" s="35" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="105" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B105" s="30" t="s">
+        <v>294</v>
+      </c>
+      <c r="C105" s="35" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="106" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B106" s="30" t="s">
+        <v>296</v>
+      </c>
+      <c r="C106" s="35" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="107" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B107" s="31"/>
+      <c r="C107" s="36"/>
+    </row>
+    <row r="108" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B108" s="29" t="s">
+        <v>298</v>
+      </c>
+      <c r="C108" s="34"/>
+    </row>
+    <row r="109" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B109" s="30" t="s">
+        <v>299</v>
+      </c>
+      <c r="C109" s="35" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="110" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B110" s="31"/>
+      <c r="C110" s="36"/>
+    </row>
+    <row r="111" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B111" s="29" t="s">
+        <v>301</v>
+      </c>
+      <c r="C111" s="34"/>
+    </row>
+    <row r="112" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B112" s="30" t="s">
+        <v>302</v>
+      </c>
+      <c r="C112" s="35" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="113" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B113" s="31"/>
+      <c r="C113" s="36"/>
+    </row>
+    <row r="114" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B114" s="29" t="s">
+        <v>304</v>
+      </c>
+      <c r="C114" s="34"/>
+    </row>
+    <row r="115" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B115" s="30" t="s">
+        <v>305</v>
+      </c>
+      <c r="C115" s="35" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="116" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B116" s="30" t="s">
+        <v>307</v>
+      </c>
+      <c r="C116" s="35" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="117" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B117" s="30" t="s">
+        <v>309</v>
+      </c>
+      <c r="C117" s="35" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="118" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B118" s="30" t="s">
+        <v>311</v>
+      </c>
+      <c r="C118" s="35" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="119" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B119" s="30" t="s">
+        <v>313</v>
+      </c>
+      <c r="C119" s="35" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="120" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B120" s="31"/>
+      <c r="C120" s="36"/>
+    </row>
+    <row r="121" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B121" s="29" t="s">
+        <v>315</v>
+      </c>
+      <c r="C121" s="34"/>
+    </row>
+    <row r="122" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B122" s="30" t="s">
+        <v>316</v>
+      </c>
+      <c r="C122" s="35" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="123" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B123" s="30" t="s">
+        <v>318</v>
+      </c>
+      <c r="C123" s="37" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="49" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B49" s="32" t="s">
-        <v>206</v>
-      </c>
-      <c r="C49" s="37" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="50" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B50" s="32" t="s">
-        <v>208</v>
-      </c>
-      <c r="C50" s="37" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="51" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B51" s="32" t="s">
-        <v>210</v>
-      </c>
-      <c r="C51" s="37" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="52" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B52" s="33"/>
-      <c r="C52" s="38"/>
-    </row>
-    <row r="53" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B53" s="31" t="s">
-        <v>212</v>
-      </c>
-      <c r="C53" s="36"/>
-    </row>
-    <row r="54" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B54" s="32" t="s">
-        <v>213</v>
-      </c>
-      <c r="C54" s="37" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="55" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B55" s="32" t="s">
-        <v>215</v>
-      </c>
-      <c r="C55" s="37" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="56" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B56" s="32" t="s">
-        <v>217</v>
-      </c>
-      <c r="C56" s="37" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="57" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B57" s="32" t="s">
-        <v>219</v>
-      </c>
-      <c r="C57" s="37" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="58" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B58" s="32" t="s">
-        <v>221</v>
-      </c>
-      <c r="C58" s="37" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="59" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B59" s="32" t="s">
-        <v>223</v>
-      </c>
-      <c r="C59" s="37" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="60" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B60" s="32" t="s">
-        <v>225</v>
-      </c>
-      <c r="C60" s="37" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="61" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B61" s="32" t="s">
-        <v>227</v>
-      </c>
-      <c r="C61" s="37" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="62" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B62" s="33"/>
-      <c r="C62" s="38"/>
-    </row>
-    <row r="63" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B63" s="31" t="s">
-        <v>229</v>
-      </c>
-      <c r="C63" s="36"/>
-    </row>
-    <row r="64" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B64" s="32" t="s">
-        <v>230</v>
-      </c>
-      <c r="C64" s="37" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="65" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B65" s="33" t="s">
-        <v>232</v>
-      </c>
-      <c r="C65" s="37"/>
-    </row>
-    <row r="66" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B66" s="32" t="s">
-        <v>233</v>
-      </c>
-      <c r="C66" s="37" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="67" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B67" s="32" t="s">
-        <v>235</v>
-      </c>
-      <c r="C67" s="37" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="68" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B68" s="32" t="s">
-        <v>237</v>
-      </c>
-      <c r="C68" s="37" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="69" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B69" s="33"/>
-      <c r="C69" s="38"/>
-    </row>
-    <row r="70" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B70" s="31" t="s">
-        <v>239</v>
-      </c>
-      <c r="C70" s="36"/>
-    </row>
-    <row r="71" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B71" s="32" t="s">
-        <v>240</v>
-      </c>
-      <c r="C71" s="37" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="72" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B72" s="32" t="s">
-        <v>242</v>
-      </c>
-      <c r="C72" s="37" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="73" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B73" s="32" t="s">
-        <v>244</v>
-      </c>
-      <c r="C73" s="37" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="74" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B74" s="32" t="s">
-        <v>246</v>
-      </c>
-      <c r="C74" s="37" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="75" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B75" s="32" t="s">
-        <v>248</v>
-      </c>
-      <c r="C75" s="37" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="76" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B76" s="32" t="s">
-        <v>250</v>
-      </c>
-      <c r="C76" s="37" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="77" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B77" s="32" t="s">
-        <v>252</v>
-      </c>
-      <c r="C77" s="37" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="78" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B78" s="32" t="s">
-        <v>254</v>
-      </c>
-      <c r="C78" s="37" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="79" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B79" s="33"/>
-      <c r="C79" s="38"/>
-    </row>
-    <row r="80" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B80" s="31" t="s">
-        <v>256</v>
-      </c>
-      <c r="C80" s="36"/>
-    </row>
-    <row r="81" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B81" s="32" t="s">
-        <v>257</v>
-      </c>
-      <c r="C81" s="37" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="82" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B82" s="32" t="s">
-        <v>259</v>
-      </c>
-      <c r="C82" s="37" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="83" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B83" s="32" t="s">
-        <v>261</v>
-      </c>
-      <c r="C83" s="37" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="84" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B84" s="32" t="s">
-        <v>263</v>
-      </c>
-      <c r="C84" s="37" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="85" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B85" s="32" t="s">
-        <v>265</v>
-      </c>
-      <c r="C85" s="37" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="86" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B86" s="32" t="s">
-        <v>267</v>
-      </c>
-      <c r="C86" s="37" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="87" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B87" s="32" t="s">
-        <v>269</v>
-      </c>
-      <c r="C87" s="37" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="88" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B88" s="32" t="s">
-        <v>271</v>
-      </c>
-      <c r="C88" s="37" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="89" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B89" s="33"/>
-      <c r="C89" s="38"/>
-    </row>
-    <row r="90" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B90" s="31" t="s">
-        <v>273</v>
-      </c>
-      <c r="C90" s="36"/>
-    </row>
-    <row r="91" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B91" s="32" t="s">
-        <v>274</v>
-      </c>
-      <c r="C91" s="37" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="92" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B92" s="32" t="s">
-        <v>276</v>
-      </c>
-      <c r="C92" s="37" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="93" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B93" s="32" t="s">
-        <v>278</v>
-      </c>
-      <c r="C93" s="37" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="94" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B94" s="32" t="s">
-        <v>280</v>
-      </c>
-      <c r="C94" s="37" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="95" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B95" s="32" t="s">
-        <v>282</v>
-      </c>
-      <c r="C95" s="37" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="96" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B96" s="33"/>
-      <c r="C96" s="38"/>
-    </row>
-    <row r="97" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B97" s="31" t="s">
-        <v>284</v>
-      </c>
-      <c r="C97" s="36"/>
-    </row>
-    <row r="98" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B98" s="32" t="s">
-        <v>285</v>
-      </c>
-      <c r="C98" s="37" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="99" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B99" s="32" t="s">
-        <v>287</v>
-      </c>
-      <c r="C99" s="37" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="100" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B100" s="32" t="s">
-        <v>289</v>
-      </c>
-      <c r="C100" s="39" t="s">
+    <row r="124" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B124" s="30" t="s">
+        <v>319</v>
+      </c>
+      <c r="C124" s="35" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="125" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B125" s="30" t="s">
+        <v>321</v>
+      </c>
+      <c r="C125" s="35" t="s">
+        <v>322</v>
+      </c>
+      <c r="D125" s="27" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="126" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B126" s="30" t="s">
+        <v>323</v>
+      </c>
+      <c r="C126" s="35" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="127" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B127" s="30" t="s">
+        <v>325</v>
+      </c>
+      <c r="C127" s="35" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="128" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B128" s="30" t="s">
+        <v>327</v>
+      </c>
+      <c r="C128" s="35" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="129" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B129" s="30" t="s">
+        <v>329</v>
+      </c>
+      <c r="C129" s="37" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="101" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B101" s="32" t="s">
-        <v>290</v>
-      </c>
-      <c r="C101" s="39" t="s">
+    <row r="130" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B130" s="30" t="s">
+        <v>330</v>
+      </c>
+      <c r="C130" s="35" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="131" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B131" s="30" t="s">
+        <v>332</v>
+      </c>
+      <c r="C131" s="35" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="132" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B132" s="31"/>
+      <c r="C132" s="36"/>
+    </row>
+    <row r="133" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B133" s="29" t="s">
+        <v>334</v>
+      </c>
+      <c r="C133" s="34"/>
+    </row>
+    <row r="134" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B134" s="30" t="s">
+        <v>335</v>
+      </c>
+      <c r="C134" s="35" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="135" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B135" s="30" t="s">
+        <v>337</v>
+      </c>
+      <c r="C135" s="37" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="102" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B102" s="32" t="s">
-        <v>291</v>
-      </c>
-      <c r="C102" s="37" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="103" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B103" s="32" t="s">
-        <v>293</v>
-      </c>
-      <c r="C103" s="37" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="104" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B104" s="32" t="s">
-        <v>295</v>
-      </c>
-      <c r="C104" s="37" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="105" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B105" s="32" t="s">
-        <v>297</v>
-      </c>
-      <c r="C105" s="37" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="106" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B106" s="32" t="s">
-        <v>299</v>
-      </c>
-      <c r="C106" s="37" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="107" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B107" s="33"/>
-      <c r="C107" s="38"/>
-    </row>
-    <row r="108" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B108" s="31" t="s">
-        <v>301</v>
-      </c>
-      <c r="C108" s="36"/>
-    </row>
-    <row r="109" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B109" s="32" t="s">
-        <v>302</v>
-      </c>
-      <c r="C109" s="37" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="110" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B110" s="33"/>
-      <c r="C110" s="38"/>
-    </row>
-    <row r="111" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B111" s="31" t="s">
-        <v>304</v>
-      </c>
-      <c r="C111" s="36"/>
-    </row>
-    <row r="112" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B112" s="32" t="s">
-        <v>305</v>
-      </c>
-      <c r="C112" s="37" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="113" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B113" s="33"/>
-      <c r="C113" s="38"/>
-    </row>
-    <row r="114" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B114" s="31" t="s">
-        <v>307</v>
-      </c>
-      <c r="C114" s="36"/>
-    </row>
-    <row r="115" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B115" s="32" t="s">
-        <v>308</v>
-      </c>
-      <c r="C115" s="37" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="116" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B116" s="32" t="s">
-        <v>310</v>
-      </c>
-      <c r="C116" s="37" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="117" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B117" s="32" t="s">
-        <v>312</v>
-      </c>
-      <c r="C117" s="37" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="118" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B118" s="32" t="s">
-        <v>314</v>
-      </c>
-      <c r="C118" s="37" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="119" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B119" s="32" t="s">
-        <v>316</v>
-      </c>
-      <c r="C119" s="37" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="120" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B120" s="33"/>
-      <c r="C120" s="38"/>
-    </row>
-    <row r="121" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B121" s="31" t="s">
-        <v>318</v>
-      </c>
-      <c r="C121" s="36"/>
-    </row>
-    <row r="122" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B122" s="32" t="s">
-        <v>319</v>
-      </c>
-      <c r="C122" s="37" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="123" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B123" s="32" t="s">
-        <v>321</v>
-      </c>
-      <c r="C123" s="39" t="s">
+    <row r="136" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B136" s="30" t="s">
+        <v>338</v>
+      </c>
+      <c r="C136" s="37" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="124" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B124" s="32" t="s">
-        <v>322</v>
-      </c>
-      <c r="C124" s="37" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="125" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B125" s="32" t="s">
-        <v>324</v>
-      </c>
-      <c r="C125" s="37" t="s">
-        <v>325</v>
-      </c>
-      <c r="D125" s="29" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="126" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B126" s="32" t="s">
-        <v>326</v>
-      </c>
-      <c r="C126" s="37" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="127" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B127" s="32" t="s">
-        <v>328</v>
-      </c>
-      <c r="C127" s="37" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="128" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B128" s="32" t="s">
-        <v>330</v>
-      </c>
-      <c r="C128" s="37" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="129" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B129" s="32" t="s">
-        <v>332</v>
-      </c>
-      <c r="C129" s="39" t="s">
+    <row r="137" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B137" s="30" t="s">
+        <v>339</v>
+      </c>
+      <c r="C137" s="35" t="s">
+        <v>340</v>
+      </c>
+      <c r="D137" s="27" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="138" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B138" s="31"/>
+      <c r="C138" s="36"/>
+    </row>
+    <row r="139" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B139" s="29" t="s">
+        <v>341</v>
+      </c>
+      <c r="C139" s="34"/>
+    </row>
+    <row r="140" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B140" s="30" t="s">
+        <v>342</v>
+      </c>
+      <c r="C140" s="35" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="141" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B141" s="30" t="s">
+        <v>344</v>
+      </c>
+      <c r="C141" s="37" t="s">
         <v>558</v>
       </c>
     </row>
-    <row r="130" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B130" s="32" t="s">
-        <v>333</v>
-      </c>
-      <c r="C130" s="37" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="131" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B131" s="32" t="s">
-        <v>335</v>
-      </c>
-      <c r="C131" s="37" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="132" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B132" s="33"/>
-      <c r="C132" s="38"/>
-    </row>
-    <row r="133" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B133" s="31" t="s">
-        <v>337</v>
-      </c>
-      <c r="C133" s="36"/>
-    </row>
-    <row r="134" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B134" s="32" t="s">
-        <v>338</v>
-      </c>
-      <c r="C134" s="37" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="135" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B135" s="32" t="s">
-        <v>340</v>
-      </c>
-      <c r="C135" s="39" t="s">
+    <row r="142" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B142" s="30" t="s">
+        <v>345</v>
+      </c>
+      <c r="C142" s="35" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="143" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B143" s="30" t="s">
+        <v>347</v>
+      </c>
+      <c r="C143" s="37" t="s">
         <v>559</v>
       </c>
     </row>
-    <row r="136" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B136" s="32" t="s">
-        <v>341</v>
-      </c>
-      <c r="C136" s="39" t="s">
+    <row r="144" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B144" s="31"/>
+      <c r="C144" s="36"/>
+    </row>
+    <row r="145" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B145" s="29" t="s">
+        <v>348</v>
+      </c>
+      <c r="C145" s="34"/>
+    </row>
+    <row r="146" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B146" s="30" t="s">
+        <v>349</v>
+      </c>
+      <c r="C146" s="35" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="147" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B147" s="30" t="s">
+        <v>351</v>
+      </c>
+      <c r="C147" s="35" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="148" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B148" s="30" t="s">
+        <v>353</v>
+      </c>
+      <c r="C148" s="35" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="149" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B149" s="30" t="s">
+        <v>355</v>
+      </c>
+      <c r="C149" s="35" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="150" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B150" s="30" t="s">
+        <v>357</v>
+      </c>
+      <c r="C150" s="37" t="s">
         <v>560</v>
       </c>
     </row>
-    <row r="137" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B137" s="32" t="s">
-        <v>342</v>
-      </c>
-      <c r="C137" s="37" t="s">
-        <v>343</v>
-      </c>
-      <c r="D137" s="29" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="138" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B138" s="33"/>
-      <c r="C138" s="38"/>
-    </row>
-    <row r="139" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B139" s="31" t="s">
-        <v>344</v>
-      </c>
-      <c r="C139" s="36"/>
-    </row>
-    <row r="140" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B140" s="32" t="s">
-        <v>345</v>
-      </c>
-      <c r="C140" s="37" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="141" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B141" s="32" t="s">
-        <v>347</v>
-      </c>
-      <c r="C141" s="39" t="s">
+    <row r="151" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B151" s="30" t="s">
+        <v>358</v>
+      </c>
+      <c r="C151" s="35" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="152" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B152" s="30" t="s">
+        <v>360</v>
+      </c>
+      <c r="C152" s="35" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="153" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B153" s="30" t="s">
+        <v>362</v>
+      </c>
+      <c r="C153" s="35" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="154" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B154" s="30" t="s">
+        <v>364</v>
+      </c>
+      <c r="C154" s="35" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="155" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B155" s="30" t="s">
+        <v>366</v>
+      </c>
+      <c r="C155" s="35" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="156" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B156" s="30" t="s">
+        <v>368</v>
+      </c>
+      <c r="C156" s="35" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="157" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B157" s="30" t="s">
+        <v>370</v>
+      </c>
+      <c r="C157" s="35" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="158" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B158" s="30" t="s">
+        <v>372</v>
+      </c>
+      <c r="C158" s="35" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="159" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B159" s="30" t="s">
+        <v>374</v>
+      </c>
+      <c r="C159" s="35" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="160" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B160" s="30" t="s">
+        <v>376</v>
+      </c>
+      <c r="C160" s="35" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="161" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B161" s="30" t="s">
+        <v>378</v>
+      </c>
+      <c r="C161" s="35" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="162" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B162" s="30" t="s">
+        <v>380</v>
+      </c>
+      <c r="C162" s="35" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="163" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B163" s="30" t="s">
+        <v>382</v>
+      </c>
+      <c r="C163" s="35" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="164" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B164" s="31"/>
+      <c r="C164" s="36"/>
+    </row>
+    <row r="165" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B165" s="29" t="s">
+        <v>384</v>
+      </c>
+      <c r="C165" s="34"/>
+    </row>
+    <row r="166" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B166" s="30" t="s">
+        <v>385</v>
+      </c>
+      <c r="C166" s="35" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="167" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B167" s="30" t="s">
+        <v>387</v>
+      </c>
+      <c r="C167" s="35" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="168" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B168" s="31"/>
+      <c r="C168" s="36"/>
+    </row>
+    <row r="169" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B169" s="29" t="s">
+        <v>389</v>
+      </c>
+      <c r="C169" s="34"/>
+    </row>
+    <row r="170" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B170" s="30" t="s">
+        <v>390</v>
+      </c>
+      <c r="C170" s="35" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="171" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B171" s="30" t="s">
+        <v>392</v>
+      </c>
+      <c r="C171" s="35" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="172" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B172" s="30" t="s">
+        <v>394</v>
+      </c>
+      <c r="C172" s="35" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="173" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B173" s="30" t="s">
+        <v>396</v>
+      </c>
+      <c r="C173" s="35" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="174" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B174" s="30" t="s">
+        <v>398</v>
+      </c>
+      <c r="C174" s="35" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="175" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B175" s="30" t="s">
+        <v>400</v>
+      </c>
+      <c r="C175" s="35" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="176" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B176" s="30" t="s">
+        <v>402</v>
+      </c>
+      <c r="C176" s="35" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="177" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B177" s="31"/>
+      <c r="C177" s="36"/>
+    </row>
+    <row r="178" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B178" s="29" t="s">
+        <v>404</v>
+      </c>
+      <c r="C178" s="34"/>
+    </row>
+    <row r="179" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B179" s="30" t="s">
+        <v>405</v>
+      </c>
+      <c r="C179" s="35" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="180" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B180" s="30" t="s">
+        <v>407</v>
+      </c>
+      <c r="C180" s="35" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="181" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B181" s="30" t="s">
+        <v>409</v>
+      </c>
+      <c r="C181" s="35" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="182" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B182" s="30" t="s">
+        <v>411</v>
+      </c>
+      <c r="C182" s="35" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="183" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B183" s="30" t="s">
+        <v>413</v>
+      </c>
+      <c r="C183" s="35" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="184" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B184" s="30" t="s">
+        <v>415</v>
+      </c>
+      <c r="C184" s="35" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="185" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B185" s="30" t="s">
+        <v>417</v>
+      </c>
+      <c r="C185" s="35" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="186" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B186" s="30" t="s">
+        <v>419</v>
+      </c>
+      <c r="C186" s="35" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="187" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B187" s="30" t="s">
+        <v>421</v>
+      </c>
+      <c r="C187" s="35" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="188" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B188" s="30" t="s">
+        <v>423</v>
+      </c>
+      <c r="C188" s="37" t="s">
         <v>561</v>
       </c>
     </row>
-    <row r="142" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B142" s="32" t="s">
-        <v>348</v>
-      </c>
-      <c r="C142" s="37" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="143" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B143" s="32" t="s">
-        <v>350</v>
-      </c>
-      <c r="C143" s="39" t="s">
+    <row r="189" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B189" s="30" t="s">
+        <v>424</v>
+      </c>
+      <c r="C189" s="35" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="190" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B190" s="30" t="s">
+        <v>426</v>
+      </c>
+      <c r="C190" s="37" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="144" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B144" s="33"/>
-      <c r="C144" s="38"/>
-    </row>
-    <row r="145" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B145" s="31" t="s">
-        <v>351</v>
-      </c>
-      <c r="C145" s="36"/>
-    </row>
-    <row r="146" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B146" s="32" t="s">
-        <v>352</v>
-      </c>
-      <c r="C146" s="37" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="147" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B147" s="32" t="s">
-        <v>354</v>
-      </c>
-      <c r="C147" s="37" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="148" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B148" s="32" t="s">
-        <v>356</v>
-      </c>
-      <c r="C148" s="37" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="149" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B149" s="32" t="s">
-        <v>358</v>
-      </c>
-      <c r="C149" s="37" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="150" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B150" s="32" t="s">
-        <v>360</v>
-      </c>
-      <c r="C150" s="39" t="s">
+    <row r="191" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B191" s="30" t="s">
+        <v>427</v>
+      </c>
+      <c r="C191" s="35" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="192" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B192" s="30" t="s">
+        <v>429</v>
+      </c>
+      <c r="C192" s="35" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="193" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B193" s="30" t="s">
+        <v>431</v>
+      </c>
+      <c r="C193" s="37" t="s">
         <v>563</v>
       </c>
     </row>
-    <row r="151" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B151" s="32" t="s">
-        <v>361</v>
-      </c>
-      <c r="C151" s="37" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="152" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B152" s="32" t="s">
-        <v>363</v>
-      </c>
-      <c r="C152" s="37" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="153" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B153" s="32" t="s">
-        <v>365</v>
-      </c>
-      <c r="C153" s="37" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="154" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B154" s="32" t="s">
-        <v>367</v>
-      </c>
-      <c r="C154" s="37" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="155" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B155" s="32" t="s">
-        <v>369</v>
-      </c>
-      <c r="C155" s="37" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="156" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B156" s="32" t="s">
-        <v>371</v>
-      </c>
-      <c r="C156" s="37" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="157" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B157" s="32" t="s">
-        <v>373</v>
-      </c>
-      <c r="C157" s="37" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="158" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B158" s="32" t="s">
-        <v>375</v>
-      </c>
-      <c r="C158" s="37" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="159" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B159" s="32" t="s">
-        <v>377</v>
-      </c>
-      <c r="C159" s="37" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="160" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B160" s="32" t="s">
-        <v>379</v>
-      </c>
-      <c r="C160" s="37" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="161" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B161" s="32" t="s">
-        <v>381</v>
-      </c>
-      <c r="C161" s="37" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="162" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B162" s="32" t="s">
-        <v>383</v>
-      </c>
-      <c r="C162" s="37" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="163" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B163" s="32" t="s">
-        <v>385</v>
-      </c>
-      <c r="C163" s="37" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="164" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B164" s="33"/>
-      <c r="C164" s="38"/>
-    </row>
-    <row r="165" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B165" s="31" t="s">
-        <v>387</v>
-      </c>
-      <c r="C165" s="36"/>
-    </row>
-    <row r="166" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B166" s="32" t="s">
-        <v>388</v>
-      </c>
-      <c r="C166" s="37" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="167" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B167" s="32" t="s">
-        <v>390</v>
-      </c>
-      <c r="C167" s="37" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="168" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B168" s="33"/>
-      <c r="C168" s="38"/>
-    </row>
-    <row r="169" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B169" s="31" t="s">
-        <v>392</v>
-      </c>
-      <c r="C169" s="36"/>
-    </row>
-    <row r="170" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B170" s="32" t="s">
-        <v>393</v>
-      </c>
-      <c r="C170" s="37" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="171" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B171" s="32" t="s">
-        <v>395</v>
-      </c>
-      <c r="C171" s="37" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="172" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B172" s="32" t="s">
-        <v>397</v>
-      </c>
-      <c r="C172" s="37" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="173" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B173" s="32" t="s">
-        <v>399</v>
-      </c>
-      <c r="C173" s="37" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="174" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B174" s="32" t="s">
-        <v>401</v>
-      </c>
-      <c r="C174" s="37" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="175" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B175" s="32" t="s">
-        <v>403</v>
-      </c>
-      <c r="C175" s="37" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="176" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B176" s="32" t="s">
-        <v>405</v>
-      </c>
-      <c r="C176" s="37" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="177" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B177" s="33"/>
-      <c r="C177" s="38"/>
-    </row>
-    <row r="178" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B178" s="31" t="s">
-        <v>407</v>
-      </c>
-      <c r="C178" s="36"/>
-    </row>
-    <row r="179" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B179" s="32" t="s">
-        <v>408</v>
-      </c>
-      <c r="C179" s="37" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="180" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B180" s="32" t="s">
-        <v>410</v>
-      </c>
-      <c r="C180" s="37" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="181" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B181" s="32" t="s">
-        <v>412</v>
-      </c>
-      <c r="C181" s="37" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="182" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B182" s="32" t="s">
-        <v>414</v>
-      </c>
-      <c r="C182" s="37" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="183" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B183" s="32" t="s">
-        <v>416</v>
-      </c>
-      <c r="C183" s="37" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="184" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B184" s="32" t="s">
-        <v>418</v>
-      </c>
-      <c r="C184" s="37" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="185" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B185" s="32" t="s">
-        <v>420</v>
-      </c>
-      <c r="C185" s="37" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="186" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B186" s="32" t="s">
-        <v>422</v>
-      </c>
-      <c r="C186" s="37" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="187" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B187" s="32" t="s">
-        <v>424</v>
-      </c>
-      <c r="C187" s="37" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="188" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B188" s="32" t="s">
-        <v>426</v>
-      </c>
-      <c r="C188" s="39" t="s">
+    <row r="194" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B194" s="30" t="s">
+        <v>432</v>
+      </c>
+      <c r="C194" s="35" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="195" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B195" s="30" t="s">
+        <v>434</v>
+      </c>
+      <c r="C195" s="35" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="196" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B196" s="30" t="s">
+        <v>436</v>
+      </c>
+      <c r="C196" s="35" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="197" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B197" s="30" t="s">
+        <v>438</v>
+      </c>
+      <c r="C197" s="35" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="198" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B198" s="30" t="s">
+        <v>440</v>
+      </c>
+      <c r="C198" s="35" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="199" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B199" s="30" t="s">
+        <v>442</v>
+      </c>
+      <c r="C199" s="35" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="200" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B200" s="30" t="s">
+        <v>444</v>
+      </c>
+      <c r="C200" s="35" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="201" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B201" s="30" t="s">
+        <v>446</v>
+      </c>
+      <c r="C201" s="35" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="202" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B202" s="30" t="s">
+        <v>448</v>
+      </c>
+      <c r="C202" s="37" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="189" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B189" s="32" t="s">
-        <v>427</v>
-      </c>
-      <c r="C189" s="37" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="190" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B190" s="32" t="s">
-        <v>429</v>
-      </c>
-      <c r="C190" s="39" t="s">
+    <row r="203" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B203" s="30" t="s">
+        <v>449</v>
+      </c>
+      <c r="C203" s="35" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="204" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B204" s="30" t="s">
+        <v>451</v>
+      </c>
+      <c r="C204" s="35" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="205" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B205" s="30" t="s">
+        <v>453</v>
+      </c>
+      <c r="C205" s="35" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="206" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B206" s="30" t="s">
+        <v>455</v>
+      </c>
+      <c r="C206" s="35" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="207" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B207" s="31"/>
+      <c r="C207" s="36"/>
+    </row>
+    <row r="208" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B208" s="29" t="s">
+        <v>457</v>
+      </c>
+      <c r="C208" s="34"/>
+    </row>
+    <row r="209" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B209" s="30" t="s">
+        <v>458</v>
+      </c>
+      <c r="C209" s="35" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="210" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B210" s="30" t="s">
+        <v>460</v>
+      </c>
+      <c r="C210" s="35" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="211" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B211" s="30" t="s">
+        <v>462</v>
+      </c>
+      <c r="C211" s="37" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="191" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B191" s="32" t="s">
-        <v>430</v>
-      </c>
-      <c r="C191" s="37" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="192" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B192" s="32" t="s">
-        <v>432</v>
-      </c>
-      <c r="C192" s="37" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="193" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B193" s="32" t="s">
-        <v>434</v>
-      </c>
-      <c r="C193" s="39" t="s">
+    <row r="212" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B212" s="30" t="s">
+        <v>463</v>
+      </c>
+      <c r="C212" s="35" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="213" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B213" s="30" t="s">
+        <v>465</v>
+      </c>
+      <c r="C213" s="35" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="214" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B214" s="30" t="s">
+        <v>467</v>
+      </c>
+      <c r="C214" s="35" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="215" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B215" s="30" t="s">
+        <v>469</v>
+      </c>
+      <c r="C215" s="35" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="216" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B216" s="30" t="s">
+        <v>471</v>
+      </c>
+      <c r="C216" s="35" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="217" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B217" s="30" t="s">
+        <v>473</v>
+      </c>
+      <c r="C217" s="35" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="218" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B218" s="30" t="s">
+        <v>475</v>
+      </c>
+      <c r="C218" s="35" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="219" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B219" s="30" t="s">
+        <v>477</v>
+      </c>
+      <c r="C219" s="35" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="220" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B220" s="30" t="s">
+        <v>479</v>
+      </c>
+      <c r="C220" s="35" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="221" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B221" s="30" t="s">
+        <v>481</v>
+      </c>
+      <c r="C221" s="35" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="222" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B222" s="30" t="s">
+        <v>483</v>
+      </c>
+      <c r="C222" s="35" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="223" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B223" s="30" t="s">
+        <v>485</v>
+      </c>
+      <c r="C223" s="35" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="224" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B224" s="30" t="s">
+        <v>487</v>
+      </c>
+      <c r="C224" s="35" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="225" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B225" s="30" t="s">
+        <v>489</v>
+      </c>
+      <c r="C225" s="35" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="226" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B226" s="30" t="s">
+        <v>491</v>
+      </c>
+      <c r="C226" s="35" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="227" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B227" s="30" t="s">
+        <v>493</v>
+      </c>
+      <c r="C227" s="35" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="228" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B228" s="30" t="s">
+        <v>495</v>
+      </c>
+      <c r="C228" s="35" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="229" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B229" s="30" t="s">
+        <v>497</v>
+      </c>
+      <c r="C229" s="35" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="230" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B230" s="31"/>
+      <c r="C230" s="36"/>
+    </row>
+    <row r="231" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B231" s="29" t="s">
+        <v>499</v>
+      </c>
+      <c r="C231" s="34"/>
+    </row>
+    <row r="232" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B232" s="30" t="s">
+        <v>500</v>
+      </c>
+      <c r="C232" s="35" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="233" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B233" s="30" t="s">
+        <v>502</v>
+      </c>
+      <c r="C233" s="35" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="234" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B234" s="30" t="s">
+        <v>504</v>
+      </c>
+      <c r="C234" s="35"/>
+    </row>
+    <row r="235" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B235" s="30" t="s">
+        <v>505</v>
+      </c>
+      <c r="C235" s="37" t="s">
         <v>566</v>
       </c>
     </row>
-    <row r="194" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B194" s="32" t="s">
-        <v>435</v>
-      </c>
-      <c r="C194" s="37" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="195" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B195" s="32" t="s">
-        <v>437</v>
-      </c>
-      <c r="C195" s="37" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="196" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B196" s="32" t="s">
-        <v>439</v>
-      </c>
-      <c r="C196" s="37" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="197" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B197" s="32" t="s">
-        <v>441</v>
-      </c>
-      <c r="C197" s="37" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="198" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B198" s="32" t="s">
-        <v>443</v>
-      </c>
-      <c r="C198" s="37" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="199" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B199" s="32" t="s">
-        <v>445</v>
-      </c>
-      <c r="C199" s="37" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="200" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B200" s="32" t="s">
-        <v>447</v>
-      </c>
-      <c r="C200" s="37" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="201" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B201" s="32" t="s">
-        <v>449</v>
-      </c>
-      <c r="C201" s="37" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="202" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B202" s="32" t="s">
-        <v>451</v>
-      </c>
-      <c r="C202" s="39" t="s">
+    <row r="236" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B236" s="30" t="s">
+        <v>506</v>
+      </c>
+      <c r="C236" s="35" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="237" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B237" s="31"/>
+      <c r="C237" s="36"/>
+    </row>
+    <row r="238" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B238" s="29" t="s">
+        <v>508</v>
+      </c>
+      <c r="C238" s="34"/>
+    </row>
+    <row r="239" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B239" s="30" t="s">
+        <v>509</v>
+      </c>
+      <c r="C239" s="35" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="240" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B240" s="31"/>
+      <c r="C240" s="36"/>
+    </row>
+    <row r="241" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B241" s="29" t="s">
+        <v>511</v>
+      </c>
+      <c r="C241" s="34"/>
+    </row>
+    <row r="242" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B242" s="30" t="s">
+        <v>512</v>
+      </c>
+      <c r="C242" s="35" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="243" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B243" s="30" t="s">
+        <v>514</v>
+      </c>
+      <c r="C243" s="35" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="244" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B244" s="30" t="s">
+        <v>516</v>
+      </c>
+      <c r="C244" s="35" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="245" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B245" s="30" t="s">
+        <v>518</v>
+      </c>
+      <c r="C245" s="35" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="246" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B246" s="30" t="s">
+        <v>520</v>
+      </c>
+      <c r="C246" s="35" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="247" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B247" s="30" t="s">
+        <v>522</v>
+      </c>
+      <c r="C247" s="35" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="248" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B248" s="30" t="s">
+        <v>524</v>
+      </c>
+      <c r="C248" s="35" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="249" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B249" s="31"/>
+      <c r="C249" s="36"/>
+    </row>
+    <row r="250" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B250" s="29" t="s">
+        <v>526</v>
+      </c>
+      <c r="C250" s="34"/>
+    </row>
+    <row r="251" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B251" s="30" t="s">
+        <v>527</v>
+      </c>
+      <c r="C251" s="37" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="203" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B203" s="32" t="s">
-        <v>452</v>
-      </c>
-      <c r="C203" s="37" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="204" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B204" s="32" t="s">
-        <v>454</v>
-      </c>
-      <c r="C204" s="37" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="205" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B205" s="32" t="s">
-        <v>456</v>
-      </c>
-      <c r="C205" s="37" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="206" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B206" s="32" t="s">
-        <v>458</v>
-      </c>
-      <c r="C206" s="37" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="207" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B207" s="33"/>
-      <c r="C207" s="38"/>
-    </row>
-    <row r="208" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B208" s="31" t="s">
-        <v>460</v>
-      </c>
-      <c r="C208" s="36"/>
-    </row>
-    <row r="209" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B209" s="32" t="s">
-        <v>461</v>
-      </c>
-      <c r="C209" s="37" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="210" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B210" s="32" t="s">
-        <v>463</v>
-      </c>
-      <c r="C210" s="37" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="211" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B211" s="32" t="s">
-        <v>465</v>
-      </c>
-      <c r="C211" s="39" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="212" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B212" s="32" t="s">
-        <v>466</v>
-      </c>
-      <c r="C212" s="37" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="213" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B213" s="32" t="s">
-        <v>468</v>
-      </c>
-      <c r="C213" s="37" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="214" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B214" s="32" t="s">
-        <v>470</v>
-      </c>
-      <c r="C214" s="37" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="215" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B215" s="32" t="s">
-        <v>472</v>
-      </c>
-      <c r="C215" s="37" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="216" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B216" s="32" t="s">
-        <v>474</v>
-      </c>
-      <c r="C216" s="37" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="217" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B217" s="32" t="s">
-        <v>476</v>
-      </c>
-      <c r="C217" s="37" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="218" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B218" s="32" t="s">
-        <v>478</v>
-      </c>
-      <c r="C218" s="37" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="219" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B219" s="32" t="s">
-        <v>480</v>
-      </c>
-      <c r="C219" s="37" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="220" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B220" s="32" t="s">
-        <v>482</v>
-      </c>
-      <c r="C220" s="37" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="221" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B221" s="32" t="s">
-        <v>484</v>
-      </c>
-      <c r="C221" s="37" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="222" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B222" s="32" t="s">
-        <v>486</v>
-      </c>
-      <c r="C222" s="37" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="223" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B223" s="32" t="s">
-        <v>488</v>
-      </c>
-      <c r="C223" s="37" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="224" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B224" s="32" t="s">
-        <v>490</v>
-      </c>
-      <c r="C224" s="37" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="225" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B225" s="32" t="s">
-        <v>492</v>
-      </c>
-      <c r="C225" s="37" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="226" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B226" s="32" t="s">
-        <v>494</v>
-      </c>
-      <c r="C226" s="37" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="227" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B227" s="32" t="s">
-        <v>496</v>
-      </c>
-      <c r="C227" s="37" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="228" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B228" s="32" t="s">
-        <v>498</v>
-      </c>
-      <c r="C228" s="37" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="229" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B229" s="32" t="s">
-        <v>500</v>
-      </c>
-      <c r="C229" s="37" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="230" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B230" s="33"/>
-      <c r="C230" s="38"/>
-    </row>
-    <row r="231" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B231" s="31" t="s">
-        <v>502</v>
-      </c>
-      <c r="C231" s="36"/>
-    </row>
-    <row r="232" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B232" s="32" t="s">
-        <v>503</v>
-      </c>
-      <c r="C232" s="37" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="233" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B233" s="32" t="s">
-        <v>505</v>
-      </c>
-      <c r="C233" s="37" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="234" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B234" s="32" t="s">
-        <v>507</v>
-      </c>
-      <c r="C234" s="37"/>
-    </row>
-    <row r="235" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B235" s="32" t="s">
-        <v>508</v>
-      </c>
-      <c r="C235" s="39" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="236" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B236" s="32" t="s">
-        <v>509</v>
-      </c>
-      <c r="C236" s="37" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="237" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B237" s="33"/>
-      <c r="C237" s="38"/>
-    </row>
-    <row r="238" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B238" s="31" t="s">
-        <v>511</v>
-      </c>
-      <c r="C238" s="36"/>
-    </row>
-    <row r="239" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B239" s="32" t="s">
-        <v>512</v>
-      </c>
-      <c r="C239" s="37" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="240" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B240" s="33"/>
-      <c r="C240" s="38"/>
-    </row>
-    <row r="241" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B241" s="31" t="s">
-        <v>514</v>
-      </c>
-      <c r="C241" s="36"/>
-    </row>
-    <row r="242" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B242" s="32" t="s">
-        <v>515</v>
-      </c>
-      <c r="C242" s="37" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="243" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B243" s="32" t="s">
-        <v>517</v>
-      </c>
-      <c r="C243" s="37" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="244" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B244" s="32" t="s">
-        <v>519</v>
-      </c>
-      <c r="C244" s="37" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="245" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B245" s="32" t="s">
-        <v>521</v>
-      </c>
-      <c r="C245" s="37" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="246" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B246" s="32" t="s">
-        <v>523</v>
-      </c>
-      <c r="C246" s="37" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="247" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B247" s="32" t="s">
-        <v>525</v>
-      </c>
-      <c r="C247" s="37" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="248" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B248" s="32" t="s">
-        <v>527</v>
-      </c>
-      <c r="C248" s="37" t="s">
+    <row r="252" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B252" s="30" t="s">
         <v>528</v>
       </c>
-    </row>
-    <row r="249" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B249" s="33"/>
-      <c r="C249" s="38"/>
-    </row>
-    <row r="250" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B250" s="31" t="s">
+      <c r="C252" s="35" t="s">
         <v>529</v>
       </c>
-      <c r="C250" s="36"/>
-    </row>
-    <row r="251" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B251" s="32" t="s">
+    </row>
+    <row r="253" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B253" s="31" t="s">
         <v>530</v>
       </c>
-      <c r="C251" s="39" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="252" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B252" s="32" t="s">
+      <c r="C253" s="35"/>
+    </row>
+    <row r="254" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B254" s="31"/>
+      <c r="C254" s="36"/>
+    </row>
+    <row r="255" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B255" s="29" t="s">
         <v>531</v>
       </c>
-      <c r="C252" s="37" t="s">
+      <c r="C255" s="34"/>
+    </row>
+    <row r="256" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B256" s="30" t="s">
         <v>532</v>
       </c>
-    </row>
-    <row r="253" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B253" s="33" t="s">
+      <c r="C256" s="35" t="s">
         <v>533</v>
       </c>
-      <c r="C253" s="37"/>
-    </row>
-    <row r="254" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B254" s="33"/>
-      <c r="C254" s="38"/>
-    </row>
-    <row r="255" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B255" s="31" t="s">
+    </row>
+    <row r="257" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B257" s="30" t="s">
         <v>534</v>
       </c>
-      <c r="C255" s="36"/>
-    </row>
-    <row r="256" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B256" s="32" t="s">
+      <c r="C257" s="35" t="s">
         <v>535</v>
       </c>
-      <c r="C256" s="37" t="s">
+    </row>
+    <row r="258" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B258" s="30" t="s">
         <v>536</v>
       </c>
-    </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B257" s="32" t="s">
+      <c r="C258" s="35" t="s">
         <v>537</v>
       </c>
-      <c r="C257" s="37" t="s">
+    </row>
+    <row r="259" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B259" s="30" t="s">
         <v>538</v>
       </c>
-    </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B258" s="32" t="s">
+      <c r="C259" s="35" t="s">
         <v>539</v>
       </c>
-      <c r="C258" s="37" t="s">
+    </row>
+    <row r="260" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B260" s="30" t="s">
         <v>540</v>
       </c>
-    </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B259" s="32" t="s">
+      <c r="C260" s="35" t="s">
         <v>541</v>
       </c>
-      <c r="C259" s="37" t="s">
+    </row>
+    <row r="262" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A262" s="32" t="s">
         <v>542</v>
       </c>
-    </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B260" s="32" t="s">
-        <v>543</v>
-      </c>
-      <c r="C260" s="37" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A262" s="34" t="s">
-        <v>545</v>
-      </c>
-      <c r="B262" s="35">
+      <c r="B262" s="33">
         <f>+COUNTA(B2:B260)-27</f>
         <v>207</v>
       </c>
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E263" s="30">
+      <c r="E263" s="28">
         <v>0</v>
       </c>
     </row>
@@ -7228,50 +7180,50 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B2" s="43" t="s">
-        <v>546</v>
-      </c>
-      <c r="C2" s="43" t="s">
-        <v>571</v>
-      </c>
-      <c r="D2" s="43" t="s">
-        <v>130</v>
-      </c>
-      <c r="E2" s="30"/>
+      <c r="B2" s="41" t="s">
+        <v>543</v>
+      </c>
+      <c r="C2" s="41" t="s">
+        <v>568</v>
+      </c>
+      <c r="D2" s="41" t="s">
+        <v>127</v>
+      </c>
+      <c r="E2" s="28"/>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B3" s="32" t="s">
-        <v>572</v>
-      </c>
-      <c r="C3" s="37" t="s">
-        <v>573</v>
-      </c>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
+      <c r="B3" s="30" t="s">
+        <v>569</v>
+      </c>
+      <c r="C3" s="35" t="s">
+        <v>570</v>
+      </c>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B4" s="32"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
+      <c r="B4" s="30"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B5" s="32"/>
-      <c r="C5" s="37"/>
-      <c r="D5" s="30"/>
-      <c r="E5" s="30"/>
+      <c r="B5" s="30"/>
+      <c r="C5" s="35"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="28"/>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B6" s="30"/>
-      <c r="C6" s="42">
+      <c r="B6" s="28"/>
+      <c r="C6" s="40">
         <f>+COUNTA(C3:C5)</f>
         <v>1</v>
       </c>
-      <c r="D6" s="42">
+      <c r="D6" s="40">
         <f>+COUNTA(D3:D5)</f>
         <v>0</v>
       </c>
-      <c r="E6" s="44">
+      <c r="E6" s="42">
         <f>+D6/C6</f>
         <v>0</v>
       </c>

--- a/Learning Advance Control.xlsx
+++ b/Learning Advance Control.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USUARIO\GR\Software Development\Learning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B68B937C-93A5-4AB7-A76D-6FC951261447}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{165A4E9E-E413-458D-A34F-322594AE0F28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C28AFF7E-06EE-4EAA-BF3B-F70E2F389C99}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{C28AFF7E-06EE-4EAA-BF3B-F70E2F389C99}"/>
   </bookViews>
   <sheets>
     <sheet name="Language" sheetId="1" r:id="rId1"/>
@@ -3225,7 +3225,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E55BE2DC-6D03-4737-9A16-12A22A3E1488}">
   <dimension ref="B2:H54"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
@@ -4003,8 +4003,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42E9B1B1-FF6A-4270-B100-DB5C0019BAE1}">
   <dimension ref="D2:H83"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="F78" sqref="F78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -4548,7 +4548,7 @@
       <c r="E70" s="45" t="s">
         <v>72</v>
       </c>
-      <c r="F70" s="53" t="s">
+      <c r="F70" s="46" t="s">
         <v>128</v>
       </c>
     </row>
@@ -4556,7 +4556,7 @@
       <c r="E71" s="45" t="s">
         <v>83</v>
       </c>
-      <c r="F71" s="53" t="s">
+      <c r="F71" s="46" t="s">
         <v>128</v>
       </c>
     </row>
@@ -4564,7 +4564,7 @@
       <c r="E72" s="45" t="s">
         <v>85</v>
       </c>
-      <c r="F72" s="53" t="s">
+      <c r="F72" s="46" t="s">
         <v>128</v>
       </c>
     </row>
@@ -4580,7 +4580,7 @@
       <c r="E74" s="45" t="s">
         <v>115</v>
       </c>
-      <c r="F74" s="53" t="s">
+      <c r="F74" s="46" t="s">
         <v>128</v>
       </c>
     </row>
@@ -4588,7 +4588,7 @@
       <c r="E75" s="45" t="s">
         <v>121</v>
       </c>
-      <c r="F75" s="53" t="s">
+      <c r="F75" s="46" t="s">
         <v>128</v>
       </c>
     </row>
@@ -4604,7 +4604,7 @@
       <c r="E77" s="45" t="s">
         <v>124</v>
       </c>
-      <c r="F77" s="53" t="s">
+      <c r="F77" s="46" t="s">
         <v>128</v>
       </c>
     </row>

--- a/Learning Advance Control.xlsx
+++ b/Learning Advance Control.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USUARIO\GR\Software Development\Learning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{165A4E9E-E413-458D-A34F-322594AE0F28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D92983B9-E695-462F-AB40-38626C22236B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{C28AFF7E-06EE-4EAA-BF3B-F70E2F389C99}"/>
+    <workbookView xWindow="0" yWindow="24" windowWidth="23016" windowHeight="12336" xr2:uid="{C28AFF7E-06EE-4EAA-BF3B-F70E2F389C99}"/>
   </bookViews>
   <sheets>
     <sheet name="Language" sheetId="1" r:id="rId1"/>
@@ -3225,7 +3225,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E55BE2DC-6D03-4737-9A16-12A22A3E1488}">
   <dimension ref="B2:H54"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
@@ -4003,7 +4003,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42E9B1B1-FF6A-4270-B100-DB5C0019BAE1}">
   <dimension ref="D2:H83"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A55" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A55" workbookViewId="0">
       <selection activeCell="F78" sqref="F78"/>
     </sheetView>
   </sheetViews>

--- a/Learning Advance Control.xlsx
+++ b/Learning Advance Control.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USUARIO\GR\Software Development\Learning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D92983B9-E695-462F-AB40-38626C22236B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8EBE294-4AD0-4F1E-94B5-9B6BE9594793}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="24" windowWidth="23016" windowHeight="12336" xr2:uid="{C28AFF7E-06EE-4EAA-BF3B-F70E2F389C99}"/>
   </bookViews>
@@ -3223,10 +3223,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E55BE2DC-6D03-4737-9A16-12A22A3E1488}">
-  <dimension ref="B2:H54"/>
+  <dimension ref="B2:H53"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" outlineLevelRow="1" x14ac:dyDescent="0.3"/>
@@ -3251,8 +3251,8 @@
         <v>54</v>
       </c>
       <c r="D3" s="22">
-        <f>+AVERAGE(D5,D6,D14,D16,D17,D15,D21,D22,D23,D24,D26,D27,D30,D35,D36,D37,D38)</f>
-        <v>0.76544117647058818</v>
+        <f>+AVERAGE(D5,D6,D14,D16,D17,D15,D21,D22,D23,D24,D26,D27,D29,D34,D35,D36,D37)</f>
+        <v>0.77279411764705874</v>
       </c>
     </row>
     <row r="4" spans="2:8" s="11" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -3362,7 +3362,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C17" s="7" t="s">
         <v>10</v>
       </c>
@@ -3370,11 +3370,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C18" s="7"/>
       <c r="D18" s="23"/>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B19" s="59" t="s">
         <v>571</v>
       </c>
@@ -3384,11 +3384,11 @@
       </c>
       <c r="F19" s="25"/>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C20" s="7"/>
       <c r="D20" s="23"/>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B21" s="58" t="s">
         <v>21</v>
       </c>
@@ -3399,7 +3399,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B22" s="58"/>
       <c r="C22" s="7" t="s">
         <v>15</v>
@@ -3408,7 +3408,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C23" s="7" t="s">
         <v>16</v>
       </c>
@@ -3416,7 +3416,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C24" s="7" t="s">
         <v>17</v>
       </c>
@@ -3424,7 +3424,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C25" s="7" t="s">
         <v>580</v>
       </c>
@@ -3432,7 +3432,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C26" s="7" t="s">
         <v>18</v>
       </c>
@@ -3440,7 +3440,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C27" s="7" t="s">
         <v>19</v>
       </c>
@@ -3448,38 +3448,41 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C28" s="7"/>
       <c r="D28" s="23"/>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="C29" s="7"/>
-      <c r="D29" s="23"/>
-      <c r="H29" s="25"/>
-    </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B30" s="9" t="s">
+    <row r="29" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B29" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C30" s="7" t="s">
+      <c r="C29" s="7" t="s">
         <v>25</v>
       </c>
+      <c r="D29" s="22">
+        <f>+AVERAGE(D30:D33)</f>
+        <v>0.73749999999999993</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="C30" s="13" t="s">
+        <v>22</v>
+      </c>
       <c r="D30" s="22">
-        <f>+AVERAGE(D31:D34)</f>
-        <v>0.61250000000000004</v>
-      </c>
-    </row>
-    <row r="31" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="C31" s="13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D31" s="22">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="32" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="C32" s="13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D32" s="22">
         <v>0.8</v>
@@ -3487,31 +3490,31 @@
     </row>
     <row r="33" spans="2:4" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="C33" s="13" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D33" s="22">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="34" spans="2:4" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="C34" s="13" t="s">
-        <v>27</v>
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C34" s="7" t="s">
+        <v>26</v>
       </c>
       <c r="D34" s="22">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C35" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D35" s="22">
-        <v>0</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C36" s="7" t="s">
-        <v>28</v>
+        <v>577</v>
       </c>
       <c r="D36" s="22">
         <v>0.2</v>
@@ -3519,48 +3522,48 @@
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C37" s="7" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="D37" s="22">
-        <v>0.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C38" s="7" t="s">
-        <v>578</v>
-      </c>
-      <c r="D38" s="22">
-        <v>0</v>
-      </c>
+      <c r="C38" s="7"/>
+      <c r="D38" s="22"/>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C39" s="7"/>
-      <c r="D39" s="22"/>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B40" s="56" t="s">
+        <v>586</v>
+      </c>
       <c r="C40" s="7"/>
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B41" s="56" t="s">
-        <v>586</v>
-      </c>
-      <c r="C41" s="7"/>
+      <c r="B41" s="57" t="s">
+        <v>589</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>582</v>
+      </c>
+      <c r="D41" s="22">
+        <v>0</v>
+      </c>
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B42" s="57" t="s">
-        <v>589</v>
-      </c>
+      <c r="B42" s="55"/>
       <c r="C42" s="7" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="D42" s="22">
         <v>0</v>
       </c>
     </row>
     <row r="43" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B43" s="55"/>
       <c r="C43" s="7" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="D43" s="22">
         <v>0</v>
@@ -3568,7 +3571,7 @@
     </row>
     <row r="44" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C44" s="7" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="D44" s="22">
         <v>0</v>
@@ -3576,27 +3579,23 @@
     </row>
     <row r="45" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C45" s="7" t="s">
-        <v>585</v>
+        <v>588</v>
       </c>
       <c r="D45" s="22">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C46" s="7" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D46" s="22">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C47" s="7" t="s">
-        <v>587</v>
-      </c>
-      <c r="D47" s="22">
-        <v>0</v>
-      </c>
+      <c r="C47"/>
+      <c r="D47"/>
     </row>
     <row r="48" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C48"/>
@@ -3621,17 +3620,13 @@
     <row r="53" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C53"/>
       <c r="D53"/>
-    </row>
-    <row r="54" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C54"/>
-      <c r="D54"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="B21:B22"/>
     <mergeCell ref="B19:C19"/>
   </mergeCells>
-  <conditionalFormatting sqref="D42:D47 D3 D5:D39">
+  <conditionalFormatting sqref="D41:D46 D3 D5:D38">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="num" val="0"/>

--- a/Learning Advance Control.xlsx
+++ b/Learning Advance Control.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USUARIO\GR\Software Development\Learning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8EBE294-4AD0-4F1E-94B5-9B6BE9594793}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11C7F9A6-A5F2-4F55-93A0-E5E17EA8BBBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="24" windowWidth="23016" windowHeight="12336" xr2:uid="{C28AFF7E-06EE-4EAA-BF3B-F70E2F389C99}"/>
   </bookViews>
@@ -3226,7 +3226,7 @@
   <dimension ref="B2:H53"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" outlineLevelRow="1" x14ac:dyDescent="0.3"/>
@@ -3252,7 +3252,7 @@
       </c>
       <c r="D3" s="22">
         <f>+AVERAGE(D5,D6,D14,D16,D17,D15,D21,D22,D23,D24,D26,D27,D29,D34,D35,D36,D37)</f>
-        <v>0.77279411764705874</v>
+        <v>0.78455882352941164</v>
       </c>
     </row>
     <row r="4" spans="2:8" s="11" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -3461,7 +3461,7 @@
       </c>
       <c r="D29" s="22">
         <f>+AVERAGE(D30:D33)</f>
-        <v>0.73749999999999993</v>
+        <v>0.78749999999999998</v>
       </c>
     </row>
     <row r="30" spans="2:6" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -3485,7 +3485,7 @@
         <v>24</v>
       </c>
       <c r="D32" s="22">
-        <v>0.8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="2:4" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -3501,7 +3501,7 @@
         <v>26</v>
       </c>
       <c r="D34" s="22">
-        <v>0</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.3">
@@ -3648,7 +3648,7 @@
   <dimension ref="B2:D45"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3673,7 +3673,7 @@
       </c>
       <c r="D3" s="22">
         <f>+AVERAGE(D5,D6,D9,D10,D16,D17,D20,D21,D24,D25,D26,D27,D30,D34,D38)</f>
-        <v>0.24333333333333332</v>
+        <v>0.32666666666666677</v>
       </c>
     </row>
     <row r="4" spans="2:4" s="11" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -3698,7 +3698,7 @@
         <v>581</v>
       </c>
       <c r="D6" s="22">
-        <v>0.1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.3">
@@ -3824,7 +3824,7 @@
         <v>40</v>
       </c>
       <c r="D24" s="22">
-        <v>0</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.3">
@@ -3832,7 +3832,7 @@
         <v>41</v>
       </c>
       <c r="D25" s="22">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.3">

--- a/Learning Advance Control.xlsx
+++ b/Learning Advance Control.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USUARIO\GR\Software Development\Learning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11C7F9A6-A5F2-4F55-93A0-E5E17EA8BBBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0D27395-A1DA-4777-99DC-F75644373314}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="24" windowWidth="23016" windowHeight="12336" xr2:uid="{C28AFF7E-06EE-4EAA-BF3B-F70E2F389C99}"/>
   </bookViews>
@@ -3252,7 +3252,7 @@
       </c>
       <c r="D3" s="22">
         <f>+AVERAGE(D5,D6,D14,D16,D17,D15,D21,D22,D23,D24,D26,D27,D29,D34,D35,D36,D37)</f>
-        <v>0.78455882352941164</v>
+        <v>0.83455882352941169</v>
       </c>
     </row>
     <row r="4" spans="2:8" s="11" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -3501,7 +3501,7 @@
         <v>26</v>
       </c>
       <c r="D34" s="22">
-        <v>0.15</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.3">

--- a/Learning Advance Control.xlsx
+++ b/Learning Advance Control.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USUARIO\GR\Software Development\Learning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0D27395-A1DA-4777-99DC-F75644373314}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D92E4108-7C40-43E9-8386-60CA29511A21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="24" windowWidth="23016" windowHeight="12336" xr2:uid="{C28AFF7E-06EE-4EAA-BF3B-F70E2F389C99}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C28AFF7E-06EE-4EAA-BF3B-F70E2F389C99}"/>
   </bookViews>
   <sheets>
     <sheet name="Language" sheetId="1" r:id="rId1"/>
@@ -3225,8 +3225,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E55BE2DC-6D03-4737-9A16-12A22A3E1488}">
   <dimension ref="B2:H53"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" outlineLevelRow="1" x14ac:dyDescent="0.3"/>
@@ -3252,7 +3252,7 @@
       </c>
       <c r="D3" s="22">
         <f>+AVERAGE(D5,D6,D14,D16,D17,D15,D21,D22,D23,D24,D26,D27,D29,D34,D35,D36,D37)</f>
-        <v>0.83455882352941169</v>
+        <v>0.84705882352941164</v>
       </c>
     </row>
     <row r="4" spans="2:8" s="11" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -3461,7 +3461,7 @@
       </c>
       <c r="D29" s="22">
         <f>+AVERAGE(D30:D33)</f>
-        <v>0.78749999999999998</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="2:6" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -3493,7 +3493,7 @@
         <v>27</v>
       </c>
       <c r="D33" s="22">
-        <v>0.15</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.3">

--- a/Learning Advance Control.xlsx
+++ b/Learning Advance Control.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USUARIO\GR\Software Development\Learning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D92E4108-7C40-43E9-8386-60CA29511A21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE24906B-0DE9-4F60-A925-B8688EBA9CDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C28AFF7E-06EE-4EAA-BF3B-F70E2F389C99}"/>
+    <workbookView xWindow="0" yWindow="24" windowWidth="23016" windowHeight="12336" xr2:uid="{C28AFF7E-06EE-4EAA-BF3B-F70E2F389C99}"/>
   </bookViews>
   <sheets>
     <sheet name="Language" sheetId="1" r:id="rId1"/>
@@ -3225,8 +3225,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E55BE2DC-6D03-4737-9A16-12A22A3E1488}">
   <dimension ref="B2:H53"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" outlineLevelRow="1" x14ac:dyDescent="0.3"/>
@@ -3252,7 +3252,7 @@
       </c>
       <c r="D3" s="22">
         <f>+AVERAGE(D5,D6,D14,D16,D17,D15,D21,D22,D23,D24,D26,D27,D29,D34,D35,D36,D37)</f>
-        <v>0.84705882352941164</v>
+        <v>0.89411764705882346</v>
       </c>
     </row>
     <row r="4" spans="2:8" s="11" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -3509,7 +3509,7 @@
         <v>28</v>
       </c>
       <c r="D35" s="22">
-        <v>0.2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.3">

--- a/Learning Advance Control.xlsx
+++ b/Learning Advance Control.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USUARIO\GR\Software Development\Learning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE24906B-0DE9-4F60-A925-B8688EBA9CDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C4713D0-BE5E-4E7C-BD4D-C55CA2A73E46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="24" windowWidth="23016" windowHeight="12336" xr2:uid="{C28AFF7E-06EE-4EAA-BF3B-F70E2F389C99}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{C28AFF7E-06EE-4EAA-BF3B-F70E2F389C99}"/>
   </bookViews>
   <sheets>
     <sheet name="Language" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="744" uniqueCount="590">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="735" uniqueCount="581">
   <si>
     <t>Basic Syntax</t>
   </si>
@@ -168,37 +168,10 @@
     <t>Pytest</t>
   </si>
   <si>
-    <t>Doctest</t>
-  </si>
-  <si>
-    <t>Nose</t>
-  </si>
-  <si>
     <t>Synchronous</t>
   </si>
   <si>
     <t>Django</t>
-  </si>
-  <si>
-    <t>Flask</t>
-  </si>
-  <si>
-    <t>Pyramid</t>
-  </si>
-  <si>
-    <t>Asynchronous</t>
-  </si>
-  <si>
-    <t>Gevent</t>
-  </si>
-  <si>
-    <t>Tornado</t>
-  </si>
-  <si>
-    <t>Aiohttp</t>
-  </si>
-  <si>
-    <t>Sanic</t>
   </si>
   <si>
     <t>Completion</t>
@@ -2361,7 +2334,7 @@
     <t>DFS &amp; BFS (In depth)</t>
   </si>
   <si>
-    <t>4. More complex specific cases</t>
+    <t>4. More complex concepts</t>
   </si>
 </sst>
 </file>
@@ -2816,9 +2789,6 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
@@ -2833,6 +2803,9 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3225,8 +3198,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E55BE2DC-6D03-4737-9A16-12A22A3E1488}">
   <dimension ref="B2:H53"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30:XFD33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" outlineLevelRow="1" x14ac:dyDescent="0.3"/>
@@ -3242,17 +3215,17 @@
       <c r="B2" s="4"/>
       <c r="C2" s="10"/>
       <c r="D2" s="21" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="2:8" s="11" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="4"/>
       <c r="C3" s="26" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="D3" s="22">
-        <f>+AVERAGE(D5,D6,D14,D16,D17,D15,D21,D22,D23,D24,D26,D27,D29,D34,D35,D36,D37)</f>
-        <v>0.89411764705882346</v>
+        <f>+AVERAGE(D5,D6,D14,D16,D17,D15,D21,D22,D23,D24,D26,D27,D29,D34,D35,D36)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="2:8" s="11" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -3375,10 +3348,10 @@
       <c r="D18" s="23"/>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B19" s="59" t="s">
-        <v>571</v>
-      </c>
-      <c r="C19" s="59"/>
+      <c r="B19" s="58" t="s">
+        <v>562</v>
+      </c>
+      <c r="C19" s="58"/>
       <c r="D19" s="22">
         <v>1</v>
       </c>
@@ -3389,7 +3362,7 @@
       <c r="D20" s="23"/>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B21" s="58" t="s">
+      <c r="B21" s="57" t="s">
         <v>21</v>
       </c>
       <c r="C21" s="7" t="s">
@@ -3400,7 +3373,7 @@
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B22" s="58"/>
+      <c r="B22" s="57"/>
       <c r="C22" s="7" t="s">
         <v>15</v>
       </c>
@@ -3426,7 +3399,7 @@
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C25" s="7" t="s">
-        <v>580</v>
+        <v>571</v>
       </c>
       <c r="D25" s="22">
         <v>1</v>
@@ -3464,7 +3437,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="2:6" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C30" s="13" t="s">
         <v>22</v>
       </c>
@@ -3472,7 +3445,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="2:6" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C31" s="13" t="s">
         <v>23</v>
       </c>
@@ -3480,7 +3453,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="2:6" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C32" s="13" t="s">
         <v>24</v>
       </c>
@@ -3488,7 +3461,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="2:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C33" s="13" t="s">
         <v>27</v>
       </c>
@@ -3514,18 +3487,10 @@
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C36" s="7" t="s">
-        <v>577</v>
+        <v>568</v>
       </c>
       <c r="D36" s="22">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C37" s="7" t="s">
-        <v>578</v>
-      </c>
-      <c r="D37" s="22">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.3">
@@ -3536,26 +3501,26 @@
       <c r="C39" s="7"/>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B40" s="56" t="s">
-        <v>586</v>
+      <c r="B40" s="61" t="s">
+        <v>577</v>
       </c>
       <c r="C40" s="7"/>
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B41" s="57" t="s">
-        <v>589</v>
+      <c r="B41" s="56" t="s">
+        <v>580</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="D41" s="22">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B42" s="55"/>
       <c r="C42" s="7" t="s">
-        <v>583</v>
+        <v>573</v>
       </c>
       <c r="D42" s="22">
         <v>0</v>
@@ -3563,7 +3528,7 @@
     </row>
     <row r="43" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C43" s="7" t="s">
-        <v>584</v>
+        <v>574</v>
       </c>
       <c r="D43" s="22">
         <v>0</v>
@@ -3571,7 +3536,7 @@
     </row>
     <row r="44" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C44" s="7" t="s">
-        <v>585</v>
+        <v>575</v>
       </c>
       <c r="D44" s="22">
         <v>0</v>
@@ -3579,23 +3544,27 @@
     </row>
     <row r="45" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C45" s="7" t="s">
-        <v>588</v>
+        <v>576</v>
       </c>
       <c r="D45" s="22">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C46" s="7" t="s">
-        <v>587</v>
+        <v>578</v>
       </c>
       <c r="D46" s="22">
         <v>0</v>
       </c>
     </row>
     <row r="47" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C47"/>
-      <c r="D47"/>
+      <c r="C47" s="7" t="s">
+        <v>569</v>
+      </c>
+      <c r="D47" s="22">
+        <v>0</v>
+      </c>
     </row>
     <row r="48" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C48"/>
@@ -3626,7 +3595,7 @@
     <mergeCell ref="B21:B22"/>
     <mergeCell ref="B19:C19"/>
   </mergeCells>
-  <conditionalFormatting sqref="D41:D46 D3 D5:D38">
+  <conditionalFormatting sqref="D5:D36 D3 D38 D41:D47">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -3645,10 +3614,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0656C058-172F-42FA-9F84-D86D1606C4DB}">
-  <dimension ref="B2:D45"/>
+  <dimension ref="B2:D36"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3663,17 +3632,17 @@
       <c r="B2" s="4"/>
       <c r="C2" s="10"/>
       <c r="D2" s="20" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="2:4" s="11" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="4"/>
       <c r="C3" s="26" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="D3" s="22">
-        <f>+AVERAGE(D5,D6,D9,D10,D16,D17,D20,D21,D24,D25,D26,D27,D30,D34,D38)</f>
-        <v>0.32666666666666677</v>
+        <f>+AVERAGE(D5,D6,D9,D10,D16,D17,D20,D21,D24,D25,D28)</f>
+        <v>0.61363636363636376</v>
       </c>
     </row>
     <row r="4" spans="2:4" s="11" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -3682,7 +3651,7 @@
       <c r="D4" s="21"/>
     </row>
     <row r="5" spans="2:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="61" t="s">
+      <c r="B5" s="60" t="s">
         <v>29</v>
       </c>
       <c r="C5" s="7" t="s">
@@ -3693,9 +3662,9 @@
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B6" s="61"/>
+      <c r="B6" s="60"/>
       <c r="C6" s="7" t="s">
-        <v>581</v>
+        <v>572</v>
       </c>
       <c r="D6" s="22">
         <v>1</v>
@@ -3711,7 +3680,7 @@
       <c r="D8" s="22"/>
     </row>
     <row r="9" spans="2:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="60" t="s">
+      <c r="B9" s="59" t="s">
         <v>31</v>
       </c>
       <c r="C9" s="7" t="s">
@@ -3722,7 +3691,7 @@
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B10" s="60"/>
+      <c r="B10" s="59"/>
       <c r="C10" s="7" t="s">
         <v>33</v>
       </c>
@@ -3744,7 +3713,7 @@
         <v>35</v>
       </c>
       <c r="D12" s="54" t="s">
-        <v>579</v>
+        <v>570</v>
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.3">
@@ -3752,7 +3721,7 @@
         <v>36</v>
       </c>
       <c r="D13" s="54" t="s">
-        <v>579</v>
+        <v>570</v>
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.3">
@@ -3771,7 +3740,7 @@
         <v>38</v>
       </c>
       <c r="D16" s="22">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.3">
@@ -3780,7 +3749,7 @@
         <v>39</v>
       </c>
       <c r="D17" s="22">
-        <v>0.15</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.3">
@@ -3793,10 +3762,10 @@
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B20" s="18" t="s">
-        <v>572</v>
+        <v>563</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>573</v>
+        <v>564</v>
       </c>
       <c r="D20" s="22">
         <v>0</v>
@@ -3804,7 +3773,7 @@
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C21" s="7" t="s">
-        <v>574</v>
+        <v>565</v>
       </c>
       <c r="D21" s="22">
         <v>0</v>
@@ -3818,7 +3787,7 @@
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B24" s="18" t="s">
-        <v>575</v>
+        <v>566</v>
       </c>
       <c r="C24" s="7" t="s">
         <v>40</v>
@@ -3836,137 +3805,64 @@
       </c>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C26" s="7" t="s">
+      <c r="C26" s="7"/>
+      <c r="D26" s="22"/>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C27" s="7"/>
+      <c r="D27" s="22"/>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B28" s="19" t="s">
+        <v>567</v>
+      </c>
+      <c r="C28" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="D26" s="22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C27" s="7" t="s">
+      <c r="D28" s="22">
+        <f>+AVERAGE(D29)</f>
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C29" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="D27" s="22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C28" s="7"/>
-      <c r="D28" s="22"/>
-    </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C29" s="7"/>
-      <c r="D29" s="22"/>
+      <c r="D29" s="22">
+        <v>0.15</v>
+      </c>
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B30" s="19" t="s">
-        <v>576</v>
-      </c>
-      <c r="C30" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="D30" s="22">
-        <f>+AVERAGE(D31)</f>
-        <v>0.15</v>
-      </c>
+      <c r="C30" s="1"/>
+      <c r="D30" s="14"/>
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C31" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="D31" s="22">
-        <v>0.15</v>
-      </c>
+      <c r="C31" s="1"/>
+      <c r="D31" s="15"/>
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C32" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="D32" s="24">
-        <v>0</v>
-      </c>
+      <c r="C32" s="1"/>
+      <c r="D32" s="15"/>
     </row>
     <row r="33" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C33" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="D33" s="24">
-        <v>0</v>
-      </c>
+      <c r="C33" s="1"/>
+      <c r="D33" s="15"/>
     </row>
     <row r="34" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C34" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="D34" s="22">
-        <f>+AVERAGE(D35)</f>
-        <v>0</v>
-      </c>
+      <c r="C34" s="1"/>
     </row>
     <row r="35" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C35" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="D35" s="24">
-        <v>0</v>
-      </c>
+      <c r="C35" s="1"/>
     </row>
     <row r="36" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C36" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="D36" s="24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C37" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="D37" s="24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C38" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="D38" s="22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C39" s="1"/>
-      <c r="D39" s="14"/>
-    </row>
-    <row r="40" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C40" s="1"/>
-      <c r="D40" s="15"/>
-    </row>
-    <row r="41" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C41" s="1"/>
-      <c r="D41" s="15"/>
-    </row>
-    <row r="42" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C42" s="1"/>
-      <c r="D42" s="15"/>
-    </row>
-    <row r="43" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C43" s="1"/>
-    </row>
-    <row r="44" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C44" s="1"/>
-    </row>
-    <row r="45" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C45" s="1"/>
+      <c r="C36" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="B9:B10"/>
     <mergeCell ref="B5:B6"/>
   </mergeCells>
-  <conditionalFormatting sqref="D3">
+  <conditionalFormatting sqref="D24:D29 D3">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -3978,7 +3874,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D5:D21 D24:D38">
+  <conditionalFormatting sqref="D5:D21">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -4012,7 +3908,7 @@
   <sheetData>
     <row r="2" spans="5:7" x14ac:dyDescent="0.3">
       <c r="F2" s="33" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="G2" s="44">
         <f>+F82/E82</f>
@@ -4021,202 +3917,202 @@
     </row>
     <row r="3" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E3" s="45" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="F3" s="46" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
     </row>
     <row r="4" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E4" s="45" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="F4" s="46" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
     </row>
     <row r="5" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E5" s="45" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="F5" s="46" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
     </row>
     <row r="6" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E6" s="45" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="F6" s="46" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
     </row>
     <row r="7" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E7" s="45" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="F7" s="46" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
     </row>
     <row r="8" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E8" s="45" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="F8" s="46" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
     </row>
     <row r="9" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E9" s="45" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="F9" s="46" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
     </row>
     <row r="10" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E10" s="45" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="F10" s="46" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
     </row>
     <row r="11" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E11" s="45" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="F11" s="47" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
     </row>
     <row r="12" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E12" s="45" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="F12" s="47" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
     </row>
     <row r="13" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E13" s="45" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="F13" s="47" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
     </row>
     <row r="14" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E14" s="45" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="F14" s="46" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
     </row>
     <row r="15" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E15" s="45" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="F15" s="47" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
     </row>
     <row r="16" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E16" s="45" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="F16" s="47" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
     </row>
     <row r="17" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E17" s="45" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="F17" s="46" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
     </row>
     <row r="18" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E18" s="45" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="F18" s="46" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
     </row>
     <row r="19" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E19" s="45" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="F19" s="46" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
     </row>
     <row r="20" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E20" s="45" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="F20" s="46" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
     </row>
     <row r="21" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E21" s="45" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="F21" s="46" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
     </row>
     <row r="22" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E22" s="45" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="F22" s="46" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
     </row>
     <row r="23" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E23" s="45" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="F23" s="46" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
     </row>
     <row r="24" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E24" s="45" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="F24" s="46" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
     </row>
     <row r="25" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E25" s="45" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="F25" s="46" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
     </row>
     <row r="26" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E26" s="45" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="F26" s="46" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
     </row>
     <row r="27" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E27" s="45" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="F27" s="46" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
     </row>
     <row r="28" spans="5:6" ht="7.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -4225,18 +4121,18 @@
     </row>
     <row r="29" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E29" s="45" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="F29" s="46" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
     </row>
     <row r="30" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E30" s="45" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="F30" s="46" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
     </row>
     <row r="31" spans="5:6" ht="7.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -4245,275 +4141,275 @@
     </row>
     <row r="32" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E32" s="45" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="F32" s="46" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
     </row>
     <row r="33" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E33" s="45" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="F33" s="46" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
     </row>
     <row r="34" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E34" s="45" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="F34" s="46" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
     </row>
     <row r="35" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E35" s="45" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="F35" s="47" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
     </row>
     <row r="36" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E36" s="45" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="F36" s="46" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
     </row>
     <row r="37" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E37" s="45" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="F37" s="46" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
     </row>
     <row r="38" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E38" s="45" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="F38" s="46" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
     </row>
     <row r="39" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E39" s="45" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="F39" s="46" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
     </row>
     <row r="40" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E40" s="45" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="F40" s="46" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
     </row>
     <row r="41" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E41" s="45" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="F41" s="46" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
     </row>
     <row r="42" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E42" s="45" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="F42" s="46" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
     </row>
     <row r="43" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E43" s="45" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="F43" s="46" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
     </row>
     <row r="44" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E44" s="45" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="F44" s="46" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
     </row>
     <row r="45" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E45" s="45" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="F45" s="47" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
     </row>
     <row r="46" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E46" s="45" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="F46" s="46" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
     </row>
     <row r="47" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E47" s="45" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="F47" s="46" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
     </row>
     <row r="48" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E48" s="45" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="F48" s="46" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
     </row>
     <row r="49" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E49" s="45" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="F49" s="47" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="H49" s="50"/>
     </row>
     <row r="50" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E50" s="45" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="F50" s="47" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
     </row>
     <row r="51" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E51" s="45" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="F51" s="46" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
     </row>
     <row r="52" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E52" s="45" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="F52" s="46" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
     </row>
     <row r="53" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E53" s="45" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="F53" s="46" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
     </row>
     <row r="54" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E54" s="45" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="F54" s="46" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
     </row>
     <row r="55" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E55" s="45" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="F55" s="46" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
     </row>
     <row r="56" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E56" s="45" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="F56" s="46" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
     </row>
     <row r="57" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E57" s="45" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="F57" s="46" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
     </row>
     <row r="58" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E58" s="45" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="F58" s="47" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
     </row>
     <row r="59" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E59" s="45" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="F59" s="46" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
     </row>
     <row r="60" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E60" s="45" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="F60" s="46" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
     </row>
     <row r="61" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E61" s="45" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="F61" s="46" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
     </row>
     <row r="62" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E62" s="45" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="F62" s="46" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
     </row>
     <row r="63" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E63" s="45" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="F63" s="46" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
     </row>
     <row r="64" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E64" s="45" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="F64" s="46" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
     </row>
     <row r="65" spans="4:6" x14ac:dyDescent="0.3">
       <c r="E65" s="45" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="F65" s="47" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
     </row>
     <row r="66" spans="4:6" x14ac:dyDescent="0.3">
@@ -4533,82 +4429,82 @@
         <v>25</v>
       </c>
       <c r="E69" s="45" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="F69" s="53" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
     </row>
     <row r="70" spans="4:6" x14ac:dyDescent="0.3">
       <c r="E70" s="45" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="F70" s="46" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
     </row>
     <row r="71" spans="4:6" x14ac:dyDescent="0.3">
       <c r="E71" s="45" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="F71" s="46" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
     </row>
     <row r="72" spans="4:6" x14ac:dyDescent="0.3">
       <c r="E72" s="45" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="F72" s="46" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
     </row>
     <row r="73" spans="4:6" x14ac:dyDescent="0.3">
       <c r="E73" s="45" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="F73" s="53" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
     </row>
     <row r="74" spans="4:6" x14ac:dyDescent="0.3">
       <c r="E74" s="45" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="F74" s="46" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
     </row>
     <row r="75" spans="4:6" x14ac:dyDescent="0.3">
       <c r="E75" s="45" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="F75" s="46" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
     </row>
     <row r="76" spans="4:6" x14ac:dyDescent="0.3">
       <c r="E76" s="45" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="F76" s="53" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
     </row>
     <row r="77" spans="4:6" x14ac:dyDescent="0.3">
       <c r="E77" s="45" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="F77" s="46" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
     </row>
     <row r="78" spans="4:6" x14ac:dyDescent="0.3">
       <c r="E78" s="45" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="F78" s="53" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
     </row>
     <row r="79" spans="4:6" x14ac:dyDescent="0.3">
@@ -4732,529 +4628,529 @@
   <sheetData>
     <row r="2" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B2" s="29" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="C2" s="34"/>
       <c r="E2" s="41" t="s">
-        <v>543</v>
+        <v>534</v>
       </c>
       <c r="F2" s="41" t="s">
-        <v>568</v>
+        <v>559</v>
       </c>
       <c r="G2" s="41" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B3" s="30" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="C3" s="35" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="E3" s="30" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="F3" s="35" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B4" s="30" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="C4" s="35" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="E4" s="30" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="F4" s="35" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B5" s="30" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="C5" s="35" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="E5" s="30" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="F5" s="35" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B6" s="31"/>
       <c r="C6" s="36"/>
       <c r="E6" s="30" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="F6" s="35" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B7" s="29" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="C7" s="34"/>
       <c r="E7" s="30" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="F7" s="35" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="G7" s="43"/>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B8" s="30" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="C8" s="35" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="E8" s="30" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="F8" s="35" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B9" s="30" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="C9" s="37" t="s">
-        <v>544</v>
+        <v>535</v>
       </c>
       <c r="E9" s="30" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="F9" s="35" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B10" s="30" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="C10" s="35" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="E10" s="30" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="F10" s="35" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B11" s="30" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="C11" s="35" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="E11" s="30" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="F11" s="35" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B12" s="30" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="C12" s="35" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="E12" s="30" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="F12" s="35" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B13" s="30" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="C13" s="37" t="s">
-        <v>545</v>
+        <v>536</v>
       </c>
       <c r="E13" s="30" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="F13" s="35" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B14" s="30" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="C14" s="35" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="E14" s="30" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="F14" s="35" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B15" s="30" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="C15" s="37" t="s">
-        <v>546</v>
+        <v>537</v>
       </c>
       <c r="E15" s="30" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="F15" s="35" t="s">
-        <v>297</v>
+        <v>288</v>
       </c>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B16" s="30" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="C16" s="35" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="E16" s="30" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="F16" s="35" t="s">
-        <v>300</v>
+        <v>291</v>
       </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B17" s="30" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="C17" s="37" t="s">
-        <v>547</v>
+        <v>538</v>
       </c>
       <c r="E17" s="30" t="s">
-        <v>311</v>
+        <v>302</v>
       </c>
       <c r="F17" s="35" t="s">
-        <v>312</v>
+        <v>303</v>
       </c>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B18" s="31"/>
       <c r="C18" s="36"/>
       <c r="E18" s="30" t="s">
-        <v>327</v>
+        <v>318</v>
       </c>
       <c r="F18" s="35" t="s">
-        <v>328</v>
+        <v>319</v>
       </c>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B19" s="29" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="C19" s="34"/>
       <c r="E19" s="30" t="s">
-        <v>345</v>
+        <v>336</v>
       </c>
       <c r="F19" s="35" t="s">
-        <v>346</v>
+        <v>337</v>
       </c>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B20" s="30" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="C20" s="35" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="E20" s="30" t="s">
-        <v>342</v>
+        <v>333</v>
       </c>
       <c r="F20" s="35" t="s">
-        <v>343</v>
+        <v>334</v>
       </c>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B21" s="30" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="C21" s="35" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="E21" s="30" t="s">
-        <v>349</v>
+        <v>340</v>
       </c>
       <c r="F21" s="35" t="s">
-        <v>350</v>
+        <v>341</v>
       </c>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B22" s="30" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="C22" s="35" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="E22" s="30" t="s">
-        <v>351</v>
+        <v>342</v>
       </c>
       <c r="F22" s="35" t="s">
-        <v>352</v>
+        <v>343</v>
       </c>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B23" s="30" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="C23" s="35" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="E23" s="30" t="s">
-        <v>382</v>
+        <v>373</v>
       </c>
       <c r="F23" s="35" t="s">
-        <v>383</v>
+        <v>374</v>
       </c>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B24" s="30" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="C24" s="35" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="E24" s="30" t="s">
-        <v>385</v>
+        <v>376</v>
       </c>
       <c r="F24" s="35" t="s">
-        <v>386</v>
+        <v>377</v>
       </c>
     </row>
     <row r="25" spans="2:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B25" s="30" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="C25" s="35" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="E25" s="30" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
       <c r="F25" s="35" t="s">
-        <v>391</v>
+        <v>382</v>
       </c>
       <c r="G25" s="27" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B26" s="30" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="C26" s="35" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="E26" s="30" t="s">
-        <v>392</v>
+        <v>383</v>
       </c>
       <c r="F26" s="35" t="s">
-        <v>393</v>
+        <v>384</v>
       </c>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B27" s="31"/>
       <c r="C27" s="36"/>
       <c r="E27" s="30" t="s">
-        <v>402</v>
+        <v>393</v>
       </c>
       <c r="F27" s="35" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B28" s="29" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="C28" s="34"/>
       <c r="E28" s="30" t="s">
-        <v>440</v>
+        <v>431</v>
       </c>
       <c r="F28" s="35" t="s">
-        <v>441</v>
+        <v>432</v>
       </c>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B29" s="30" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="C29" s="35" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="E29" s="30" t="s">
-        <v>407</v>
+        <v>398</v>
       </c>
       <c r="F29" s="35" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B30" s="30" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="C30" s="37" t="s">
-        <v>548</v>
+        <v>539</v>
       </c>
       <c r="E30" s="30" t="s">
-        <v>469</v>
+        <v>460</v>
       </c>
       <c r="F30" s="35" t="s">
-        <v>470</v>
+        <v>461</v>
       </c>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B31" s="30" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="C31" s="37" t="s">
-        <v>549</v>
+        <v>540</v>
       </c>
       <c r="E31" s="30" t="s">
-        <v>475</v>
+        <v>466</v>
       </c>
       <c r="F31" s="35" t="s">
-        <v>476</v>
+        <v>467</v>
       </c>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B32" s="30" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="C32" s="37" t="s">
-        <v>550</v>
+        <v>541</v>
       </c>
       <c r="E32" s="30" t="s">
-        <v>487</v>
+        <v>478</v>
       </c>
       <c r="F32" s="35" t="s">
-        <v>488</v>
+        <v>479</v>
       </c>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B33" s="30" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="C33" s="35" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="E33" s="30" t="s">
-        <v>502</v>
+        <v>493</v>
       </c>
       <c r="F33" s="35" t="s">
-        <v>503</v>
+        <v>494</v>
       </c>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B34" s="30" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="C34" s="35" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="E34" s="30" t="s">
-        <v>512</v>
+        <v>503</v>
       </c>
       <c r="F34" s="35" t="s">
-        <v>513</v>
+        <v>504</v>
       </c>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B35" s="30" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="C35" s="35" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="E35" s="30" t="s">
-        <v>518</v>
+        <v>509</v>
       </c>
       <c r="F35" s="35" t="s">
-        <v>519</v>
+        <v>510</v>
       </c>
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B36" s="30" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="C36" s="35" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="E36" s="30" t="s">
-        <v>532</v>
+        <v>523</v>
       </c>
       <c r="F36" s="35" t="s">
-        <v>533</v>
+        <v>524</v>
       </c>
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B37" s="30" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="C37" s="35" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="E37" s="30" t="s">
-        <v>534</v>
+        <v>525</v>
       </c>
       <c r="F37" s="35" t="s">
-        <v>535</v>
+        <v>526</v>
       </c>
     </row>
     <row r="38" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B38" s="30" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="C38" s="35" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="E38" s="30" t="s">
-        <v>536</v>
+        <v>527</v>
       </c>
       <c r="F38" s="35" t="s">
-        <v>537</v>
+        <v>528</v>
       </c>
     </row>
     <row r="39" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B39" s="30" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="C39" s="35" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="E39" s="30" t="s">
-        <v>540</v>
+        <v>531</v>
       </c>
       <c r="F39" s="35" t="s">
-        <v>541</v>
+        <v>532</v>
       </c>
     </row>
     <row r="40" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B40" s="30" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="C40" s="35" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="F40" s="40">
         <f>+COUNTA(F3:F39)</f>
@@ -5271,86 +5167,86 @@
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B41" s="31" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="C41" s="35"/>
     </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B42" s="30" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="C42" s="35" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
     </row>
     <row r="43" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B43" s="30" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="C43" s="35" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
     </row>
     <row r="44" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B44" s="30" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="C44" s="35" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
     </row>
     <row r="45" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B45" s="30" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="C45" s="35" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
     </row>
     <row r="46" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B46" s="30" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="C46" s="35" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
     </row>
     <row r="47" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B47" s="30" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="C47" s="35"/>
     </row>
     <row r="48" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B48" s="30" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="C48" s="37" t="s">
-        <v>551</v>
+        <v>542</v>
       </c>
     </row>
     <row r="49" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B49" s="30" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="C49" s="35" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
     </row>
     <row r="50" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B50" s="30" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="C50" s="35" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
     </row>
     <row r="51" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B51" s="30" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="C51" s="35" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
     </row>
     <row r="52" spans="2:3" x14ac:dyDescent="0.3">
@@ -5359,72 +5255,72 @@
     </row>
     <row r="53" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B53" s="29" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="C53" s="34"/>
     </row>
     <row r="54" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B54" s="30" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="C54" s="35" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
     </row>
     <row r="55" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B55" s="30" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="C55" s="35" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
     </row>
     <row r="56" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B56" s="30" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="C56" s="35" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
     </row>
     <row r="57" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B57" s="30" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="C57" s="35" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
     </row>
     <row r="58" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B58" s="30" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="C58" s="35" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
     </row>
     <row r="59" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B59" s="30" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="C59" s="35" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
     </row>
     <row r="60" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B60" s="30" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="C60" s="35" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
     </row>
     <row r="61" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B61" s="30" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="C61" s="35" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
     </row>
     <row r="62" spans="2:3" x14ac:dyDescent="0.3">
@@ -5433,46 +5329,46 @@
     </row>
     <row r="63" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B63" s="29" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="C63" s="34"/>
     </row>
     <row r="64" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B64" s="30" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="C64" s="35" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
     </row>
     <row r="65" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B65" s="31" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="C65" s="35"/>
     </row>
     <row r="66" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B66" s="30" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="C66" s="35" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
     </row>
     <row r="67" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B67" s="30" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
       <c r="C67" s="35" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
     </row>
     <row r="68" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B68" s="30" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="C68" s="35" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
     </row>
     <row r="69" spans="2:3" x14ac:dyDescent="0.3">
@@ -5481,72 +5377,72 @@
     </row>
     <row r="70" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B70" s="29" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="C70" s="34"/>
     </row>
     <row r="71" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B71" s="30" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
       <c r="C71" s="35" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
     </row>
     <row r="72" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B72" s="30" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="C72" s="35" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
     </row>
     <row r="73" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B73" s="30" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="C73" s="35" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
     </row>
     <row r="74" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B74" s="30" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
       <c r="C74" s="35" t="s">
-        <v>244</v>
+        <v>235</v>
       </c>
     </row>
     <row r="75" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B75" s="30" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="C75" s="35" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
     </row>
     <row r="76" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B76" s="30" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="C76" s="35" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
     </row>
     <row r="77" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B77" s="30" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="C77" s="35" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
     </row>
     <row r="78" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B78" s="30" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
       <c r="C78" s="35" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
     </row>
     <row r="79" spans="2:3" x14ac:dyDescent="0.3">
@@ -5555,72 +5451,72 @@
     </row>
     <row r="80" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B80" s="29" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
       <c r="C80" s="34"/>
     </row>
     <row r="81" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B81" s="30" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="C81" s="35" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
     </row>
     <row r="82" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B82" s="30" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="C82" s="35" t="s">
-        <v>257</v>
+        <v>248</v>
       </c>
     </row>
     <row r="83" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B83" s="30" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="C83" s="35" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
     </row>
     <row r="84" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B84" s="30" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="C84" s="35" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
     </row>
     <row r="85" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B85" s="30" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="C85" s="35" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
     </row>
     <row r="86" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B86" s="30" t="s">
-        <v>264</v>
+        <v>255</v>
       </c>
       <c r="C86" s="35" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
     </row>
     <row r="87" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B87" s="30" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="C87" s="35" t="s">
-        <v>267</v>
+        <v>258</v>
       </c>
     </row>
     <row r="88" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B88" s="30" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="C88" s="35" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
     </row>
     <row r="89" spans="2:3" x14ac:dyDescent="0.3">
@@ -5629,48 +5525,48 @@
     </row>
     <row r="90" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B90" s="29" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="C90" s="34"/>
     </row>
     <row r="91" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B91" s="30" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="C91" s="35" t="s">
-        <v>272</v>
+        <v>263</v>
       </c>
     </row>
     <row r="92" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B92" s="30" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
       <c r="C92" s="35" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
     </row>
     <row r="93" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B93" s="30" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="C93" s="35" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
     </row>
     <row r="94" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B94" s="30" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="C94" s="35" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
     </row>
     <row r="95" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B95" s="30" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="C95" s="35" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
     </row>
     <row r="96" spans="2:3" x14ac:dyDescent="0.3">
@@ -5679,80 +5575,80 @@
     </row>
     <row r="97" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B97" s="29" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="C97" s="34"/>
     </row>
     <row r="98" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B98" s="30" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="C98" s="35" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
     </row>
     <row r="99" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B99" s="30" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="C99" s="35" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
     </row>
     <row r="100" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B100" s="30" t="s">
-        <v>286</v>
+        <v>277</v>
       </c>
       <c r="C100" s="37" t="s">
-        <v>552</v>
+        <v>543</v>
       </c>
     </row>
     <row r="101" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B101" s="30" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="C101" s="37" t="s">
-        <v>553</v>
+        <v>544</v>
       </c>
     </row>
     <row r="102" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B102" s="30" t="s">
-        <v>288</v>
+        <v>279</v>
       </c>
       <c r="C102" s="35" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
     </row>
     <row r="103" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B103" s="30" t="s">
-        <v>290</v>
+        <v>281</v>
       </c>
       <c r="C103" s="35" t="s">
-        <v>291</v>
+        <v>282</v>
       </c>
     </row>
     <row r="104" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B104" s="30" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="C104" s="35" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
     </row>
     <row r="105" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B105" s="30" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="C105" s="35" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
     </row>
     <row r="106" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B106" s="30" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="C106" s="35" t="s">
-        <v>297</v>
+        <v>288</v>
       </c>
     </row>
     <row r="107" spans="2:3" x14ac:dyDescent="0.3">
@@ -5761,16 +5657,16 @@
     </row>
     <row r="108" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B108" s="29" t="s">
-        <v>298</v>
+        <v>289</v>
       </c>
       <c r="C108" s="34"/>
     </row>
     <row r="109" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B109" s="30" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="C109" s="35" t="s">
-        <v>300</v>
+        <v>291</v>
       </c>
     </row>
     <row r="110" spans="2:3" x14ac:dyDescent="0.3">
@@ -5779,16 +5675,16 @@
     </row>
     <row r="111" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B111" s="29" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="C111" s="34"/>
     </row>
     <row r="112" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B112" s="30" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="C112" s="35" t="s">
-        <v>303</v>
+        <v>294</v>
       </c>
     </row>
     <row r="113" spans="2:4" x14ac:dyDescent="0.3">
@@ -5797,48 +5693,48 @@
     </row>
     <row r="114" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B114" s="29" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="C114" s="34"/>
     </row>
     <row r="115" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B115" s="30" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="C115" s="35" t="s">
-        <v>306</v>
+        <v>297</v>
       </c>
     </row>
     <row r="116" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B116" s="30" t="s">
-        <v>307</v>
+        <v>298</v>
       </c>
       <c r="C116" s="35" t="s">
-        <v>308</v>
+        <v>299</v>
       </c>
     </row>
     <row r="117" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B117" s="30" t="s">
-        <v>309</v>
+        <v>300</v>
       </c>
       <c r="C117" s="35" t="s">
-        <v>310</v>
+        <v>301</v>
       </c>
     </row>
     <row r="118" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B118" s="30" t="s">
-        <v>311</v>
+        <v>302</v>
       </c>
       <c r="C118" s="35" t="s">
-        <v>312</v>
+        <v>303</v>
       </c>
     </row>
     <row r="119" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B119" s="30" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
       <c r="C119" s="35" t="s">
-        <v>314</v>
+        <v>305</v>
       </c>
     </row>
     <row r="120" spans="2:4" x14ac:dyDescent="0.3">
@@ -5847,91 +5743,91 @@
     </row>
     <row r="121" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B121" s="29" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="C121" s="34"/>
     </row>
     <row r="122" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B122" s="30" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="C122" s="35" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
     </row>
     <row r="123" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B123" s="30" t="s">
-        <v>318</v>
+        <v>309</v>
       </c>
       <c r="C123" s="37" t="s">
-        <v>554</v>
+        <v>545</v>
       </c>
     </row>
     <row r="124" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B124" s="30" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
       <c r="C124" s="35" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
     </row>
     <row r="125" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B125" s="30" t="s">
-        <v>321</v>
+        <v>312</v>
       </c>
       <c r="C125" s="35" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
       <c r="D125" s="27" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
     </row>
     <row r="126" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B126" s="30" t="s">
-        <v>323</v>
+        <v>314</v>
       </c>
       <c r="C126" s="35" t="s">
-        <v>324</v>
+        <v>315</v>
       </c>
     </row>
     <row r="127" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B127" s="30" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
       <c r="C127" s="35" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
     </row>
     <row r="128" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B128" s="30" t="s">
-        <v>327</v>
+        <v>318</v>
       </c>
       <c r="C128" s="35" t="s">
-        <v>328</v>
+        <v>319</v>
       </c>
     </row>
     <row r="129" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B129" s="30" t="s">
-        <v>329</v>
+        <v>320</v>
       </c>
       <c r="C129" s="37" t="s">
-        <v>555</v>
+        <v>546</v>
       </c>
     </row>
     <row r="130" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B130" s="30" t="s">
-        <v>330</v>
+        <v>321</v>
       </c>
       <c r="C130" s="35" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
     </row>
     <row r="131" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B131" s="30" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="C131" s="35" t="s">
-        <v>333</v>
+        <v>324</v>
       </c>
     </row>
     <row r="132" spans="2:4" x14ac:dyDescent="0.3">
@@ -5940,43 +5836,43 @@
     </row>
     <row r="133" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B133" s="29" t="s">
-        <v>334</v>
+        <v>325</v>
       </c>
       <c r="C133" s="34"/>
     </row>
     <row r="134" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B134" s="30" t="s">
-        <v>335</v>
+        <v>326</v>
       </c>
       <c r="C134" s="35" t="s">
-        <v>336</v>
+        <v>327</v>
       </c>
     </row>
     <row r="135" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B135" s="30" t="s">
-        <v>337</v>
+        <v>328</v>
       </c>
       <c r="C135" s="37" t="s">
-        <v>556</v>
+        <v>547</v>
       </c>
     </row>
     <row r="136" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B136" s="30" t="s">
-        <v>338</v>
+        <v>329</v>
       </c>
       <c r="C136" s="37" t="s">
-        <v>557</v>
+        <v>548</v>
       </c>
     </row>
     <row r="137" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B137" s="30" t="s">
-        <v>339</v>
+        <v>330</v>
       </c>
       <c r="C137" s="35" t="s">
-        <v>340</v>
+        <v>331</v>
       </c>
       <c r="D137" s="27" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
     </row>
     <row r="138" spans="2:4" x14ac:dyDescent="0.3">
@@ -5985,40 +5881,40 @@
     </row>
     <row r="139" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B139" s="29" t="s">
-        <v>341</v>
+        <v>332</v>
       </c>
       <c r="C139" s="34"/>
     </row>
     <row r="140" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B140" s="30" t="s">
-        <v>342</v>
+        <v>333</v>
       </c>
       <c r="C140" s="35" t="s">
-        <v>343</v>
+        <v>334</v>
       </c>
     </row>
     <row r="141" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B141" s="30" t="s">
-        <v>344</v>
+        <v>335</v>
       </c>
       <c r="C141" s="37" t="s">
-        <v>558</v>
+        <v>549</v>
       </c>
     </row>
     <row r="142" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B142" s="30" t="s">
-        <v>345</v>
+        <v>336</v>
       </c>
       <c r="C142" s="35" t="s">
-        <v>346</v>
+        <v>337</v>
       </c>
     </row>
     <row r="143" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B143" s="30" t="s">
-        <v>347</v>
+        <v>338</v>
       </c>
       <c r="C143" s="37" t="s">
-        <v>559</v>
+        <v>550</v>
       </c>
     </row>
     <row r="144" spans="2:4" x14ac:dyDescent="0.3">
@@ -6027,152 +5923,152 @@
     </row>
     <row r="145" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B145" s="29" t="s">
-        <v>348</v>
+        <v>339</v>
       </c>
       <c r="C145" s="34"/>
     </row>
     <row r="146" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B146" s="30" t="s">
-        <v>349</v>
+        <v>340</v>
       </c>
       <c r="C146" s="35" t="s">
-        <v>350</v>
+        <v>341</v>
       </c>
     </row>
     <row r="147" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B147" s="30" t="s">
-        <v>351</v>
+        <v>342</v>
       </c>
       <c r="C147" s="35" t="s">
-        <v>352</v>
+        <v>343</v>
       </c>
     </row>
     <row r="148" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B148" s="30" t="s">
-        <v>353</v>
+        <v>344</v>
       </c>
       <c r="C148" s="35" t="s">
-        <v>354</v>
+        <v>345</v>
       </c>
     </row>
     <row r="149" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B149" s="30" t="s">
-        <v>355</v>
+        <v>346</v>
       </c>
       <c r="C149" s="35" t="s">
-        <v>356</v>
+        <v>347</v>
       </c>
     </row>
     <row r="150" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B150" s="30" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
       <c r="C150" s="37" t="s">
-        <v>560</v>
+        <v>551</v>
       </c>
     </row>
     <row r="151" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B151" s="30" t="s">
-        <v>358</v>
+        <v>349</v>
       </c>
       <c r="C151" s="35" t="s">
-        <v>359</v>
+        <v>350</v>
       </c>
     </row>
     <row r="152" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B152" s="30" t="s">
-        <v>360</v>
+        <v>351</v>
       </c>
       <c r="C152" s="35" t="s">
-        <v>361</v>
+        <v>352</v>
       </c>
     </row>
     <row r="153" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B153" s="30" t="s">
-        <v>362</v>
+        <v>353</v>
       </c>
       <c r="C153" s="35" t="s">
-        <v>363</v>
+        <v>354</v>
       </c>
     </row>
     <row r="154" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B154" s="30" t="s">
-        <v>364</v>
+        <v>355</v>
       </c>
       <c r="C154" s="35" t="s">
-        <v>365</v>
+        <v>356</v>
       </c>
     </row>
     <row r="155" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B155" s="30" t="s">
-        <v>366</v>
+        <v>357</v>
       </c>
       <c r="C155" s="35" t="s">
-        <v>367</v>
+        <v>358</v>
       </c>
     </row>
     <row r="156" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B156" s="30" t="s">
-        <v>368</v>
+        <v>359</v>
       </c>
       <c r="C156" s="35" t="s">
-        <v>369</v>
+        <v>360</v>
       </c>
     </row>
     <row r="157" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B157" s="30" t="s">
-        <v>370</v>
+        <v>361</v>
       </c>
       <c r="C157" s="35" t="s">
-        <v>371</v>
+        <v>362</v>
       </c>
     </row>
     <row r="158" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B158" s="30" t="s">
-        <v>372</v>
+        <v>363</v>
       </c>
       <c r="C158" s="35" t="s">
-        <v>373</v>
+        <v>364</v>
       </c>
     </row>
     <row r="159" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B159" s="30" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="C159" s="35" t="s">
-        <v>375</v>
+        <v>366</v>
       </c>
     </row>
     <row r="160" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B160" s="30" t="s">
-        <v>376</v>
+        <v>367</v>
       </c>
       <c r="C160" s="35" t="s">
-        <v>377</v>
+        <v>368</v>
       </c>
     </row>
     <row r="161" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B161" s="30" t="s">
-        <v>378</v>
+        <v>369</v>
       </c>
       <c r="C161" s="35" t="s">
-        <v>379</v>
+        <v>370</v>
       </c>
     </row>
     <row r="162" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B162" s="30" t="s">
-        <v>380</v>
+        <v>371</v>
       </c>
       <c r="C162" s="35" t="s">
-        <v>381</v>
+        <v>372</v>
       </c>
     </row>
     <row r="163" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B163" s="30" t="s">
-        <v>382</v>
+        <v>373</v>
       </c>
       <c r="C163" s="35" t="s">
-        <v>383</v>
+        <v>374</v>
       </c>
     </row>
     <row r="164" spans="2:3" x14ac:dyDescent="0.3">
@@ -6181,24 +6077,24 @@
     </row>
     <row r="165" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B165" s="29" t="s">
-        <v>384</v>
+        <v>375</v>
       </c>
       <c r="C165" s="34"/>
     </row>
     <row r="166" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B166" s="30" t="s">
-        <v>385</v>
+        <v>376</v>
       </c>
       <c r="C166" s="35" t="s">
-        <v>386</v>
+        <v>377</v>
       </c>
     </row>
     <row r="167" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B167" s="30" t="s">
-        <v>387</v>
+        <v>378</v>
       </c>
       <c r="C167" s="35" t="s">
-        <v>388</v>
+        <v>379</v>
       </c>
     </row>
     <row r="168" spans="2:3" x14ac:dyDescent="0.3">
@@ -6207,64 +6103,64 @@
     </row>
     <row r="169" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B169" s="29" t="s">
-        <v>389</v>
+        <v>380</v>
       </c>
       <c r="C169" s="34"/>
     </row>
     <row r="170" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B170" s="30" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
       <c r="C170" s="35" t="s">
-        <v>391</v>
+        <v>382</v>
       </c>
     </row>
     <row r="171" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B171" s="30" t="s">
-        <v>392</v>
+        <v>383</v>
       </c>
       <c r="C171" s="35" t="s">
-        <v>393</v>
+        <v>384</v>
       </c>
     </row>
     <row r="172" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B172" s="30" t="s">
-        <v>394</v>
+        <v>385</v>
       </c>
       <c r="C172" s="35" t="s">
-        <v>395</v>
+        <v>386</v>
       </c>
     </row>
     <row r="173" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B173" s="30" t="s">
-        <v>396</v>
+        <v>387</v>
       </c>
       <c r="C173" s="35" t="s">
-        <v>397</v>
+        <v>388</v>
       </c>
     </row>
     <row r="174" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B174" s="30" t="s">
-        <v>398</v>
+        <v>389</v>
       </c>
       <c r="C174" s="35" t="s">
-        <v>399</v>
+        <v>390</v>
       </c>
     </row>
     <row r="175" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B175" s="30" t="s">
-        <v>400</v>
+        <v>391</v>
       </c>
       <c r="C175" s="35" t="s">
-        <v>401</v>
+        <v>392</v>
       </c>
     </row>
     <row r="176" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B176" s="30" t="s">
-        <v>402</v>
+        <v>393</v>
       </c>
       <c r="C176" s="35" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
     </row>
     <row r="177" spans="2:3" x14ac:dyDescent="0.3">
@@ -6273,232 +6169,232 @@
     </row>
     <row r="178" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B178" s="29" t="s">
-        <v>404</v>
+        <v>395</v>
       </c>
       <c r="C178" s="34"/>
     </row>
     <row r="179" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B179" s="30" t="s">
-        <v>405</v>
+        <v>396</v>
       </c>
       <c r="C179" s="35" t="s">
-        <v>406</v>
+        <v>397</v>
       </c>
     </row>
     <row r="180" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B180" s="30" t="s">
-        <v>407</v>
+        <v>398</v>
       </c>
       <c r="C180" s="35" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
     </row>
     <row r="181" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B181" s="30" t="s">
-        <v>409</v>
+        <v>400</v>
       </c>
       <c r="C181" s="35" t="s">
-        <v>410</v>
+        <v>401</v>
       </c>
     </row>
     <row r="182" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B182" s="30" t="s">
-        <v>411</v>
+        <v>402</v>
       </c>
       <c r="C182" s="35" t="s">
-        <v>412</v>
+        <v>403</v>
       </c>
     </row>
     <row r="183" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B183" s="30" t="s">
-        <v>413</v>
+        <v>404</v>
       </c>
       <c r="C183" s="35" t="s">
-        <v>414</v>
+        <v>405</v>
       </c>
     </row>
     <row r="184" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B184" s="30" t="s">
-        <v>415</v>
+        <v>406</v>
       </c>
       <c r="C184" s="35" t="s">
-        <v>416</v>
+        <v>407</v>
       </c>
     </row>
     <row r="185" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B185" s="30" t="s">
-        <v>417</v>
+        <v>408</v>
       </c>
       <c r="C185" s="35" t="s">
-        <v>418</v>
+        <v>409</v>
       </c>
     </row>
     <row r="186" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B186" s="30" t="s">
-        <v>419</v>
+        <v>410</v>
       </c>
       <c r="C186" s="35" t="s">
-        <v>420</v>
+        <v>411</v>
       </c>
     </row>
     <row r="187" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B187" s="30" t="s">
-        <v>421</v>
+        <v>412</v>
       </c>
       <c r="C187" s="35" t="s">
-        <v>422</v>
+        <v>413</v>
       </c>
     </row>
     <row r="188" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B188" s="30" t="s">
-        <v>423</v>
+        <v>414</v>
       </c>
       <c r="C188" s="37" t="s">
-        <v>561</v>
+        <v>552</v>
       </c>
     </row>
     <row r="189" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B189" s="30" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="C189" s="35" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
     </row>
     <row r="190" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B190" s="30" t="s">
-        <v>426</v>
+        <v>417</v>
       </c>
       <c r="C190" s="37" t="s">
-        <v>562</v>
+        <v>553</v>
       </c>
     </row>
     <row r="191" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B191" s="30" t="s">
-        <v>427</v>
+        <v>418</v>
       </c>
       <c r="C191" s="35" t="s">
-        <v>428</v>
+        <v>419</v>
       </c>
     </row>
     <row r="192" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B192" s="30" t="s">
-        <v>429</v>
+        <v>420</v>
       </c>
       <c r="C192" s="35" t="s">
-        <v>430</v>
+        <v>421</v>
       </c>
     </row>
     <row r="193" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B193" s="30" t="s">
-        <v>431</v>
+        <v>422</v>
       </c>
       <c r="C193" s="37" t="s">
-        <v>563</v>
+        <v>554</v>
       </c>
     </row>
     <row r="194" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B194" s="30" t="s">
-        <v>432</v>
+        <v>423</v>
       </c>
       <c r="C194" s="35" t="s">
-        <v>433</v>
+        <v>424</v>
       </c>
     </row>
     <row r="195" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B195" s="30" t="s">
-        <v>434</v>
+        <v>425</v>
       </c>
       <c r="C195" s="35" t="s">
-        <v>435</v>
+        <v>426</v>
       </c>
     </row>
     <row r="196" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B196" s="30" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
       <c r="C196" s="35" t="s">
-        <v>437</v>
+        <v>428</v>
       </c>
     </row>
     <row r="197" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B197" s="30" t="s">
-        <v>438</v>
+        <v>429</v>
       </c>
       <c r="C197" s="35" t="s">
-        <v>439</v>
+        <v>430</v>
       </c>
     </row>
     <row r="198" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B198" s="30" t="s">
-        <v>440</v>
+        <v>431</v>
       </c>
       <c r="C198" s="35" t="s">
-        <v>441</v>
+        <v>432</v>
       </c>
     </row>
     <row r="199" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B199" s="30" t="s">
-        <v>442</v>
+        <v>433</v>
       </c>
       <c r="C199" s="35" t="s">
-        <v>443</v>
+        <v>434</v>
       </c>
     </row>
     <row r="200" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B200" s="30" t="s">
-        <v>444</v>
+        <v>435</v>
       </c>
       <c r="C200" s="35" t="s">
-        <v>445</v>
+        <v>436</v>
       </c>
     </row>
     <row r="201" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B201" s="30" t="s">
-        <v>446</v>
+        <v>437</v>
       </c>
       <c r="C201" s="35" t="s">
-        <v>447</v>
+        <v>438</v>
       </c>
     </row>
     <row r="202" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B202" s="30" t="s">
-        <v>448</v>
+        <v>439</v>
       </c>
       <c r="C202" s="37" t="s">
-        <v>564</v>
+        <v>555</v>
       </c>
     </row>
     <row r="203" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B203" s="30" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
       <c r="C203" s="35" t="s">
-        <v>450</v>
+        <v>441</v>
       </c>
     </row>
     <row r="204" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B204" s="30" t="s">
-        <v>451</v>
+        <v>442</v>
       </c>
       <c r="C204" s="35" t="s">
-        <v>452</v>
+        <v>443</v>
       </c>
     </row>
     <row r="205" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B205" s="30" t="s">
-        <v>453</v>
+        <v>444</v>
       </c>
       <c r="C205" s="35" t="s">
-        <v>454</v>
+        <v>445</v>
       </c>
     </row>
     <row r="206" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B206" s="30" t="s">
-        <v>455</v>
+        <v>446</v>
       </c>
       <c r="C206" s="35" t="s">
-        <v>456</v>
+        <v>447</v>
       </c>
     </row>
     <row r="207" spans="2:3" x14ac:dyDescent="0.3">
@@ -6507,176 +6403,176 @@
     </row>
     <row r="208" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B208" s="29" t="s">
-        <v>457</v>
+        <v>448</v>
       </c>
       <c r="C208" s="34"/>
     </row>
     <row r="209" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B209" s="30" t="s">
-        <v>458</v>
+        <v>449</v>
       </c>
       <c r="C209" s="35" t="s">
-        <v>459</v>
+        <v>450</v>
       </c>
     </row>
     <row r="210" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B210" s="30" t="s">
-        <v>460</v>
+        <v>451</v>
       </c>
       <c r="C210" s="35" t="s">
-        <v>461</v>
+        <v>452</v>
       </c>
     </row>
     <row r="211" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B211" s="30" t="s">
-        <v>462</v>
+        <v>453</v>
       </c>
       <c r="C211" s="37" t="s">
-        <v>565</v>
+        <v>556</v>
       </c>
     </row>
     <row r="212" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B212" s="30" t="s">
-        <v>463</v>
+        <v>454</v>
       </c>
       <c r="C212" s="35" t="s">
-        <v>464</v>
+        <v>455</v>
       </c>
     </row>
     <row r="213" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B213" s="30" t="s">
-        <v>465</v>
+        <v>456</v>
       </c>
       <c r="C213" s="35" t="s">
-        <v>466</v>
+        <v>457</v>
       </c>
     </row>
     <row r="214" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B214" s="30" t="s">
-        <v>467</v>
+        <v>458</v>
       </c>
       <c r="C214" s="35" t="s">
-        <v>468</v>
+        <v>459</v>
       </c>
     </row>
     <row r="215" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B215" s="30" t="s">
-        <v>469</v>
+        <v>460</v>
       </c>
       <c r="C215" s="35" t="s">
-        <v>470</v>
+        <v>461</v>
       </c>
     </row>
     <row r="216" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B216" s="30" t="s">
-        <v>471</v>
+        <v>462</v>
       </c>
       <c r="C216" s="35" t="s">
-        <v>472</v>
+        <v>463</v>
       </c>
     </row>
     <row r="217" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B217" s="30" t="s">
-        <v>473</v>
+        <v>464</v>
       </c>
       <c r="C217" s="35" t="s">
-        <v>474</v>
+        <v>465</v>
       </c>
     </row>
     <row r="218" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B218" s="30" t="s">
-        <v>475</v>
+        <v>466</v>
       </c>
       <c r="C218" s="35" t="s">
-        <v>476</v>
+        <v>467</v>
       </c>
     </row>
     <row r="219" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B219" s="30" t="s">
-        <v>477</v>
+        <v>468</v>
       </c>
       <c r="C219" s="35" t="s">
-        <v>478</v>
+        <v>469</v>
       </c>
     </row>
     <row r="220" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B220" s="30" t="s">
-        <v>479</v>
+        <v>470</v>
       </c>
       <c r="C220" s="35" t="s">
-        <v>480</v>
+        <v>471</v>
       </c>
     </row>
     <row r="221" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B221" s="30" t="s">
-        <v>481</v>
+        <v>472</v>
       </c>
       <c r="C221" s="35" t="s">
-        <v>482</v>
+        <v>473</v>
       </c>
     </row>
     <row r="222" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B222" s="30" t="s">
-        <v>483</v>
+        <v>474</v>
       </c>
       <c r="C222" s="35" t="s">
-        <v>484</v>
+        <v>475</v>
       </c>
     </row>
     <row r="223" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B223" s="30" t="s">
-        <v>485</v>
+        <v>476</v>
       </c>
       <c r="C223" s="35" t="s">
-        <v>486</v>
+        <v>477</v>
       </c>
     </row>
     <row r="224" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B224" s="30" t="s">
-        <v>487</v>
+        <v>478</v>
       </c>
       <c r="C224" s="35" t="s">
-        <v>488</v>
+        <v>479</v>
       </c>
     </row>
     <row r="225" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B225" s="30" t="s">
-        <v>489</v>
+        <v>480</v>
       </c>
       <c r="C225" s="35" t="s">
-        <v>490</v>
+        <v>481</v>
       </c>
     </row>
     <row r="226" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B226" s="30" t="s">
-        <v>491</v>
+        <v>482</v>
       </c>
       <c r="C226" s="35" t="s">
-        <v>492</v>
+        <v>483</v>
       </c>
     </row>
     <row r="227" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B227" s="30" t="s">
-        <v>493</v>
+        <v>484</v>
       </c>
       <c r="C227" s="35" t="s">
-        <v>494</v>
+        <v>485</v>
       </c>
     </row>
     <row r="228" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B228" s="30" t="s">
-        <v>495</v>
+        <v>486</v>
       </c>
       <c r="C228" s="35" t="s">
-        <v>496</v>
+        <v>487</v>
       </c>
     </row>
     <row r="229" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B229" s="30" t="s">
-        <v>497</v>
+        <v>488</v>
       </c>
       <c r="C229" s="35" t="s">
-        <v>498</v>
+        <v>489</v>
       </c>
     </row>
     <row r="230" spans="2:3" x14ac:dyDescent="0.3">
@@ -6685,46 +6581,46 @@
     </row>
     <row r="231" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B231" s="29" t="s">
-        <v>499</v>
+        <v>490</v>
       </c>
       <c r="C231" s="34"/>
     </row>
     <row r="232" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B232" s="30" t="s">
-        <v>500</v>
+        <v>491</v>
       </c>
       <c r="C232" s="35" t="s">
-        <v>501</v>
+        <v>492</v>
       </c>
     </row>
     <row r="233" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B233" s="30" t="s">
-        <v>502</v>
+        <v>493</v>
       </c>
       <c r="C233" s="35" t="s">
-        <v>503</v>
+        <v>494</v>
       </c>
     </row>
     <row r="234" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B234" s="30" t="s">
-        <v>504</v>
+        <v>495</v>
       </c>
       <c r="C234" s="35"/>
     </row>
     <row r="235" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B235" s="30" t="s">
-        <v>505</v>
+        <v>496</v>
       </c>
       <c r="C235" s="37" t="s">
-        <v>566</v>
+        <v>557</v>
       </c>
     </row>
     <row r="236" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B236" s="30" t="s">
-        <v>506</v>
+        <v>497</v>
       </c>
       <c r="C236" s="35" t="s">
-        <v>507</v>
+        <v>498</v>
       </c>
     </row>
     <row r="237" spans="2:3" x14ac:dyDescent="0.3">
@@ -6733,16 +6629,16 @@
     </row>
     <row r="238" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B238" s="29" t="s">
-        <v>508</v>
+        <v>499</v>
       </c>
       <c r="C238" s="34"/>
     </row>
     <row r="239" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B239" s="30" t="s">
-        <v>509</v>
+        <v>500</v>
       </c>
       <c r="C239" s="35" t="s">
-        <v>510</v>
+        <v>501</v>
       </c>
     </row>
     <row r="240" spans="2:3" x14ac:dyDescent="0.3">
@@ -6751,64 +6647,64 @@
     </row>
     <row r="241" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B241" s="29" t="s">
-        <v>511</v>
+        <v>502</v>
       </c>
       <c r="C241" s="34"/>
     </row>
     <row r="242" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B242" s="30" t="s">
-        <v>512</v>
+        <v>503</v>
       </c>
       <c r="C242" s="35" t="s">
-        <v>513</v>
+        <v>504</v>
       </c>
     </row>
     <row r="243" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B243" s="30" t="s">
-        <v>514</v>
+        <v>505</v>
       </c>
       <c r="C243" s="35" t="s">
-        <v>515</v>
+        <v>506</v>
       </c>
     </row>
     <row r="244" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B244" s="30" t="s">
-        <v>516</v>
+        <v>507</v>
       </c>
       <c r="C244" s="35" t="s">
-        <v>517</v>
+        <v>508</v>
       </c>
     </row>
     <row r="245" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B245" s="30" t="s">
-        <v>518</v>
+        <v>509</v>
       </c>
       <c r="C245" s="35" t="s">
-        <v>519</v>
+        <v>510</v>
       </c>
     </row>
     <row r="246" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B246" s="30" t="s">
-        <v>520</v>
+        <v>511</v>
       </c>
       <c r="C246" s="35" t="s">
-        <v>521</v>
+        <v>512</v>
       </c>
     </row>
     <row r="247" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B247" s="30" t="s">
-        <v>522</v>
+        <v>513</v>
       </c>
       <c r="C247" s="35" t="s">
-        <v>523</v>
+        <v>514</v>
       </c>
     </row>
     <row r="248" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B248" s="30" t="s">
-        <v>524</v>
+        <v>515</v>
       </c>
       <c r="C248" s="35" t="s">
-        <v>525</v>
+        <v>516</v>
       </c>
     </row>
     <row r="249" spans="2:3" x14ac:dyDescent="0.3">
@@ -6817,29 +6713,29 @@
     </row>
     <row r="250" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B250" s="29" t="s">
-        <v>526</v>
+        <v>517</v>
       </c>
       <c r="C250" s="34"/>
     </row>
     <row r="251" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B251" s="30" t="s">
-        <v>527</v>
+        <v>518</v>
       </c>
       <c r="C251" s="37" t="s">
-        <v>567</v>
+        <v>558</v>
       </c>
     </row>
     <row r="252" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B252" s="30" t="s">
-        <v>528</v>
+        <v>519</v>
       </c>
       <c r="C252" s="35" t="s">
-        <v>529</v>
+        <v>520</v>
       </c>
     </row>
     <row r="253" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B253" s="31" t="s">
-        <v>530</v>
+        <v>521</v>
       </c>
       <c r="C253" s="35"/>
     </row>
@@ -6849,53 +6745,53 @@
     </row>
     <row r="255" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B255" s="29" t="s">
-        <v>531</v>
+        <v>522</v>
       </c>
       <c r="C255" s="34"/>
     </row>
     <row r="256" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B256" s="30" t="s">
-        <v>532</v>
+        <v>523</v>
       </c>
       <c r="C256" s="35" t="s">
-        <v>533</v>
+        <v>524</v>
       </c>
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B257" s="30" t="s">
-        <v>534</v>
+        <v>525</v>
       </c>
       <c r="C257" s="35" t="s">
-        <v>535</v>
+        <v>526</v>
       </c>
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B258" s="30" t="s">
-        <v>536</v>
+        <v>527</v>
       </c>
       <c r="C258" s="35" t="s">
-        <v>537</v>
+        <v>528</v>
       </c>
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B259" s="30" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
       <c r="C259" s="35" t="s">
-        <v>539</v>
+        <v>530</v>
       </c>
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B260" s="30" t="s">
-        <v>540</v>
+        <v>531</v>
       </c>
       <c r="C260" s="35" t="s">
-        <v>541</v>
+        <v>532</v>
       </c>
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A262" s="32" t="s">
-        <v>542</v>
+        <v>533</v>
       </c>
       <c r="B262" s="33">
         <f>+COUNTA(B2:B260)-27</f>
@@ -7176,22 +7072,22 @@
   <sheetData>
     <row r="2" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B2" s="41" t="s">
-        <v>543</v>
+        <v>534</v>
       </c>
       <c r="C2" s="41" t="s">
-        <v>568</v>
+        <v>559</v>
       </c>
       <c r="D2" s="41" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="E2" s="28"/>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B3" s="30" t="s">
-        <v>569</v>
+        <v>560</v>
       </c>
       <c r="C3" s="35" t="s">
-        <v>570</v>
+        <v>561</v>
       </c>
       <c r="D3" s="28"/>
       <c r="E3" s="28"/>
